--- a/docs/indicator_dictionary.xlsx
+++ b/docs/indicator_dictionary.xlsx
@@ -11530,7 +11530,7 @@
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17408,24 +17408,16 @@
   </sheetPr>
   <dimension ref="A1:J207"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -19072,7 +19064,7 @@
         <f aca="false">VLOOKUP($A42,Sources!$A$1:$G$250,5,0)</f>
         <v>ILO NORMLEX</v>
       </c>
-      <c r="E42" s="3" t="str">
+      <c r="E42" s="0" t="str">
         <f aca="false">VLOOKUP($A42,Sources!$A$1:$G$250,6,0)</f>
         <v>Ratification by Convention. Ratifications of C103 - Maternity Protection Convention (Revised), 1952 (No. 103). 
 ILO. NORMLEX. Ratification by Convention. Ratifications of C103 - Maternity Protection Convention (Revised), 1952 (No. 103). </v>
@@ -23953,7 +23945,7 @@
         <f aca="false">VLOOKUP($A164,Sources!$A$1:$G$250,5,0)</f>
         <v>ILO</v>
       </c>
-      <c r="E164" s="3" t="str">
+      <c r="E164" s="0" t="str">
         <f aca="false">VLOOKUP($A164,Sources!$A$1:$G$250,6,0)</f>
         <v>Maternity and Paternity at Work, 2014: P.144 Appendix 4, column 3  ILO, Maternity and Paternity at Work, 2014:  
 NOTE: this is the same source used for the indicators above on women 'entitled' to leave and cash benefits. A PDF Go to P. 144 Appendix 3, column 3</v>
@@ -24394,7 +24386,7 @@
         <f aca="false">VLOOKUP($A175,Sources!$A$1:$G$250,5,0)</f>
         <v>UN SDG</v>
       </c>
-      <c r="E175" s="3" t="str">
+      <c r="E175" s="0" t="str">
         <f aca="false">VLOOKUP($A175,Sources!$A$1:$G$250,6,0)</f>
         <v>SDG database 12.4.1 Reporting on hazardous waste commitments. 
 Parties meeting their commitments and obligations in transmitting information as required by Stockholm Convention on hazardous waste, and other chemicals SG_HAZ_CMRSTHOLM</v>
@@ -25719,20 +25711,12 @@
   <dimension ref="A1:J210"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="13.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26609,30 +26593,30 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C23" s="0" t="str">
         <f aca="false">VLOOKUP($A23,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-52</v>
+        <v>S-45</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">VLOOKUP($A23,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNESCO</v>
+        <v>World Policy Analysis Centre</v>
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">VLOOKUP($A23,Sources!$A$1:$G$250,6,0)</f>
-        <v>Gross early childhood education enrolment ratio in (a) pre-primary education and (b) early childhood educational development (SDG Indicator 4.2.4) </v>
+        <v>Do families receive benefits for childcare or school costs? </v>
       </c>
       <c r="F23" s="0" t="str">
         <f aca="false">VLOOKUP($A23,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-48</v>
+        <v>I-41</v>
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">VLOOKUP($F23,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Access to pre-primary education</v>
+        <v>Support for childcare</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">VLOOKUP($F23,Indicators!$A$1:$G$250,2,0)</f>
@@ -26644,35 +26628,35 @@
       </c>
       <c r="J23" s="0" t="str">
         <f aca="false">VLOOKUP($F23,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1122</v>
+        <v>251</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C24" s="0" t="str">
         <f aca="false">VLOOKUP($A24,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-54</v>
+        <v>S-52</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">VLOOKUP($A24,Sources!$A$1:$G$250,5,0)</f>
-        <v>International Trade Union Confederation</v>
+        <v>UNESCO</v>
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">VLOOKUP($A24,Sources!$A$1:$G$250,6,0)</f>
-        <v>(2017). Workers’ rights in law.</v>
+        <v>Gross early childhood education enrolment ratio in (a) pre-primary education and (b) early childhood educational development (SDG Indicator 4.2.4) </v>
       </c>
       <c r="F24" s="0" t="str">
         <f aca="false">VLOOKUP($A24,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-50</v>
+        <v>I-48</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">VLOOKUP($F24,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Trade union representation</v>
+        <v>Access to pre-primary education</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">VLOOKUP($F24,Indicators!$A$1:$G$250,2,0)</f>
@@ -26680,39 +26664,39 @@
       </c>
       <c r="I24" s="0" t="str">
         <f aca="false">VLOOKUP($F24,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J24" s="0" t="str">
         <f aca="false">VLOOKUP($F24,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>268</v>
+        <v>1122</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="C25" s="0" t="str">
         <f aca="false">VLOOKUP($A25,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-55</v>
+        <v>S-54</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">VLOOKUP($A25,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNESCO</v>
+        <v>International Trade Union Confederation</v>
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">VLOOKUP($A25,Sources!$A$1:$G$250,6,0)</f>
-        <v>Percentage of out-of-school adolescents of lower secondary school age. </v>
+        <v>(2017). Workers’ rights in law.</v>
       </c>
       <c r="F25" s="0" t="str">
         <f aca="false">VLOOKUP($A25,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-15</v>
+        <v>I-50</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">VLOOKUP($F25,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Out-of-school adolescents (lower secondary)</v>
+        <v>Trade union representation</v>
       </c>
       <c r="H25" s="0" t="str">
         <f aca="false">VLOOKUP($F25,Indicators!$A$1:$G$250,2,0)</f>
@@ -26720,23 +26704,23 @@
       </c>
       <c r="I25" s="0" t="str">
         <f aca="false">VLOOKUP($F25,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J25" s="0" t="str">
         <f aca="false">VLOOKUP($F25,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C26" s="0" t="str">
         <f aca="false">VLOOKUP($A26,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-56</v>
+        <v>S-55</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">VLOOKUP($A26,Sources!$A$1:$G$250,5,0)</f>
@@ -26744,15 +26728,15 @@
       </c>
       <c r="E26" s="0" t="str">
         <f aca="false">VLOOKUP($A26,Sources!$A$1:$G$250,6,0)</f>
-        <v>Percentage of out-of-school adolescents of upper secondary school age. </v>
+        <v>Percentage of out-of-school adolescents of lower secondary school age. </v>
       </c>
       <c r="F26" s="0" t="str">
         <f aca="false">VLOOKUP($A26,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-16</v>
+        <v>I-15</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">VLOOKUP($F26,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Out-of-school adolescents (upper secondary)</v>
+        <v>Out-of-school adolescents (lower secondary)</v>
       </c>
       <c r="H26" s="0" t="str">
         <f aca="false">VLOOKUP($F26,Indicators!$A$1:$G$250,2,0)</f>
@@ -26769,30 +26753,30 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C27" s="0" t="str">
         <f aca="false">VLOOKUP($A27,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-57</v>
+        <v>S-56</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">VLOOKUP($A27,Sources!$A$1:$G$250,5,0)</f>
-        <v>ILO NORMLEX</v>
+        <v>UNESCO</v>
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">VLOOKUP($A27,Sources!$A$1:$G$250,6,0)</f>
-        <v>Ratification by Convention. Ratifications of C183 - Maternity Protection Convention, 2000 (No. 183). </v>
+        <v>Percentage of out-of-school adolescents of upper secondary school age. </v>
       </c>
       <c r="F27" s="0" t="str">
         <f aca="false">VLOOKUP($A27,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-191</v>
+        <v>I-16</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">VLOOKUP($F27,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Convention No. 183 Maternity Protection</v>
+        <v>Out-of-school adolescents (upper secondary)</v>
       </c>
       <c r="H27" s="0" t="str">
         <f aca="false">VLOOKUP($F27,Indicators!$A$1:$G$250,2,0)</f>
@@ -26800,40 +26784,39 @@
       </c>
       <c r="I27" s="0" t="str">
         <f aca="false">VLOOKUP($F27,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Child labour</v>
       </c>
       <c r="J27" s="0" t="str">
         <f aca="false">VLOOKUP($F27,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Outcome</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C28" s="0" t="str">
         <f aca="false">VLOOKUP($A28,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-58</v>
+        <v>S-57</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">VLOOKUP($A28,Sources!$A$1:$G$250,5,0)</f>
         <v>ILO NORMLEX</v>
       </c>
-      <c r="E28" s="3" t="str">
+      <c r="E28" s="0" t="str">
         <f aca="false">VLOOKUP($A28,Sources!$A$1:$G$250,6,0)</f>
-        <v>Ratification by Convention. Ratifications of C103 - Maternity Protection Convention (Revised), 1952 (No. 103). 
-ILO. NORMLEX. Ratification by Convention. Ratifications of C103 - Maternity Protection Convention (Revised), 1952 (No. 103). </v>
+        <v>Ratification by Convention. Ratifications of C183 - Maternity Protection Convention, 2000 (No. 183). </v>
       </c>
       <c r="F28" s="0" t="str">
         <f aca="false">VLOOKUP($A28,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-52</v>
+        <v>I-191</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">VLOOKUP($F28,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Convention No. 103 Maternity Protection Revised</v>
+        <v>Convention No. 183 Maternity Protection</v>
       </c>
       <c r="H28" s="0" t="str">
         <f aca="false">VLOOKUP($F28,Indicators!$A$1:$G$250,2,0)</f>
@@ -26848,32 +26831,33 @@
         <v>Legal framework international</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C29" s="0" t="str">
         <f aca="false">VLOOKUP($A29,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-59</v>
+        <v>S-58</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">VLOOKUP($A29,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>ILO NORMLEX</v>
       </c>
       <c r="E29" s="0" t="str">
         <f aca="false">VLOOKUP($A29,Sources!$A$1:$G$250,6,0)</f>
-        <v>8. Convention on the Elimination of All Forms of Discrimination against Women</v>
+        <v>Ratification by Convention. Ratifications of C103 - Maternity Protection Convention (Revised), 1952 (No. 103). 
+ILO. NORMLEX. Ratification by Convention. Ratifications of C103 - Maternity Protection Convention (Revised), 1952 (No. 103). </v>
       </c>
       <c r="F29" s="0" t="str">
         <f aca="false">VLOOKUP($A29,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-53</v>
+        <v>I-52</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">VLOOKUP($F29,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Convention on Elimination of Discrimination against Women</v>
+        <v>Convention No. 103 Maternity Protection Revised</v>
       </c>
       <c r="H29" s="0" t="str">
         <f aca="false">VLOOKUP($F29,Indicators!$A$1:$G$250,2,0)</f>
@@ -26890,30 +26874,30 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C30" s="0" t="str">
         <f aca="false">VLOOKUP($A30,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-61</v>
+        <v>S-59</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">VLOOKUP($A30,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E30" s="0" t="str">
         <f aca="false">VLOOKUP($A30,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 16.2.2 Detected victims of human trafficking, by age and sex (number)  VC_HTF_DETV </v>
+        <v>8. Convention on the Elimination of All Forms of Discrimination against Women</v>
       </c>
       <c r="F30" s="0" t="str">
         <f aca="false">VLOOKUP($A30,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-19</v>
+        <v>I-53</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">VLOOKUP($F30,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Prevalence of human trafficking</v>
+        <v>Convention on Elimination of Discrimination against Women</v>
       </c>
       <c r="H30" s="0" t="str">
         <f aca="false">VLOOKUP($F30,Indicators!$A$1:$G$250,2,0)</f>
@@ -26921,23 +26905,23 @@
       </c>
       <c r="I30" s="0" t="str">
         <f aca="false">VLOOKUP($F30,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J30" s="0" t="str">
         <f aca="false">VLOOKUP($F30,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C31" s="0" t="str">
         <f aca="false">VLOOKUP($A31,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-62</v>
+        <v>S-61</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">VLOOKUP($A31,Sources!$A$1:$G$250,5,0)</f>
@@ -26945,15 +26929,15 @@
       </c>
       <c r="E31" s="0" t="str">
         <f aca="false">VLOOKUP($A31,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.1.1. Proportion of population below international poverty line (%) SI_POV_DAY1 </v>
+        <v>SDG Indicator 16.2.2 Detected victims of human trafficking, by age and sex (number)  VC_HTF_DETV </v>
       </c>
       <c r="F31" s="0" t="str">
         <f aca="false">VLOOKUP($A31,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-20</v>
+        <v>I-19</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">VLOOKUP($F31,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Poverty rates</v>
+        <v>Prevalence of human trafficking</v>
       </c>
       <c r="H31" s="0" t="str">
         <f aca="false">VLOOKUP($F31,Indicators!$A$1:$G$250,2,0)</f>
@@ -26965,19 +26949,19 @@
       </c>
       <c r="J31" s="0" t="str">
         <f aca="false">VLOOKUP($F31,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C32" s="0" t="str">
         <f aca="false">VLOOKUP($A32,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-71</v>
+        <v>S-62</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">VLOOKUP($A32,Sources!$A$1:$G$250,5,0)</f>
@@ -26985,15 +26969,15 @@
       </c>
       <c r="E32" s="0" t="str">
         <f aca="false">VLOOKUP($A32,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.3.1. Proportion of mothers with newborns receiving maternity cash benefit. SI_COV_MATNL </v>
+        <v>SDG Indicator 1.1.1. Proportion of population below international poverty line (%) SI_POV_DAY1 </v>
       </c>
       <c r="F32" s="0" t="str">
         <f aca="false">VLOOKUP($A32,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-62</v>
+        <v>I-20</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">VLOOKUP($F32,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Mothers receiving maternity cash benefits</v>
+        <v>Poverty rates</v>
       </c>
       <c r="H32" s="0" t="str">
         <f aca="false">VLOOKUP($F32,Indicators!$A$1:$G$250,2,0)</f>
@@ -27001,23 +26985,23 @@
       </c>
       <c r="I32" s="0" t="str">
         <f aca="false">VLOOKUP($F32,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Child labour</v>
       </c>
       <c r="J32" s="0" t="str">
         <f aca="false">VLOOKUP($F32,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C33" s="0" t="str">
         <f aca="false">VLOOKUP($A33,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-78</v>
+        <v>S-71</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">VLOOKUP($A33,Sources!$A$1:$G$250,5,0)</f>
@@ -27025,15 +27009,15 @@
       </c>
       <c r="E33" s="0" t="str">
         <f aca="false">VLOOKUP($A33,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.3.1 . World Bank – Proportion of population covered by social insurance programmes. SI_COV_SOCINS</v>
+        <v>SDG Indicator 1.3.1. Proportion of mothers with newborns receiving maternity cash benefit. SI_COV_MATNL </v>
       </c>
       <c r="F33" s="0" t="str">
         <f aca="false">VLOOKUP($A33,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-68</v>
+        <v>I-62</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">VLOOKUP($F33,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Social insurance coverage</v>
+        <v>Mothers receiving maternity cash benefits</v>
       </c>
       <c r="H33" s="0" t="str">
         <f aca="false">VLOOKUP($F33,Indicators!$A$1:$G$250,2,0)</f>
@@ -27045,19 +27029,19 @@
       </c>
       <c r="J33" s="0" t="str">
         <f aca="false">VLOOKUP($F33,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C34" s="0" t="str">
         <f aca="false">VLOOKUP($A34,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-79</v>
+        <v>S-78</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">VLOOKUP($A34,Sources!$A$1:$G$250,5,0)</f>
@@ -27065,15 +27049,15 @@
       </c>
       <c r="E34" s="0" t="str">
         <f aca="false">VLOOKUP($A34,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.3.1 World Bank – Poorest quintile covered by social insurance programmes SI_COV_SOCINSPQ </v>
+        <v>SDG Indicator 1.3.1 . World Bank – Proportion of population covered by social insurance programmes. SI_COV_SOCINS</v>
       </c>
       <c r="F34" s="0" t="str">
         <f aca="false">VLOOKUP($A34,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-69</v>
+        <v>I-68</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">VLOOKUP($F34,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Poorest covered by social insurance</v>
+        <v>Social insurance coverage</v>
       </c>
       <c r="H34" s="0" t="str">
         <f aca="false">VLOOKUP($F34,Indicators!$A$1:$G$250,2,0)</f>
@@ -27090,14 +27074,14 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C35" s="0" t="str">
         <f aca="false">VLOOKUP($A35,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-80</v>
+        <v>S-79</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">VLOOKUP($A35,Sources!$A$1:$G$250,5,0)</f>
@@ -27105,15 +27089,15 @@
       </c>
       <c r="E35" s="0" t="str">
         <f aca="false">VLOOKUP($A35,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.3.1 World Bank – Proportion of population covered by labour market programmes SI_COV_LMKT </v>
+        <v>SDG Indicator 1.3.1 World Bank – Poorest quintile covered by social insurance programmes SI_COV_SOCINSPQ </v>
       </c>
       <c r="F35" s="0" t="str">
         <f aca="false">VLOOKUP($A35,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-70</v>
+        <v>I-69</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">VLOOKUP($F35,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Coverage of labour market programmes</v>
+        <v>Poorest covered by social insurance</v>
       </c>
       <c r="H35" s="0" t="str">
         <f aca="false">VLOOKUP($F35,Indicators!$A$1:$G$250,2,0)</f>
@@ -27121,7 +27105,7 @@
       </c>
       <c r="I35" s="0" t="str">
         <f aca="false">VLOOKUP($F35,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J35" s="0" t="str">
         <f aca="false">VLOOKUP($F35,Indicators!$A$1:$G$250,4,0)</f>
@@ -27130,14 +27114,14 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C36" s="0" t="str">
         <f aca="false">VLOOKUP($A36,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-81</v>
+        <v>S-80</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">VLOOKUP($A36,Sources!$A$1:$G$250,5,0)</f>
@@ -27145,15 +27129,15 @@
       </c>
       <c r="E36" s="0" t="str">
         <f aca="false">VLOOKUP($A36,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.3.1 -World Bank – Poorest Quintile covered by labour market programmes SI_COV_LMKTPQ </v>
+        <v>SDG Indicator 1.3.1 World Bank – Proportion of population covered by labour market programmes SI_COV_LMKT </v>
       </c>
       <c r="F36" s="0" t="str">
         <f aca="false">VLOOKUP($A36,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-71</v>
+        <v>I-70</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">VLOOKUP($F36,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Poorest covered by labour market programmes</v>
+        <v>Coverage of labour market programmes</v>
       </c>
       <c r="H36" s="0" t="str">
         <f aca="false">VLOOKUP($F36,Indicators!$A$1:$G$250,2,0)</f>
@@ -27170,30 +27154,30 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C37" s="0" t="str">
         <f aca="false">VLOOKUP($A37,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-82</v>
+        <v>S-81</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">VLOOKUP($A37,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>UN SDG</v>
       </c>
       <c r="E37" s="0" t="str">
         <f aca="false">VLOOKUP($A37,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Extent of implementation of child protection services: </v>
+        <v>SDG Indicator 1.3.1 -World Bank – Poorest Quintile covered by labour market programmes SI_COV_LMKTPQ </v>
       </c>
       <c r="F37" s="0" t="str">
         <f aca="false">VLOOKUP($A37,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-72</v>
+        <v>I-71</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">VLOOKUP($F37,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child protection services</v>
+        <v>Poorest covered by labour market programmes</v>
       </c>
       <c r="H37" s="0" t="str">
         <f aca="false">VLOOKUP($F37,Indicators!$A$1:$G$250,2,0)</f>
@@ -27201,7 +27185,7 @@
       </c>
       <c r="I37" s="0" t="str">
         <f aca="false">VLOOKUP($F37,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J37" s="0" t="str">
         <f aca="false">VLOOKUP($F37,Indicators!$A$1:$G$250,4,0)</f>
@@ -27210,7 +27194,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>1759</v>
@@ -27229,7 +27213,7 @@
       </c>
       <c r="F38" s="0" t="str">
         <f aca="false">VLOOKUP($A38,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-186</v>
+        <v>I-72</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">VLOOKUP($F38,Indicators!$A$1:$G$250,5,0)</f>
@@ -27237,11 +27221,11 @@
       </c>
       <c r="H38" s="0" t="str">
         <f aca="false">VLOOKUP($F38,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Workplace</v>
       </c>
       <c r="I38" s="0" t="str">
         <f aca="false">VLOOKUP($F38,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Child labour</v>
       </c>
       <c r="J38" s="0" t="str">
         <f aca="false">VLOOKUP($F38,Indicators!$A$1:$G$250,4,0)</f>
@@ -27250,14 +27234,14 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C39" s="0" t="str">
         <f aca="false">VLOOKUP($A39,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-83</v>
+        <v>S-82</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">VLOOKUP($A39,Sources!$A$1:$G$250,5,0)</f>
@@ -27265,23 +27249,23 @@
       </c>
       <c r="E39" s="0" t="str">
         <f aca="false">VLOOKUP($A39,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Youth Violence: Extent of implementation of life skills and social development programmes: </v>
+        <v>Global Health Observatory, Extent of implementation of child protection services: </v>
       </c>
       <c r="F39" s="0" t="str">
         <f aca="false">VLOOKUP($A39,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-73</v>
+        <v>I-186</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">VLOOKUP($F39,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Life skills and social development programmes</v>
+        <v>Child protection services</v>
       </c>
       <c r="H39" s="0" t="str">
         <f aca="false">VLOOKUP($F39,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I39" s="0" t="str">
         <f aca="false">VLOOKUP($F39,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J39" s="0" t="str">
         <f aca="false">VLOOKUP($F39,Indicators!$A$1:$G$250,4,0)</f>
@@ -27290,7 +27274,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>1759</v>
@@ -27309,19 +27293,19 @@
       </c>
       <c r="F40" s="0" t="str">
         <f aca="false">VLOOKUP($A40,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-187</v>
+        <v>I-73</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">VLOOKUP($F40,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Life skills and social development programmes </v>
+        <v>Life skills and social development programmes</v>
       </c>
       <c r="H40" s="0" t="str">
         <f aca="false">VLOOKUP($F40,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Workplace</v>
       </c>
       <c r="I40" s="0" t="str">
         <f aca="false">VLOOKUP($F40,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Child labour</v>
       </c>
       <c r="J40" s="0" t="str">
         <f aca="false">VLOOKUP($F40,Indicators!$A$1:$G$250,4,0)</f>
@@ -27330,70 +27314,70 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C41" s="0" t="str">
         <f aca="false">VLOOKUP($A41,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-84</v>
+        <v>S-83</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">VLOOKUP($A41,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>WHO</v>
       </c>
       <c r="E41" s="0" t="str">
         <f aca="false">VLOOKUP($A41,Sources!$A$1:$G$250,6,0)</f>
-        <v>WHO Framework Convention on Tobacco Control: </v>
+        <v>Global Health Observatory, Youth Violence: Extent of implementation of life skills and social development programmes: </v>
       </c>
       <c r="F41" s="0" t="str">
         <f aca="false">VLOOKUP($A41,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-74</v>
+        <v>I-187</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">VLOOKUP($F41,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Framework Convention on Tobacco Control</v>
+        <v>Life skills and social development programmes </v>
       </c>
       <c r="H41" s="0" t="str">
         <f aca="false">VLOOKUP($F41,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I41" s="0" t="str">
         <f aca="false">VLOOKUP($F41,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J41" s="0" t="str">
         <f aca="false">VLOOKUP($F41,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C42" s="0" t="str">
         <f aca="false">VLOOKUP($A42,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-88</v>
+        <v>S-84</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">VLOOKUP($A42,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E42" s="0" t="str">
         <f aca="false">VLOOKUP($A42,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Existence of any policies on marketing of foods to children: </v>
+        <v>WHO Framework Convention on Tobacco Control: </v>
       </c>
       <c r="F42" s="0" t="str">
         <f aca="false">VLOOKUP($A42,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-77</v>
+        <v>I-74</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">VLOOKUP($F42,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Policies on marketing foods to children</v>
+        <v>Framework Convention on Tobacco Control</v>
       </c>
       <c r="H42" s="0" t="str">
         <f aca="false">VLOOKUP($F42,Indicators!$A$1:$G$250,2,0)</f>
@@ -27405,19 +27389,19 @@
       </c>
       <c r="J42" s="0" t="str">
         <f aca="false">VLOOKUP($F42,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C43" s="0" t="str">
         <f aca="false">VLOOKUP($A43,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-90</v>
+        <v>S-88</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">VLOOKUP($A43,Sources!$A$1:$G$250,5,0)</f>
@@ -27425,15 +27409,15 @@
       </c>
       <c r="E43" s="0" t="str">
         <f aca="false">VLOOKUP($A43,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Ban on direct advertising: </v>
+        <v>Global Health Observatory, Existence of any policies on marketing of foods to children: </v>
       </c>
       <c r="F43" s="0" t="str">
         <f aca="false">VLOOKUP($A43,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-79</v>
+        <v>I-77</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">VLOOKUP($F43,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Ban on tobacco advertising</v>
+        <v>Policies on marketing foods to children</v>
       </c>
       <c r="H43" s="0" t="str">
         <f aca="false">VLOOKUP($F43,Indicators!$A$1:$G$250,2,0)</f>
@@ -27450,14 +27434,14 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C44" s="0" t="str">
         <f aca="false">VLOOKUP($A44,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-91</v>
+        <v>S-90</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">VLOOKUP($A44,Sources!$A$1:$G$250,5,0)</f>
@@ -27465,15 +27449,15 @@
       </c>
       <c r="E44" s="0" t="str">
         <f aca="false">VLOOKUP($A44,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Warn about the dangers of tobacco: </v>
+        <v>Global Health Observatory, Ban on direct advertising: </v>
       </c>
       <c r="F44" s="0" t="str">
         <f aca="false">VLOOKUP($A44,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-80</v>
+        <v>I-79</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">VLOOKUP($F44,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Warning about the dangers of tobacco</v>
+        <v>Ban on tobacco advertising</v>
       </c>
       <c r="H44" s="0" t="str">
         <f aca="false">VLOOKUP($F44,Indicators!$A$1:$G$250,2,0)</f>
@@ -27490,14 +27474,14 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C45" s="0" t="str">
         <f aca="false">VLOOKUP($A45,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-92</v>
+        <v>S-91</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">VLOOKUP($A45,Sources!$A$1:$G$250,5,0)</f>
@@ -27505,15 +27489,15 @@
       </c>
       <c r="E45" s="0" t="str">
         <f aca="false">VLOOKUP($A45,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Age limits - Alcohol service/sales: on premises </v>
+        <v>Global Health Observatory, Warn about the dangers of tobacco: </v>
       </c>
       <c r="F45" s="0" t="str">
         <f aca="false">VLOOKUP($A45,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-81</v>
+        <v>I-80</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">VLOOKUP($F45,Indicators!$A$1:$G$250,5,0)</f>
-        <v>On-premise alcohol service age limits</v>
+        <v>Warning about the dangers of tobacco</v>
       </c>
       <c r="H45" s="0" t="str">
         <f aca="false">VLOOKUP($F45,Indicators!$A$1:$G$250,2,0)</f>
@@ -27530,14 +27514,14 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C46" s="0" t="str">
         <f aca="false">VLOOKUP($A46,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-93</v>
+        <v>S-92</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">VLOOKUP($A46,Sources!$A$1:$G$250,5,0)</f>
@@ -27545,15 +27529,15 @@
       </c>
       <c r="E46" s="0" t="str">
         <f aca="false">VLOOKUP($A46,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Advertising restrictions on national TV</v>
+        <v>Global Health Observatory, Age limits - Alcohol service/sales: on premises </v>
       </c>
       <c r="F46" s="0" t="str">
         <f aca="false">VLOOKUP($A46,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-82</v>
+        <v>I-81</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">VLOOKUP($F46,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Ban on alcohol advertising on national TV</v>
+        <v>On-premise alcohol service age limits</v>
       </c>
       <c r="H46" s="0" t="str">
         <f aca="false">VLOOKUP($F46,Indicators!$A$1:$G$250,2,0)</f>
@@ -27570,14 +27554,14 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C47" s="0" t="str">
         <f aca="false">VLOOKUP($A47,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-95</v>
+        <v>S-93</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">VLOOKUP($A47,Sources!$A$1:$G$250,5,0)</f>
@@ -27585,15 +27569,15 @@
       </c>
       <c r="E47" s="0" t="str">
         <f aca="false">VLOOKUP($A47,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Health warning labels on alcohol containers: </v>
+        <v>Global Health Observatory, Advertising restrictions on national TV</v>
       </c>
       <c r="F47" s="0" t="str">
         <f aca="false">VLOOKUP($A47,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-83</v>
+        <v>I-82</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">VLOOKUP($F47,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Alcohol health warning labels</v>
+        <v>Ban on alcohol advertising on national TV</v>
       </c>
       <c r="H47" s="0" t="str">
         <f aca="false">VLOOKUP($F47,Indicators!$A$1:$G$250,2,0)</f>
@@ -27610,30 +27594,30 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C48" s="0" t="str">
         <f aca="false">VLOOKUP($A48,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-96</v>
+        <v>S-95</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">VLOOKUP($A48,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO &amp; UNICEF</v>
+        <v>WHO</v>
       </c>
       <c r="E48" s="0" t="str">
         <f aca="false">VLOOKUP($A48,Sources!$A$1:$G$250,6,0)</f>
-        <v>Marketing of Breast‑milk Substitutes:National Implementation ofthe International Code— STATUS REPORT 2020 —</v>
+        <v>Global Health Observatory, Health warning labels on alcohol containers: </v>
       </c>
       <c r="F48" s="0" t="str">
         <f aca="false">VLOOKUP($A48,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-84</v>
+        <v>I-83</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">VLOOKUP($F48,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Implementation of the International Code of Marketing of Breast-Milk Substitutes</v>
+        <v>Alcohol health warning labels</v>
       </c>
       <c r="H48" s="0" t="str">
         <f aca="false">VLOOKUP($F48,Indicators!$A$1:$G$250,2,0)</f>
@@ -27650,30 +27634,30 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C49" s="0" t="str">
         <f aca="false">VLOOKUP($A49,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-97</v>
+        <v>S-96</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">VLOOKUP($A49,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>WHO &amp; UNICEF</v>
       </c>
       <c r="E49" s="0" t="str">
         <f aca="false">VLOOKUP($A49,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Prevalence of current tobacco use among adolescents (5)- most recent youth survey: Use Youth indicator 1 rate in column 5</v>
+        <v>Marketing of Breast‑milk Substitutes:National Implementation ofthe International Code— STATUS REPORT 2020 —</v>
       </c>
       <c r="F49" s="0" t="str">
         <f aca="false">VLOOKUP($A49,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-85</v>
+        <v>I-84</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">VLOOKUP($F49,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Youth smoking rate</v>
+        <v>Implementation of the International Code of Marketing of Breast-Milk Substitutes</v>
       </c>
       <c r="H49" s="0" t="str">
         <f aca="false">VLOOKUP($F49,Indicators!$A$1:$G$250,2,0)</f>
@@ -27685,19 +27669,19 @@
       </c>
       <c r="J49" s="0" t="str">
         <f aca="false">VLOOKUP($F49,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C50" s="0" t="str">
         <f aca="false">VLOOKUP($A50,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-100</v>
+        <v>S-97</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">VLOOKUP($A50,Sources!$A$1:$G$250,5,0)</f>
@@ -27705,15 +27689,15 @@
       </c>
       <c r="E50" s="0" t="str">
         <f aca="false">VLOOKUP($A50,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, 13-15 years old any alcoholic beverage in the past 30 days (%): </v>
+        <v>Global Health Observatory, Prevalence of current tobacco use among adolescents (5)- most recent youth survey: Use Youth indicator 1 rate in column 5</v>
       </c>
       <c r="F50" s="0" t="str">
         <f aca="false">VLOOKUP($A50,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-86</v>
+        <v>I-85</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">VLOOKUP($F50,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Use of alcohol </v>
+        <v>Youth smoking rate</v>
       </c>
       <c r="H50" s="0" t="str">
         <f aca="false">VLOOKUP($F50,Indicators!$A$1:$G$250,2,0)</f>
@@ -27730,14 +27714,14 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C51" s="0" t="str">
         <f aca="false">VLOOKUP($A51,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-101</v>
+        <v>S-100</v>
       </c>
       <c r="D51" s="0" t="str">
         <f aca="false">VLOOKUP($A51,Sources!$A$1:$G$250,5,0)</f>
@@ -27745,15 +27729,15 @@
       </c>
       <c r="E51" s="0" t="str">
         <f aca="false">VLOOKUP($A51,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Children aged &lt;5 years overweight: </v>
+        <v>Global Health Observatory, 13-15 years old any alcoholic beverage in the past 30 days (%): </v>
       </c>
       <c r="F51" s="0" t="str">
         <f aca="false">VLOOKUP($A51,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-87</v>
+        <v>I-86</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">VLOOKUP($F51,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Young children overweight</v>
+        <v>Use of alcohol </v>
       </c>
       <c r="H51" s="0" t="str">
         <f aca="false">VLOOKUP($F51,Indicators!$A$1:$G$250,2,0)</f>
@@ -27770,14 +27754,14 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C52" s="0" t="str">
         <f aca="false">VLOOKUP($A52,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-103</v>
+        <v>S-101</v>
       </c>
       <c r="D52" s="0" t="str">
         <f aca="false">VLOOKUP($A52,Sources!$A$1:$G$250,5,0)</f>
@@ -27785,15 +27769,15 @@
       </c>
       <c r="E52" s="0" t="str">
         <f aca="false">VLOOKUP($A52,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Prevalence of overweight among children and adolescents, BMI&gt;+1 standard deviation above the median, crude, Estimates by country, among children aged 5-19 years: </v>
+        <v>Global Health Observatory, Children aged &lt;5 years overweight: </v>
       </c>
       <c r="F52" s="0" t="str">
         <f aca="false">VLOOKUP($A52,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-88</v>
+        <v>I-87</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">VLOOKUP($F52,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Older children and teenagers overweight</v>
+        <v>Young children overweight</v>
       </c>
       <c r="H52" s="0" t="str">
         <f aca="false">VLOOKUP($F52,Indicators!$A$1:$G$250,2,0)</f>
@@ -27810,14 +27794,14 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C53" s="0" t="str">
         <f aca="false">VLOOKUP($A53,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-104</v>
+        <v>S-103</v>
       </c>
       <c r="D53" s="0" t="str">
         <f aca="false">VLOOKUP($A53,Sources!$A$1:$G$250,5,0)</f>
@@ -27825,15 +27809,15 @@
       </c>
       <c r="E53" s="0" t="str">
         <f aca="false">VLOOKUP($A53,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Infants exclusively breastfed for the first six months of life (%)</v>
+        <v>Global Health Observatory, Prevalence of overweight among children and adolescents, BMI&gt;+1 standard deviation above the median, crude, Estimates by country, among children aged 5-19 years: </v>
       </c>
       <c r="F53" s="0" t="str">
         <f aca="false">VLOOKUP($A53,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-89</v>
+        <v>I-88</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">VLOOKUP($F53,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Exclusive breastfeeding</v>
+        <v>Older children and teenagers overweight</v>
       </c>
       <c r="H53" s="0" t="str">
         <f aca="false">VLOOKUP($F53,Indicators!$A$1:$G$250,2,0)</f>
@@ -27850,7 +27834,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>1759</v>
@@ -27869,7 +27853,7 @@
       </c>
       <c r="F54" s="0" t="str">
         <f aca="false">VLOOKUP($A54,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-198</v>
+        <v>I-89</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">VLOOKUP($F54,Indicators!$A$1:$G$250,5,0)</f>
@@ -27877,11 +27861,11 @@
       </c>
       <c r="H54" s="0" t="str">
         <f aca="false">VLOOKUP($F54,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I54" s="0" t="str">
         <f aca="false">VLOOKUP($F54,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J54" s="0" t="str">
         <f aca="false">VLOOKUP($F54,Indicators!$A$1:$G$250,4,0)</f>
@@ -27890,70 +27874,70 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C55" s="0" t="str">
         <f aca="false">VLOOKUP($A55,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-105</v>
+        <v>S-104</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">VLOOKUP($A55,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>WHO</v>
       </c>
       <c r="E55" s="0" t="str">
         <f aca="false">VLOOKUP($A55,Sources!$A$1:$G$250,6,0)</f>
-        <v>Constitution of the World Health Organization</v>
+        <v>Global Health Observatory, Infants exclusively breastfed for the first six months of life (%)</v>
       </c>
       <c r="F55" s="0" t="str">
         <f aca="false">VLOOKUP($A55,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-90</v>
+        <v>I-198</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">VLOOKUP($F55,Indicators!$A$1:$G$250,5,0)</f>
-        <v>WHO Constitution</v>
+        <v>Exclusive breastfeeding</v>
       </c>
       <c r="H55" s="0" t="str">
         <f aca="false">VLOOKUP($F55,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I55" s="0" t="str">
         <f aca="false">VLOOKUP($F55,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Product Safety</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J55" s="0" t="str">
         <f aca="false">VLOOKUP($F55,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C56" s="0" t="str">
         <f aca="false">VLOOKUP($A56,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-106</v>
+        <v>S-105</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">VLOOKUP($A56,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNCTAD</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E56" s="0" t="str">
         <f aca="false">VLOOKUP($A56,Sources!$A$1:$G$250,6,0)</f>
-        <v>Consumer Protection Legislation Worldwide</v>
+        <v>Constitution of the World Health Organization</v>
       </c>
       <c r="F56" s="0" t="str">
         <f aca="false">VLOOKUP($A56,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-91</v>
+        <v>I-90</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">VLOOKUP($F56,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Consumer protection law</v>
+        <v>WHO Constitution</v>
       </c>
       <c r="H56" s="0" t="str">
         <f aca="false">VLOOKUP($F56,Indicators!$A$1:$G$250,2,0)</f>
@@ -27965,19 +27949,19 @@
       </c>
       <c r="J56" s="0" t="str">
         <f aca="false">VLOOKUP($F56,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C57" s="0" t="str">
         <f aca="false">VLOOKUP($A57,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-109</v>
+        <v>S-106</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">VLOOKUP($A57,Sources!$A$1:$G$250,5,0)</f>
@@ -27985,15 +27969,15 @@
       </c>
       <c r="E57" s="0" t="str">
         <f aca="false">VLOOKUP($A57,Sources!$A$1:$G$250,6,0)</f>
-        <v>E-transaction Legislation Worldwide</v>
+        <v>Consumer Protection Legislation Worldwide</v>
       </c>
       <c r="F57" s="0" t="str">
         <f aca="false">VLOOKUP($A57,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-92</v>
+        <v>I-91</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">VLOOKUP($F57,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Online consumer protection</v>
+        <v>Consumer protection law</v>
       </c>
       <c r="H57" s="0" t="str">
         <f aca="false">VLOOKUP($F57,Indicators!$A$1:$G$250,2,0)</f>
@@ -28010,30 +27994,30 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C58" s="0" t="str">
         <f aca="false">VLOOKUP($A58,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-113</v>
+        <v>S-109</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">VLOOKUP($A58,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>UNCTAD</v>
       </c>
       <c r="E58" s="0" t="str">
         <f aca="false">VLOOKUP($A58,Sources!$A$1:$G$250,6,0)</f>
-        <v>Mortality rate attributed to unintentional poisoning (per 100 000 population)</v>
+        <v>E-transaction Legislation Worldwide</v>
       </c>
       <c r="F58" s="0" t="str">
         <f aca="false">VLOOKUP($A58,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-95</v>
+        <v>I-92</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">VLOOKUP($F58,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Mortality rates due to poisoning</v>
+        <v>Online consumer protection</v>
       </c>
       <c r="H58" s="0" t="str">
         <f aca="false">VLOOKUP($F58,Indicators!$A$1:$G$250,2,0)</f>
@@ -28045,35 +28029,35 @@
       </c>
       <c r="J58" s="0" t="str">
         <f aca="false">VLOOKUP($F58,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C59" s="0" t="str">
         <f aca="false">VLOOKUP($A59,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-115</v>
+        <v>S-113</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">VLOOKUP($A59,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>WHO</v>
       </c>
       <c r="E59" s="0" t="str">
         <f aca="false">VLOOKUP($A59,Sources!$A$1:$G$250,6,0)</f>
-        <v>Optional Protocol to the Convention on the Rights of the Child on the sale of children, child prostitution and child pornography: </v>
+        <v>Mortality rate attributed to unintentional poisoning (per 100 000 population)</v>
       </c>
       <c r="F59" s="0" t="str">
         <f aca="false">VLOOKUP($A59,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-96</v>
+        <v>I-95</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">VLOOKUP($F59,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Optional Protocol to the CRC on the Sale of Children, Child Prostitution and Child Pornography</v>
+        <v>Mortality rates due to poisoning</v>
       </c>
       <c r="H59" s="0" t="str">
         <f aca="false">VLOOKUP($F59,Indicators!$A$1:$G$250,2,0)</f>
@@ -28081,39 +28065,39 @@
       </c>
       <c r="I59" s="0" t="str">
         <f aca="false">VLOOKUP($F59,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Product Safety</v>
       </c>
       <c r="J59" s="0" t="str">
         <f aca="false">VLOOKUP($F59,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C60" s="0" t="str">
         <f aca="false">VLOOKUP($A60,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-116</v>
+        <v>S-115</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">VLOOKUP($A60,Sources!$A$1:$G$250,5,0)</f>
-        <v>We Protect Global Alliance</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E60" s="0" t="str">
         <f aca="false">VLOOKUP($A60,Sources!$A$1:$G$250,6,0)</f>
-        <v>We Protect Global Alliance, Member Countries</v>
+        <v>Optional Protocol to the Convention on the Rights of the Child on the sale of children, child prostitution and child pornography: </v>
       </c>
       <c r="F60" s="0" t="str">
         <f aca="false">VLOOKUP($A60,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-97</v>
+        <v>I-96</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">VLOOKUP($F60,Indicators!$A$1:$G$250,5,0)</f>
-        <v>We Protect Global Alliance</v>
+        <v>Optional Protocol to the CRC on the Sale of Children, Child Prostitution and Child Pornography</v>
       </c>
       <c r="H60" s="0" t="str">
         <f aca="false">VLOOKUP($F60,Indicators!$A$1:$G$250,2,0)</f>
@@ -28130,30 +28114,30 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C61" s="0" t="str">
         <f aca="false">VLOOKUP($A61,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-121</v>
+        <v>S-116</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">VLOOKUP($A61,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNCTAD</v>
+        <v>We Protect Global Alliance</v>
       </c>
       <c r="E61" s="0" t="str">
         <f aca="false">VLOOKUP($A61,Sources!$A$1:$G$250,6,0)</f>
-        <v>Cybercrime Legislation Worldwide</v>
+        <v>We Protect Global Alliance, Member Countries</v>
       </c>
       <c r="F61" s="0" t="str">
         <f aca="false">VLOOKUP($A61,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-102</v>
+        <v>I-97</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">VLOOKUP($F61,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Online exploitation and abuse</v>
+        <v>We Protect Global Alliance</v>
       </c>
       <c r="H61" s="0" t="str">
         <f aca="false">VLOOKUP($F61,Indicators!$A$1:$G$250,2,0)</f>
@@ -28165,19 +28149,19 @@
       </c>
       <c r="J61" s="0" t="str">
         <f aca="false">VLOOKUP($F61,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C62" s="0" t="str">
         <f aca="false">VLOOKUP($A62,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-122</v>
+        <v>S-121</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">VLOOKUP($A62,Sources!$A$1:$G$250,5,0)</f>
@@ -28185,15 +28169,15 @@
       </c>
       <c r="E62" s="0" t="str">
         <f aca="false">VLOOKUP($A62,Sources!$A$1:$G$250,6,0)</f>
-        <v>Data Protection and Privacy Legislation Worldwide</v>
+        <v>Cybercrime Legislation Worldwide</v>
       </c>
       <c r="F62" s="0" t="str">
         <f aca="false">VLOOKUP($A62,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-103</v>
+        <v>I-102</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">VLOOKUP($F62,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Data protection and privacy</v>
+        <v>Online exploitation and abuse</v>
       </c>
       <c r="H62" s="0" t="str">
         <f aca="false">VLOOKUP($F62,Indicators!$A$1:$G$250,2,0)</f>
@@ -28210,30 +28194,30 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C63" s="0" t="str">
         <f aca="false">VLOOKUP($A63,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-125</v>
+        <v>S-122</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">VLOOKUP($A63,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>UNCTAD</v>
       </c>
       <c r="E63" s="0" t="str">
         <f aca="false">VLOOKUP($A63,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 16.2.3: Proportion of population aged 18-29 years who experienced sexual violence by age 18, by sex (% of population aged 18-29) VC_VAW_SXVLN</v>
+        <v>Data Protection and Privacy Legislation Worldwide</v>
       </c>
       <c r="F63" s="0" t="str">
         <f aca="false">VLOOKUP($A63,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-106</v>
+        <v>I-103</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">VLOOKUP($F63,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Prevalence of sexual violence</v>
+        <v>Data protection and privacy</v>
       </c>
       <c r="H63" s="0" t="str">
         <f aca="false">VLOOKUP($F63,Indicators!$A$1:$G$250,2,0)</f>
@@ -28245,35 +28229,35 @@
       </c>
       <c r="J63" s="0" t="str">
         <f aca="false">VLOOKUP($F63,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C64" s="0" t="str">
         <f aca="false">VLOOKUP($A64,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-126</v>
+        <v>S-125</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">VLOOKUP($A64,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNICEF</v>
+        <v>UN SDG</v>
       </c>
       <c r="E64" s="0" t="str">
         <f aca="false">VLOOKUP($A64,Sources!$A$1:$G$250,6,0)</f>
-        <v>Percentage of students (aged 13-15 years) who reported being bullied on 1 or more days in past 30 days: </v>
+        <v>SDG Indicator 16.2.3: Proportion of population aged 18-29 years who experienced sexual violence by age 18, by sex (% of population aged 18-29) VC_VAW_SXVLN</v>
       </c>
       <c r="F64" s="0" t="str">
         <f aca="false">VLOOKUP($A64,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-107</v>
+        <v>I-106</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">VLOOKUP($F64,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Frequency of bullying</v>
+        <v>Prevalence of sexual violence</v>
       </c>
       <c r="H64" s="0" t="str">
         <f aca="false">VLOOKUP($F64,Indicators!$A$1:$G$250,2,0)</f>
@@ -28290,47 +28274,47 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C65" s="0" t="str">
         <f aca="false">VLOOKUP($A65,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-129</v>
+        <v>S-126</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">VLOOKUP($A65,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Bank</v>
+        <v>UNICEF</v>
       </c>
       <c r="E65" s="0" t="str">
         <f aca="false">VLOOKUP($A65,Sources!$A$1:$G$250,6,0)</f>
-        <v>World governance indicators:  Government Effectiveness Index </v>
+        <v>Percentage of students (aged 13-15 years) who reported being bullied on 1 or more days in past 30 days: </v>
       </c>
       <c r="F65" s="0" t="str">
         <f aca="false">VLOOKUP($A65,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-64</v>
+        <v>I-107</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">VLOOKUP($F65,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Government effectiveness</v>
+        <v>Frequency of bullying</v>
       </c>
       <c r="H65" s="0" t="str">
         <f aca="false">VLOOKUP($F65,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I65" s="0" t="str">
         <f aca="false">VLOOKUP($F65,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J65" s="0" t="str">
         <f aca="false">VLOOKUP($F65,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>1759</v>
@@ -28349,7 +28333,7 @@
       </c>
       <c r="F66" s="0" t="str">
         <f aca="false">VLOOKUP($A66,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-110</v>
+        <v>I-64</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">VLOOKUP($F66,Indicators!$A$1:$G$250,5,0)</f>
@@ -28357,11 +28341,11 @@
       </c>
       <c r="H66" s="0" t="str">
         <f aca="false">VLOOKUP($F66,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I66" s="0" t="str">
         <f aca="false">VLOOKUP($F66,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J66" s="0" t="str">
         <f aca="false">VLOOKUP($F66,Indicators!$A$1:$G$250,4,0)</f>
@@ -28370,7 +28354,7 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>1759</v>
@@ -28389,7 +28373,7 @@
       </c>
       <c r="F67" s="0" t="str">
         <f aca="false">VLOOKUP($A67,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-180</v>
+        <v>I-110</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">VLOOKUP($F67,Indicators!$A$1:$G$250,5,0)</f>
@@ -28397,11 +28381,11 @@
       </c>
       <c r="H67" s="0" t="str">
         <f aca="false">VLOOKUP($F67,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I67" s="0" t="str">
         <f aca="false">VLOOKUP($F67,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J67" s="0" t="str">
         <f aca="false">VLOOKUP($F67,Indicators!$A$1:$G$250,4,0)</f>
@@ -28410,14 +28394,14 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C68" s="0" t="str">
         <f aca="false">VLOOKUP($A68,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-130</v>
+        <v>S-129</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">VLOOKUP($A68,Sources!$A$1:$G$250,5,0)</f>
@@ -28425,23 +28409,23 @@
       </c>
       <c r="E68" s="0" t="str">
         <f aca="false">VLOOKUP($A68,Sources!$A$1:$G$250,6,0)</f>
-        <v>World governance indicators: Control of Corruption Index</v>
+        <v>World governance indicators:  Government Effectiveness Index </v>
       </c>
       <c r="F68" s="0" t="str">
         <f aca="false">VLOOKUP($A68,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-65</v>
+        <v>I-180</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">VLOOKUP($F68,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Government corruption</v>
+        <v>Government effectiveness</v>
       </c>
       <c r="H68" s="0" t="str">
         <f aca="false">VLOOKUP($F68,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I68" s="0" t="str">
         <f aca="false">VLOOKUP($F68,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J68" s="0" t="str">
         <f aca="false">VLOOKUP($F68,Indicators!$A$1:$G$250,4,0)</f>
@@ -28450,7 +28434,7 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>1759</v>
@@ -28469,7 +28453,7 @@
       </c>
       <c r="F69" s="0" t="str">
         <f aca="false">VLOOKUP($A69,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-111</v>
+        <v>I-65</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">VLOOKUP($F69,Indicators!$A$1:$G$250,5,0)</f>
@@ -28477,11 +28461,11 @@
       </c>
       <c r="H69" s="0" t="str">
         <f aca="false">VLOOKUP($F69,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I69" s="0" t="str">
         <f aca="false">VLOOKUP($F69,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Product Safety</v>
+        <v>Child labour</v>
       </c>
       <c r="J69" s="0" t="str">
         <f aca="false">VLOOKUP($F69,Indicators!$A$1:$G$250,4,0)</f>
@@ -28490,7 +28474,7 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>1759</v>
@@ -28509,7 +28493,7 @@
       </c>
       <c r="F70" s="0" t="str">
         <f aca="false">VLOOKUP($A70,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-181</v>
+        <v>I-111</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">VLOOKUP($F70,Indicators!$A$1:$G$250,5,0)</f>
@@ -28517,11 +28501,11 @@
       </c>
       <c r="H70" s="0" t="str">
         <f aca="false">VLOOKUP($F70,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I70" s="0" t="str">
         <f aca="false">VLOOKUP($F70,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Product Safety</v>
       </c>
       <c r="J70" s="0" t="str">
         <f aca="false">VLOOKUP($F70,Indicators!$A$1:$G$250,4,0)</f>
@@ -28530,38 +28514,38 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C71" s="0" t="str">
         <f aca="false">VLOOKUP($A71,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-131</v>
+        <v>S-130</v>
       </c>
       <c r="D71" s="0" t="str">
         <f aca="false">VLOOKUP($A71,Sources!$A$1:$G$250,5,0)</f>
-        <v>CRIN</v>
+        <v>World Bank</v>
       </c>
       <c r="E71" s="0" t="str">
         <f aca="false">VLOOKUP($A71,Sources!$A$1:$G$250,6,0)</f>
-        <v>Access to Justice Global Ranking: Total score</v>
+        <v>World governance indicators: Control of Corruption Index</v>
       </c>
       <c r="F71" s="0" t="str">
         <f aca="false">VLOOKUP($A71,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-112</v>
+        <v>I-181</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">VLOOKUP($F71,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Effectiveness of the justice system</v>
+        <v>Government corruption</v>
       </c>
       <c r="H71" s="0" t="str">
         <f aca="false">VLOOKUP($F71,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I71" s="0" t="str">
         <f aca="false">VLOOKUP($F71,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J71" s="0" t="str">
         <f aca="false">VLOOKUP($F71,Indicators!$A$1:$G$250,4,0)</f>
@@ -28570,30 +28554,30 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C72" s="0" t="str">
         <f aca="false">VLOOKUP($A72,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-136</v>
+        <v>S-131</v>
       </c>
       <c r="D72" s="0" t="str">
         <f aca="false">VLOOKUP($A72,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>CRIN</v>
       </c>
       <c r="E72" s="0" t="str">
         <f aca="false">VLOOKUP($A72,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Existence of operational policy/strategy/action plan for alcohol: </v>
+        <v>Access to Justice Global Ranking: Total score</v>
       </c>
       <c r="F72" s="0" t="str">
         <f aca="false">VLOOKUP($A72,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-116</v>
+        <v>I-112</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">VLOOKUP($F72,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Operational policy on alcohol use</v>
+        <v>Effectiveness of the justice system</v>
       </c>
       <c r="H72" s="0" t="str">
         <f aca="false">VLOOKUP($F72,Indicators!$A$1:$G$250,2,0)</f>
@@ -28601,7 +28585,7 @@
       </c>
       <c r="I72" s="0" t="str">
         <f aca="false">VLOOKUP($F72,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J72" s="0" t="str">
         <f aca="false">VLOOKUP($F72,Indicators!$A$1:$G$250,4,0)</f>
@@ -28610,14 +28594,14 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C73" s="0" t="str">
         <f aca="false">VLOOKUP($A73,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-137</v>
+        <v>S-136</v>
       </c>
       <c r="D73" s="0" t="str">
         <f aca="false">VLOOKUP($A73,Sources!$A$1:$G$250,5,0)</f>
@@ -28625,15 +28609,15 @@
       </c>
       <c r="E73" s="0" t="str">
         <f aca="false">VLOOKUP($A73,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Existence of operational policy/strategy/action plan for unhealthy diet: </v>
+        <v>Global Health Observatory, Existence of operational policy/strategy/action plan for alcohol: </v>
       </c>
       <c r="F73" s="0" t="str">
         <f aca="false">VLOOKUP($A73,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-117</v>
+        <v>I-116</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">VLOOKUP($F73,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Operational policy on unhealthy diets</v>
+        <v>Operational policy on alcohol use</v>
       </c>
       <c r="H73" s="0" t="str">
         <f aca="false">VLOOKUP($F73,Indicators!$A$1:$G$250,2,0)</f>
@@ -28650,30 +28634,30 @@
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C74" s="0" t="str">
         <f aca="false">VLOOKUP($A74,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-138</v>
+        <v>S-137</v>
       </c>
       <c r="D74" s="0" t="str">
         <f aca="false">VLOOKUP($A74,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO &amp; UNICEF</v>
+        <v>WHO</v>
       </c>
       <c r="E74" s="0" t="str">
         <f aca="false">VLOOKUP($A74,Sources!$A$1:$G$250,6,0)</f>
-        <v>Marketing of Breast‑milk Substitutes:National Implementation ofthe International Code— STATUS REPORT 2020 —</v>
+        <v>Global Health Observatory, Existence of operational policy/strategy/action plan for unhealthy diet: </v>
       </c>
       <c r="F74" s="0" t="str">
         <f aca="false">VLOOKUP($A74,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-118</v>
+        <v>I-117</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">VLOOKUP($F74,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Restrictions on marketing breastmilk substitutes</v>
+        <v>Operational policy on unhealthy diets</v>
       </c>
       <c r="H74" s="0" t="str">
         <f aca="false">VLOOKUP($F74,Indicators!$A$1:$G$250,2,0)</f>
@@ -28690,30 +28674,30 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C75" s="0" t="str">
         <f aca="false">VLOOKUP($A75,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-140</v>
+        <v>S-138</v>
       </c>
       <c r="D75" s="0" t="str">
         <f aca="false">VLOOKUP($A75,Sources!$A$1:$G$250,5,0)</f>
-        <v>Child Helpline</v>
+        <v>WHO &amp; UNICEF</v>
       </c>
       <c r="E75" s="0" t="str">
         <f aca="false">VLOOKUP($A75,Sources!$A$1:$G$250,6,0)</f>
-        <v>International, Voices of Children and Young People, Child Helpline Data</v>
+        <v>Marketing of Breast‑milk Substitutes:National Implementation ofthe International Code— STATUS REPORT 2020 —</v>
       </c>
       <c r="F75" s="0" t="str">
         <f aca="false">VLOOKUP($A75,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-120</v>
+        <v>I-118</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">VLOOKUP($F75,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child helpline</v>
+        <v>Restrictions on marketing breastmilk substitutes</v>
       </c>
       <c r="H75" s="0" t="str">
         <f aca="false">VLOOKUP($F75,Indicators!$A$1:$G$250,2,0)</f>
@@ -28721,7 +28705,7 @@
       </c>
       <c r="I75" s="0" t="str">
         <f aca="false">VLOOKUP($F75,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J75" s="0" t="str">
         <f aca="false">VLOOKUP($F75,Indicators!$A$1:$G$250,4,0)</f>
@@ -28730,54 +28714,54 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C76" s="0" t="str">
         <f aca="false">VLOOKUP($A76,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-141</v>
+        <v>S-140</v>
       </c>
       <c r="D76" s="0" t="str">
         <f aca="false">VLOOKUP($A76,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>Child Helpline</v>
       </c>
       <c r="E76" s="0" t="str">
         <f aca="false">VLOOKUP($A76,Sources!$A$1:$G$250,6,0)</f>
-        <v>UN Framework Convention on Climate Change: </v>
+        <v>International, Voices of Children and Young People, Child Helpline Data</v>
       </c>
       <c r="F76" s="0" t="str">
         <f aca="false">VLOOKUP($A76,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-121</v>
+        <v>I-120</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">VLOOKUP($F76,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Convention on Climate Change</v>
+        <v>Child helpline</v>
       </c>
       <c r="H76" s="0" t="str">
         <f aca="false">VLOOKUP($F76,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I76" s="0" t="str">
         <f aca="false">VLOOKUP($F76,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Resource use and damage to the environment</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J76" s="0" t="str">
         <f aca="false">VLOOKUP($F76,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C77" s="0" t="str">
         <f aca="false">VLOOKUP($A77,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-142</v>
+        <v>S-141</v>
       </c>
       <c r="D77" s="0" t="str">
         <f aca="false">VLOOKUP($A77,Sources!$A$1:$G$250,5,0)</f>
@@ -28785,15 +28769,15 @@
       </c>
       <c r="E77" s="0" t="str">
         <f aca="false">VLOOKUP($A77,Sources!$A$1:$G$250,6,0)</f>
-        <v>Paris Agreement: </v>
+        <v>UN Framework Convention on Climate Change: </v>
       </c>
       <c r="F77" s="0" t="str">
         <f aca="false">VLOOKUP($A77,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-122</v>
+        <v>I-121</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">VLOOKUP($F77,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Paris Climate Agreement. </v>
+        <v>Convention on Climate Change</v>
       </c>
       <c r="H77" s="0" t="str">
         <f aca="false">VLOOKUP($F77,Indicators!$A$1:$G$250,2,0)</f>
@@ -28810,14 +28794,14 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C78" s="0" t="str">
         <f aca="false">VLOOKUP($A78,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-143</v>
+        <v>S-142</v>
       </c>
       <c r="D78" s="0" t="str">
         <f aca="false">VLOOKUP($A78,Sources!$A$1:$G$250,5,0)</f>
@@ -28825,15 +28809,15 @@
       </c>
       <c r="E78" s="0" t="str">
         <f aca="false">VLOOKUP($A78,Sources!$A$1:$G$250,6,0)</f>
-        <v>Basel Convention: </v>
+        <v>Paris Agreement: </v>
       </c>
       <c r="F78" s="0" t="str">
         <f aca="false">VLOOKUP($A78,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-123</v>
+        <v>I-122</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">VLOOKUP($F78,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Basel Convention</v>
+        <v>Paris Climate Agreement. </v>
       </c>
       <c r="H78" s="0" t="str">
         <f aca="false">VLOOKUP($F78,Indicators!$A$1:$G$250,2,0)</f>
@@ -28850,14 +28834,14 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C79" s="0" t="str">
         <f aca="false">VLOOKUP($A79,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-144</v>
+        <v>S-143</v>
       </c>
       <c r="D79" s="0" t="str">
         <f aca="false">VLOOKUP($A79,Sources!$A$1:$G$250,5,0)</f>
@@ -28865,15 +28849,15 @@
       </c>
       <c r="E79" s="0" t="str">
         <f aca="false">VLOOKUP($A79,Sources!$A$1:$G$250,6,0)</f>
-        <v>Stockholm Convention: </v>
+        <v>Basel Convention: </v>
       </c>
       <c r="F79" s="0" t="str">
         <f aca="false">VLOOKUP($A79,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-124</v>
+        <v>I-123</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">VLOOKUP($F79,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Stockholm Convention</v>
+        <v>Basel Convention</v>
       </c>
       <c r="H79" s="0" t="str">
         <f aca="false">VLOOKUP($F79,Indicators!$A$1:$G$250,2,0)</f>
@@ -28890,14 +28874,14 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C80" s="0" t="str">
         <f aca="false">VLOOKUP($A80,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-145</v>
+        <v>S-144</v>
       </c>
       <c r="D80" s="0" t="str">
         <f aca="false">VLOOKUP($A80,Sources!$A$1:$G$250,5,0)</f>
@@ -28905,15 +28889,15 @@
       </c>
       <c r="E80" s="0" t="str">
         <f aca="false">VLOOKUP($A80,Sources!$A$1:$G$250,6,0)</f>
-        <v>Convention on the Protection and Use of Transboundary Watercourses and International Lakes: </v>
+        <v>Stockholm Convention: </v>
       </c>
       <c r="F80" s="0" t="str">
         <f aca="false">VLOOKUP($A80,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-125</v>
+        <v>I-124</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">VLOOKUP($F80,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Water Convention</v>
+        <v>Stockholm Convention</v>
       </c>
       <c r="H80" s="0" t="str">
         <f aca="false">VLOOKUP($F80,Indicators!$A$1:$G$250,2,0)</f>
@@ -28930,30 +28914,30 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>708</v>
+        <v>662</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C81" s="0" t="str">
         <f aca="false">VLOOKUP($A81,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-154</v>
+        <v>S-145</v>
       </c>
       <c r="D81" s="0" t="str">
         <f aca="false">VLOOKUP($A81,Sources!$A$1:$G$250,5,0)</f>
-        <v>EITI</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E81" s="0" t="str">
         <f aca="false">VLOOKUP($A81,Sources!$A$1:$G$250,6,0)</f>
-        <v>Countries: Implementation status</v>
+        <v>Convention on the Protection and Use of Transboundary Watercourses and International Lakes: </v>
       </c>
       <c r="F81" s="0" t="str">
         <f aca="false">VLOOKUP($A81,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-134</v>
+        <v>I-125</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">VLOOKUP($F81,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Compliance with EITI standard</v>
+        <v>Water Convention</v>
       </c>
       <c r="H81" s="0" t="str">
         <f aca="false">VLOOKUP($F81,Indicators!$A$1:$G$250,2,0)</f>
@@ -28965,35 +28949,35 @@
       </c>
       <c r="J81" s="0" t="str">
         <f aca="false">VLOOKUP($F81,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C82" s="0" t="str">
         <f aca="false">VLOOKUP($A82,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-157</v>
+        <v>S-154</v>
       </c>
       <c r="D82" s="0" t="str">
         <f aca="false">VLOOKUP($A82,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO/ UN POP</v>
+        <v>EITI</v>
       </c>
       <c r="E82" s="0" t="str">
         <f aca="false">VLOOKUP($A82,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Ambient air pollution attributable deaths</v>
+        <v>Countries: Implementation status</v>
       </c>
       <c r="F82" s="0" t="str">
         <f aca="false">VLOOKUP($A82,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-137</v>
+        <v>I-134</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">VLOOKUP($F82,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child deaths linked to air pollution </v>
+        <v>Compliance with EITI standard</v>
       </c>
       <c r="H82" s="0" t="str">
         <f aca="false">VLOOKUP($F82,Indicators!$A$1:$G$250,2,0)</f>
@@ -29005,35 +28989,35 @@
       </c>
       <c r="J82" s="0" t="str">
         <f aca="false">VLOOKUP($F82,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C83" s="0" t="str">
         <f aca="false">VLOOKUP($A83,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-158</v>
+        <v>S-157</v>
       </c>
       <c r="D83" s="0" t="str">
         <f aca="false">VLOOKUP($A83,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>WHO/ UN POP</v>
       </c>
       <c r="E83" s="0" t="str">
         <f aca="false">VLOOKUP($A83,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Concentrations of fine particulate matter (PM2.5)</v>
+        <v>Global Health Observatory, Ambient air pollution attributable deaths</v>
       </c>
       <c r="F83" s="0" t="str">
         <f aca="false">VLOOKUP($A83,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-138</v>
+        <v>I-137</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">VLOOKUP($F83,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Exposure to air pollution</v>
+        <v>Child deaths linked to air pollution </v>
       </c>
       <c r="H83" s="0" t="str">
         <f aca="false">VLOOKUP($F83,Indicators!$A$1:$G$250,2,0)</f>
@@ -29050,30 +29034,30 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C84" s="0" t="str">
         <f aca="false">VLOOKUP($A84,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-160</v>
+        <v>S-158</v>
       </c>
       <c r="D84" s="0" t="str">
         <f aca="false">VLOOKUP($A84,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>WHO</v>
       </c>
       <c r="E84" s="0" t="str">
         <f aca="false">VLOOKUP($A84,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 3.9.2, Mortality rate attributed to unsafe water, unsafe sanitation and lack of hygiene (per 100,000 population): </v>
+        <v>Global Health Observatory, Concentrations of fine particulate matter (PM2.5)</v>
       </c>
       <c r="F84" s="0" t="str">
         <f aca="false">VLOOKUP($A84,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-140</v>
+        <v>I-138</v>
       </c>
       <c r="G84" s="0" t="str">
         <f aca="false">VLOOKUP($F84,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Deaths linked to poor WASH</v>
+        <v>Exposure to air pollution</v>
       </c>
       <c r="H84" s="0" t="str">
         <f aca="false">VLOOKUP($F84,Indicators!$A$1:$G$250,2,0)</f>
@@ -29090,14 +29074,14 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C85" s="0" t="str">
         <f aca="false">VLOOKUP($A85,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-161</v>
+        <v>S-160</v>
       </c>
       <c r="D85" s="0" t="str">
         <f aca="false">VLOOKUP($A85,Sources!$A$1:$G$250,5,0)</f>
@@ -29105,15 +29089,15 @@
       </c>
       <c r="E85" s="0" t="str">
         <f aca="false">VLOOKUP($A85,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG database 15.3.1 Proportion of land that is degraded over total land area (%)</v>
+        <v>SDG Indicator 3.9.2, Mortality rate attributed to unsafe water, unsafe sanitation and lack of hygiene (per 100,000 population): </v>
       </c>
       <c r="F85" s="0" t="str">
         <f aca="false">VLOOKUP($A85,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-141</v>
+        <v>I-140</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">VLOOKUP($F85,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Land affected by desertification, drought and floods</v>
+        <v>Deaths linked to poor WASH</v>
       </c>
       <c r="H85" s="0" t="str">
         <f aca="false">VLOOKUP($F85,Indicators!$A$1:$G$250,2,0)</f>
@@ -29130,30 +29114,30 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C86" s="0" t="str">
         <f aca="false">VLOOKUP($A86,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-162</v>
+        <v>S-161</v>
       </c>
       <c r="D86" s="0" t="str">
         <f aca="false">VLOOKUP($A86,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>UN SDG</v>
       </c>
       <c r="E86" s="0" t="str">
         <f aca="false">VLOOKUP($A86,Sources!$A$1:$G$250,6,0)</f>
-        <v>International Covenant on Economic, Social and Cultural Rights</v>
+        <v>SDG database 15.3.1 Proportion of land that is degraded over total land area (%)</v>
       </c>
       <c r="F86" s="0" t="str">
         <f aca="false">VLOOKUP($A86,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-142</v>
+        <v>I-141</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">VLOOKUP($F86,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Covenant on Social, Economic and Cultural Rights</v>
+        <v>Land affected by desertification, drought and floods</v>
       </c>
       <c r="H86" s="0" t="str">
         <f aca="false">VLOOKUP($F86,Indicators!$A$1:$G$250,2,0)</f>
@@ -29161,39 +29145,39 @@
       </c>
       <c r="I86" s="0" t="str">
         <f aca="false">VLOOKUP($F86,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Land rights</v>
+        <v>Resource use and damage to the environment</v>
       </c>
       <c r="J86" s="0" t="str">
         <f aca="false">VLOOKUP($F86,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C87" s="0" t="str">
         <f aca="false">VLOOKUP($A87,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-164</v>
+        <v>S-162</v>
       </c>
       <c r="D87" s="0" t="str">
         <f aca="false">VLOOKUP($A87,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E87" s="0" t="str">
         <f aca="false">VLOOKUP($A87,Sources!$A$1:$G$250,6,0)</f>
-        <v>General Assembly: </v>
+        <v>International Covenant on Economic, Social and Cultural Rights</v>
       </c>
       <c r="F87" s="0" t="str">
         <f aca="false">VLOOKUP($A87,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-144</v>
+        <v>I-142</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">VLOOKUP($F87,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Declaration on Rights of Indigenous Peoples</v>
+        <v>Covenant on Social, Economic and Cultural Rights</v>
       </c>
       <c r="H87" s="0" t="str">
         <f aca="false">VLOOKUP($F87,Indicators!$A$1:$G$250,2,0)</f>
@@ -29210,30 +29194,30 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C88" s="0" t="str">
         <f aca="false">VLOOKUP($A88,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-166</v>
+        <v>S-163</v>
       </c>
       <c r="D88" s="0" t="str">
         <f aca="false">VLOOKUP($A88,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Bank</v>
+        <v>ILO NORMLEX</v>
       </c>
       <c r="E88" s="0" t="str">
         <f aca="false">VLOOKUP($A88,Sources!$A$1:$G$250,6,0)</f>
-        <v>Doing Business Report, Registering Property, Quality of Land Administration Index</v>
+        <v>Ratifications of C107 - Indigenous and Tribal Populations Convention, 1957 (No. 107)</v>
       </c>
       <c r="F88" s="0" t="str">
         <f aca="false">VLOOKUP($A88,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-147</v>
+        <v>I-143</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">VLOOKUP($F88,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Quality of land administration</v>
+        <v>Convention on the Rights of Indigenous Peoples</v>
       </c>
       <c r="H88" s="0" t="str">
         <f aca="false">VLOOKUP($F88,Indicators!$A$1:$G$250,2,0)</f>
@@ -29245,35 +29229,35 @@
       </c>
       <c r="J88" s="0" t="str">
         <f aca="false">VLOOKUP($F88,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C89" s="0" t="str">
         <f aca="false">VLOOKUP($A89,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-168</v>
+        <v>S-164</v>
       </c>
       <c r="D89" s="0" t="str">
         <f aca="false">VLOOKUP($A89,Sources!$A$1:$G$250,5,0)</f>
-        <v>ICRC</v>
+        <v>UN</v>
       </c>
       <c r="E89" s="0" t="str">
         <f aca="false">VLOOKUP($A89,Sources!$A$1:$G$250,6,0)</f>
-        <v>Geneva Conventions of 1949 and Additional Protocols, and their Commentaries: Geneva Convention</v>
+        <v>General Assembly: </v>
       </c>
       <c r="F89" s="0" t="str">
         <f aca="false">VLOOKUP($A89,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-149</v>
+        <v>I-144</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">VLOOKUP($F89,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Geneva Convention</v>
+        <v>Declaration on Rights of Indigenous Peoples</v>
       </c>
       <c r="H89" s="0" t="str">
         <f aca="false">VLOOKUP($F89,Indicators!$A$1:$G$250,2,0)</f>
@@ -29281,7 +29265,7 @@
       </c>
       <c r="I89" s="0" t="str">
         <f aca="false">VLOOKUP($F89,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Land rights</v>
       </c>
       <c r="J89" s="0" t="str">
         <f aca="false">VLOOKUP($F89,Indicators!$A$1:$G$250,4,0)</f>
@@ -29290,30 +29274,30 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C90" s="0" t="str">
         <f aca="false">VLOOKUP($A90,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-169</v>
+        <v>S-166</v>
       </c>
       <c r="D90" s="0" t="str">
         <f aca="false">VLOOKUP($A90,Sources!$A$1:$G$250,5,0)</f>
-        <v>ICRC</v>
+        <v>World Bank</v>
       </c>
       <c r="E90" s="0" t="str">
         <f aca="false">VLOOKUP($A90,Sources!$A$1:$G$250,6,0)</f>
-        <v>Geneva Conventions of 1949 and Additional Protocols, and their Commentaries: Geneva Convention Protocol I</v>
+        <v>Doing Business Report, Registering Property, Quality of Land Administration Index</v>
       </c>
       <c r="F90" s="0" t="str">
         <f aca="false">VLOOKUP($A90,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-150</v>
+        <v>I-147</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">VLOOKUP($F90,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Protection of Victims of International Armed Conflicts (Geneva Convention Protocol I)</v>
+        <v>Quality of land administration</v>
       </c>
       <c r="H90" s="0" t="str">
         <f aca="false">VLOOKUP($F90,Indicators!$A$1:$G$250,2,0)</f>
@@ -29321,23 +29305,23 @@
       </c>
       <c r="I90" s="0" t="str">
         <f aca="false">VLOOKUP($F90,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Land rights</v>
       </c>
       <c r="J90" s="0" t="str">
         <f aca="false">VLOOKUP($F90,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C91" s="0" t="str">
         <f aca="false">VLOOKUP($A91,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-170</v>
+        <v>S-168</v>
       </c>
       <c r="D91" s="0" t="str">
         <f aca="false">VLOOKUP($A91,Sources!$A$1:$G$250,5,0)</f>
@@ -29345,15 +29329,15 @@
       </c>
       <c r="E91" s="0" t="str">
         <f aca="false">VLOOKUP($A91,Sources!$A$1:$G$250,6,0)</f>
-        <v>Geneva Conventions of 1949 and Additional Protocols, and their Commentaries: Geneva Convention Protocol II</v>
+        <v>Geneva Conventions of 1949 and Additional Protocols, and their Commentaries: Geneva Convention</v>
       </c>
       <c r="F91" s="0" t="str">
         <f aca="false">VLOOKUP($A91,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-151</v>
+        <v>I-149</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">VLOOKUP($F91,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Protection of Victims of Non-International Armed Conflicts(Geneva Convention Protocol II)</v>
+        <v>Geneva Convention</v>
       </c>
       <c r="H91" s="0" t="str">
         <f aca="false">VLOOKUP($F91,Indicators!$A$1:$G$250,2,0)</f>
@@ -29370,30 +29354,30 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C92" s="0" t="str">
         <f aca="false">VLOOKUP($A92,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-171</v>
+        <v>S-169</v>
       </c>
       <c r="D92" s="0" t="str">
         <f aca="false">VLOOKUP($A92,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>ICRC</v>
       </c>
       <c r="E92" s="0" t="str">
         <f aca="false">VLOOKUP($A92,Sources!$A$1:$G$250,6,0)</f>
-        <v>International Convention Against the Recruitment, Use, Financing and Training of Mercenaries: </v>
+        <v>Geneva Conventions of 1949 and Additional Protocols, and their Commentaries: Geneva Convention Protocol I</v>
       </c>
       <c r="F92" s="0" t="str">
         <f aca="false">VLOOKUP($A92,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-152</v>
+        <v>I-150</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">VLOOKUP($F92,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Convention Against the Recruitment, Use, Financing and Training of Mercenaries</v>
+        <v>Protection of Victims of International Armed Conflicts (Geneva Convention Protocol I)</v>
       </c>
       <c r="H92" s="0" t="str">
         <f aca="false">VLOOKUP($F92,Indicators!$A$1:$G$250,2,0)</f>
@@ -29410,30 +29394,30 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C93" s="0" t="str">
         <f aca="false">VLOOKUP($A93,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-172</v>
+        <v>S-170</v>
       </c>
       <c r="D93" s="0" t="str">
         <f aca="false">VLOOKUP($A93,Sources!$A$1:$G$250,5,0)</f>
-        <v>Swiss Federal Dept F.Affairs</v>
+        <v>ICRC</v>
       </c>
       <c r="E93" s="0" t="str">
         <f aca="false">VLOOKUP($A93,Sources!$A$1:$G$250,6,0)</f>
-        <v>Participating States of the Montreaux Document: </v>
+        <v>Geneva Conventions of 1949 and Additional Protocols, and their Commentaries: Geneva Convention Protocol II</v>
       </c>
       <c r="F93" s="0" t="str">
         <f aca="false">VLOOKUP($A93,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-153</v>
+        <v>I-151</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">VLOOKUP($F93,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Montreaux Document</v>
+        <v>Protection of Victims of Non-International Armed Conflicts(Geneva Convention Protocol II)</v>
       </c>
       <c r="H93" s="0" t="str">
         <f aca="false">VLOOKUP($F93,Indicators!$A$1:$G$250,2,0)</f>
@@ -29450,14 +29434,14 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C94" s="0" t="str">
         <f aca="false">VLOOKUP($A94,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-173</v>
+        <v>S-171</v>
       </c>
       <c r="D94" s="0" t="str">
         <f aca="false">VLOOKUP($A94,Sources!$A$1:$G$250,5,0)</f>
@@ -29465,15 +29449,15 @@
       </c>
       <c r="E94" s="0" t="str">
         <f aca="false">VLOOKUP($A94,Sources!$A$1:$G$250,6,0)</f>
-        <v>Optional Protocol to the Convention on the Rights of the Child on the involvement of children in armed conflict: </v>
+        <v>International Convention Against the Recruitment, Use, Financing and Training of Mercenaries: </v>
       </c>
       <c r="F94" s="0" t="str">
         <f aca="false">VLOOKUP($A94,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-154</v>
+        <v>I-152</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">VLOOKUP($F94,Indicators!$A$1:$G$250,5,0)</f>
-        <v>CRC Optional Protocol on Children in Armed Conflict</v>
+        <v>Convention Against the Recruitment, Use, Financing and Training of Mercenaries</v>
       </c>
       <c r="H94" s="0" t="str">
         <f aca="false">VLOOKUP($F94,Indicators!$A$1:$G$250,2,0)</f>
@@ -29490,30 +29474,30 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C95" s="0" t="str">
         <f aca="false">VLOOKUP($A95,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-174</v>
+        <v>S-172</v>
       </c>
       <c r="D95" s="0" t="str">
         <f aca="false">VLOOKUP($A95,Sources!$A$1:$G$250,5,0)</f>
-        <v>ILO NORMLEX</v>
+        <v>Swiss Federal Dept F.Affairs</v>
       </c>
       <c r="E95" s="0" t="str">
         <f aca="false">VLOOKUP($A95,Sources!$A$1:$G$250,6,0)</f>
-        <v>Ratifications of C182 - Worst Forms of Child Labour Convention, 1999 (No. 182)</v>
+        <v>Participating States of the Montreaux Document: </v>
       </c>
       <c r="F95" s="0" t="str">
         <f aca="false">VLOOKUP($A95,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-155</v>
+        <v>I-153</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">VLOOKUP($F95,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Worst Forms of Child Labour Convention</v>
+        <v>Montreaux Document</v>
       </c>
       <c r="H95" s="0" t="str">
         <f aca="false">VLOOKUP($F95,Indicators!$A$1:$G$250,2,0)</f>
@@ -29530,30 +29514,30 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C96" s="0" t="str">
         <f aca="false">VLOOKUP($A96,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-178</v>
+        <v>S-173</v>
       </c>
       <c r="D96" s="0" t="str">
         <f aca="false">VLOOKUP($A96,Sources!$A$1:$G$250,5,0)</f>
-        <v>VPSHR</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E96" s="0" t="str">
         <f aca="false">VLOOKUP($A96,Sources!$A$1:$G$250,6,0)</f>
-        <v>Voluntary Principles on Security and Human Rights</v>
+        <v>Optional Protocol to the Convention on the Rights of the Child on the involvement of children in armed conflict: </v>
       </c>
       <c r="F96" s="0" t="str">
         <f aca="false">VLOOKUP($A96,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-159</v>
+        <v>I-154</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">VLOOKUP($F96,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Voluntary Principles on Security and Human Rights</v>
+        <v>CRC Optional Protocol on Children in Armed Conflict</v>
       </c>
       <c r="H96" s="0" t="str">
         <f aca="false">VLOOKUP($F96,Indicators!$A$1:$G$250,2,0)</f>
@@ -29565,35 +29549,35 @@
       </c>
       <c r="J96" s="0" t="str">
         <f aca="false">VLOOKUP($F96,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1118</v>
+        <v>814</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C97" s="0" t="n">
+        <v>1759</v>
+      </c>
+      <c r="C97" s="0" t="str">
         <f aca="false">VLOOKUP($A97,Sources!$A$1:$G$250,2,0)</f>
-        <v>0</v>
+        <v>S-174</v>
       </c>
       <c r="D97" s="0" t="str">
         <f aca="false">VLOOKUP($A97,Sources!$A$1:$G$250,5,0)</f>
-        <v>Watchlist</v>
+        <v>ILO NORMLEX</v>
       </c>
       <c r="E97" s="0" t="str">
         <f aca="false">VLOOKUP($A97,Sources!$A$1:$G$250,6,0)</f>
-        <v>Reports of Children Used in Hostilities': </v>
+        <v>Ratifications of C182 - Worst Forms of Child Labour Convention, 1999 (No. 182)</v>
       </c>
       <c r="F97" s="0" t="str">
         <f aca="false">VLOOKUP($A97,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-160</v>
+        <v>I-155</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">VLOOKUP($F97,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Recruitment and use of children in hostilities</v>
+        <v>Worst Forms of Child Labour Convention</v>
       </c>
       <c r="H97" s="0" t="str">
         <f aca="false">VLOOKUP($F97,Indicators!$A$1:$G$250,2,0)</f>
@@ -29605,35 +29589,35 @@
       </c>
       <c r="J97" s="0" t="str">
         <f aca="false">VLOOKUP($F97,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C98" s="0" t="str">
         <f aca="false">VLOOKUP($A98,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-181</v>
+        <v>S-178</v>
       </c>
       <c r="D98" s="0" t="str">
         <f aca="false">VLOOKUP($A98,Sources!$A$1:$G$250,5,0)</f>
-        <v>Internal Displacement Monitoring Centre</v>
+        <v>VPSHR</v>
       </c>
       <c r="E98" s="0" t="str">
         <f aca="false">VLOOKUP($A98,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Internal Displacement Database: Conflict new displacements</v>
+        <v>Voluntary Principles on Security and Human Rights</v>
       </c>
       <c r="F98" s="0" t="str">
         <f aca="false">VLOOKUP($A98,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-162</v>
+        <v>I-159</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">VLOOKUP($F98,Indicators!$A$1:$G$250,5,0)</f>
-        <v>New displacements of people by conflict and violence</v>
+        <v>Voluntary Principles on Security and Human Rights</v>
       </c>
       <c r="H98" s="0" t="str">
         <f aca="false">VLOOKUP($F98,Indicators!$A$1:$G$250,2,0)</f>
@@ -29645,35 +29629,35 @@
       </c>
       <c r="J98" s="0" t="str">
         <f aca="false">VLOOKUP($F98,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>853</v>
+        <v>1118</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>1759</v>
-      </c>
-      <c r="C99" s="0" t="str">
+        <v>1758</v>
+      </c>
+      <c r="C99" s="0" t="n">
         <f aca="false">VLOOKUP($A99,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-182</v>
+        <v>0</v>
       </c>
       <c r="D99" s="0" t="str">
         <f aca="false">VLOOKUP($A99,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>Watchlist</v>
       </c>
       <c r="E99" s="0" t="str">
         <f aca="false">VLOOKUP($A99,Sources!$A$1:$G$250,6,0)</f>
-        <v>Tampere Convention on the Provision of Telecommunication Resources for Disaster Mitigation and Relief Operations: </v>
+        <v>Reports of Children Used in Hostilities': </v>
       </c>
       <c r="F99" s="0" t="str">
         <f aca="false">VLOOKUP($A99,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-163</v>
+        <v>I-160</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">VLOOKUP($F99,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Telecommunication Resources for Disaster Mitigation</v>
+        <v>Recruitment and use of children in hostilities</v>
       </c>
       <c r="H99" s="0" t="str">
         <f aca="false">VLOOKUP($F99,Indicators!$A$1:$G$250,2,0)</f>
@@ -29681,39 +29665,39 @@
       </c>
       <c r="I99" s="0" t="str">
         <f aca="false">VLOOKUP($F99,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Natural disasters</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J99" s="0" t="str">
         <f aca="false">VLOOKUP($F99,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C100" s="0" t="str">
         <f aca="false">VLOOKUP($A100,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-183</v>
+        <v>S-181</v>
       </c>
       <c r="D100" s="0" t="str">
         <f aca="false">VLOOKUP($A100,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>Internal Displacement Monitoring Centre</v>
       </c>
       <c r="E100" s="0" t="str">
         <f aca="false">VLOOKUP($A100,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.5.4, 13.1.3, 11.b.2,  Series:  Proportion of local governments that adopt and implement local disaster risk reduction strategies in line with national disaster risk reduction strategies (%) SG_DSR_SILS</v>
+        <v>Global Internal Displacement Database: Conflict new displacements</v>
       </c>
       <c r="F100" s="0" t="str">
         <f aca="false">VLOOKUP($A100,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-164</v>
+        <v>I-162</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">VLOOKUP($F100,Indicators!$A$1:$G$250,5,0)</f>
-        <v>National disaster risk reduction strategies</v>
+        <v>New displacements of people by conflict and violence</v>
       </c>
       <c r="H100" s="0" t="str">
         <f aca="false">VLOOKUP($F100,Indicators!$A$1:$G$250,2,0)</f>
@@ -29721,39 +29705,39 @@
       </c>
       <c r="I100" s="0" t="str">
         <f aca="false">VLOOKUP($F100,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Natural disasters</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J100" s="0" t="str">
         <f aca="false">VLOOKUP($F100,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C101" s="0" t="str">
         <f aca="false">VLOOKUP($A101,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-184</v>
+        <v>S-182</v>
       </c>
       <c r="D101" s="0" t="str">
         <f aca="false">VLOOKUP($A101,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E101" s="0" t="str">
         <f aca="false">VLOOKUP($A101,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.5.1: Indicator 1.5.1, 11.5.1, 13.1.1,  Series:  Number of deaths and missing persons attributed to disasters per 100,000 population (number) VC_DSR_MTMP</v>
+        <v>Tampere Convention on the Provision of Telecommunication Resources for Disaster Mitigation and Relief Operations: </v>
       </c>
       <c r="F101" s="0" t="str">
         <f aca="false">VLOOKUP($A101,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-165</v>
+        <v>I-163</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">VLOOKUP($F101,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Deaths associated with disasters</v>
+        <v>Telecommunication Resources for Disaster Mitigation</v>
       </c>
       <c r="H101" s="0" t="str">
         <f aca="false">VLOOKUP($F101,Indicators!$A$1:$G$250,2,0)</f>
@@ -29765,35 +29749,35 @@
       </c>
       <c r="J101" s="0" t="str">
         <f aca="false">VLOOKUP($F101,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C102" s="0" t="str">
         <f aca="false">VLOOKUP($A102,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-185</v>
+        <v>S-183</v>
       </c>
       <c r="D102" s="0" t="str">
         <f aca="false">VLOOKUP($A102,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG/ UN POP</v>
+        <v>UN SDG</v>
       </c>
       <c r="E102" s="0" t="str">
         <f aca="false">VLOOKUP($A102,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.5.1: Indicator 1.5.1, 11.5.1, 13.1.1,  Series:  Number of people whose livelihoods were disrupted or destroyed, attributed to disasters (number) VC_DSR_PDLN</v>
+        <v>SDG Indicator 1.5.4, 13.1.3, 11.b.2,  Series:  Proportion of local governments that adopt and implement local disaster risk reduction strategies in line with national disaster risk reduction strategies (%) SG_DSR_SILS</v>
       </c>
       <c r="F102" s="0" t="str">
         <f aca="false">VLOOKUP($A102,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-166</v>
+        <v>I-164</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">VLOOKUP($F102,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Damaged livelihoods associated with disasters</v>
+        <v>National disaster risk reduction strategies</v>
       </c>
       <c r="H102" s="0" t="str">
         <f aca="false">VLOOKUP($F102,Indicators!$A$1:$G$250,2,0)</f>
@@ -29805,35 +29789,35 @@
       </c>
       <c r="J102" s="0" t="str">
         <f aca="false">VLOOKUP($F102,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C103" s="0" t="str">
         <f aca="false">VLOOKUP($A103,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-186</v>
+        <v>S-184</v>
       </c>
       <c r="D103" s="0" t="str">
         <f aca="false">VLOOKUP($A103,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG/ UN POP</v>
+        <v>UN SDG</v>
       </c>
       <c r="E103" s="0" t="str">
         <f aca="false">VLOOKUP($A103,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 11.5.3, VC_DSR_ESDN:  If possible, make relative to population</v>
+        <v>SDG Indicator 1.5.1: Indicator 1.5.1, 11.5.1, 13.1.1,  Series:  Number of deaths and missing persons attributed to disasters per 100,000 population (number) VC_DSR_MTMP</v>
       </c>
       <c r="F103" s="0" t="str">
         <f aca="false">VLOOKUP($A103,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-167</v>
+        <v>I-165</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">VLOOKUP($F103,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Disruption to education services</v>
+        <v>Deaths associated with disasters</v>
       </c>
       <c r="H103" s="0" t="str">
         <f aca="false">VLOOKUP($F103,Indicators!$A$1:$G$250,2,0)</f>
@@ -29850,14 +29834,14 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C104" s="0" t="str">
         <f aca="false">VLOOKUP($A104,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-187</v>
+        <v>S-185</v>
       </c>
       <c r="D104" s="0" t="str">
         <f aca="false">VLOOKUP($A104,Sources!$A$1:$G$250,5,0)</f>
@@ -29865,15 +29849,15 @@
       </c>
       <c r="E104" s="0" t="str">
         <f aca="false">VLOOKUP($A104,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator Indicator 11.5.3,  Series:  Number of disruptions to health services attributed to disasters (number) VC_DSR_HSDN.  If possible, make relative to population</v>
+        <v>SDG Indicator 1.5.1: Indicator 1.5.1, 11.5.1, 13.1.1,  Series:  Number of people whose livelihoods were disrupted or destroyed, attributed to disasters (number) VC_DSR_PDLN</v>
       </c>
       <c r="F104" s="0" t="str">
         <f aca="false">VLOOKUP($A104,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-168</v>
+        <v>I-166</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">VLOOKUP($F104,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Disruption to health services</v>
+        <v>Damaged livelihoods associated with disasters</v>
       </c>
       <c r="H104" s="0" t="str">
         <f aca="false">VLOOKUP($F104,Indicators!$A$1:$G$250,2,0)</f>
@@ -29890,14 +29874,14 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C105" s="0" t="str">
         <f aca="false">VLOOKUP($A105,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-188</v>
+        <v>S-186</v>
       </c>
       <c r="D105" s="0" t="str">
         <f aca="false">VLOOKUP($A105,Sources!$A$1:$G$250,5,0)</f>
@@ -29905,15 +29889,15 @@
       </c>
       <c r="E105" s="0" t="str">
         <f aca="false">VLOOKUP($A105,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 11.5.3,  Series:  Number of disruptions to other basic services attributed to disasters (number) VC_DSR_OBDN</v>
+        <v>SDG Indicator 11.5.3, VC_DSR_ESDN:  If possible, make relative to population</v>
       </c>
       <c r="F105" s="0" t="str">
         <f aca="false">VLOOKUP($A105,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-169</v>
+        <v>I-167</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">VLOOKUP($F105,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Disruption to basic services</v>
+        <v>Disruption to education services</v>
       </c>
       <c r="H105" s="0" t="str">
         <f aca="false">VLOOKUP($F105,Indicators!$A$1:$G$250,2,0)</f>
@@ -29930,30 +29914,30 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C106" s="0" t="str">
         <f aca="false">VLOOKUP($A106,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-189</v>
+        <v>S-187</v>
       </c>
       <c r="D106" s="0" t="str">
         <f aca="false">VLOOKUP($A106,Sources!$A$1:$G$250,5,0)</f>
-        <v>Internal Displacement Monitoring Centre</v>
+        <v>UN SDG/ UN POP</v>
       </c>
       <c r="E106" s="0" t="str">
         <f aca="false">VLOOKUP($A106,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Internal Displacement Database. Disasters new displacements</v>
+        <v>SDG Indicator Indicator 11.5.3,  Series:  Number of disruptions to health services attributed to disasters (number) VC_DSR_HSDN.  If possible, make relative to population</v>
       </c>
       <c r="F106" s="0" t="str">
         <f aca="false">VLOOKUP($A106,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-170</v>
+        <v>I-168</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">VLOOKUP($F106,Indicators!$A$1:$G$250,5,0)</f>
-        <v>New displacements of people by natural disasters</v>
+        <v>Disruption to health services</v>
       </c>
       <c r="H106" s="0" t="str">
         <f aca="false">VLOOKUP($F106,Indicators!$A$1:$G$250,2,0)</f>
@@ -29970,30 +29954,30 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C107" s="0" t="str">
         <f aca="false">VLOOKUP($A107,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-190</v>
+        <v>S-188</v>
       </c>
       <c r="D107" s="0" t="str">
         <f aca="false">VLOOKUP($A107,Sources!$A$1:$G$250,5,0)</f>
-        <v>INFORM index</v>
+        <v>UN SDG/ UN POP</v>
       </c>
       <c r="E107" s="0" t="str">
         <f aca="false">VLOOKUP($A107,Sources!$A$1:$G$250,6,0)</f>
-        <v>INFORM Risk Index 2020</v>
+        <v>SDG Indicator 11.5.3,  Series:  Number of disruptions to other basic services attributed to disasters (number) VC_DSR_OBDN</v>
       </c>
       <c r="F107" s="0" t="str">
         <f aca="false">VLOOKUP($A107,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-171</v>
+        <v>I-169</v>
       </c>
       <c r="G107" s="0" t="str">
         <f aca="false">VLOOKUP($F107,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Risk of humanitarian crises and disasters</v>
+        <v>Disruption to basic services</v>
       </c>
       <c r="H107" s="0" t="str">
         <f aca="false">VLOOKUP($F107,Indicators!$A$1:$G$250,2,0)</f>
@@ -30005,35 +29989,35 @@
       </c>
       <c r="J107" s="0" t="str">
         <f aca="false">VLOOKUP($F107,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C108" s="0" t="str">
         <f aca="false">VLOOKUP($A108,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-191</v>
+        <v>S-189</v>
       </c>
       <c r="D108" s="0" t="str">
         <f aca="false">VLOOKUP($A108,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>Internal Displacement Monitoring Centre</v>
       </c>
       <c r="E108" s="0" t="str">
         <f aca="false">VLOOKUP($A108,Sources!$A$1:$G$250,6,0)</f>
-        <v>Convention on the Rights of the Child</v>
+        <v>Global Internal Displacement Database. Disasters new displacements</v>
       </c>
       <c r="F108" s="0" t="str">
         <f aca="false">VLOOKUP($A108,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-172</v>
+        <v>I-170</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">VLOOKUP($F108,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Convention on the Rights of the Child (CRC)</v>
+        <v>New displacements of people by natural disasters</v>
       </c>
       <c r="H108" s="0" t="str">
         <f aca="false">VLOOKUP($F108,Indicators!$A$1:$G$250,2,0)</f>
@@ -30041,39 +30025,39 @@
       </c>
       <c r="I108" s="0" t="str">
         <f aca="false">VLOOKUP($F108,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Natural disasters</v>
       </c>
       <c r="J108" s="0" t="str">
         <f aca="false">VLOOKUP($F108,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C109" s="0" t="str">
         <f aca="false">VLOOKUP($A109,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-192</v>
+        <v>S-190</v>
       </c>
       <c r="D109" s="0" t="str">
         <f aca="false">VLOOKUP($A109,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN Treaties</v>
+        <v>INFORM index</v>
       </c>
       <c r="E109" s="0" t="str">
         <f aca="false">VLOOKUP($A109,Sources!$A$1:$G$250,6,0)</f>
-        <v>Optional Protocol to the Convention on the Rights of the Child on a communications procedure</v>
+        <v>INFORM Risk Index 2020</v>
       </c>
       <c r="F109" s="0" t="str">
         <f aca="false">VLOOKUP($A109,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-173</v>
+        <v>I-171</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">VLOOKUP($F109,Indicators!$A$1:$G$250,5,0)</f>
-        <v>CRC Optional Protocol on Communications Procedure</v>
+        <v>Risk of humanitarian crises and disasters</v>
       </c>
       <c r="H109" s="0" t="str">
         <f aca="false">VLOOKUP($F109,Indicators!$A$1:$G$250,2,0)</f>
@@ -30081,39 +30065,39 @@
       </c>
       <c r="I109" s="0" t="str">
         <f aca="false">VLOOKUP($F109,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Natural disasters</v>
       </c>
       <c r="J109" s="0" t="str">
         <f aca="false">VLOOKUP($F109,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C110" s="0" t="str">
         <f aca="false">VLOOKUP($A110,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-193</v>
+        <v>S-191</v>
       </c>
       <c r="D110" s="0" t="str">
         <f aca="false">VLOOKUP($A110,Sources!$A$1:$G$250,5,0)</f>
-        <v>CRIN</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E110" s="0" t="str">
         <f aca="false">VLOOKUP($A110,Sources!$A$1:$G$250,6,0)</f>
-        <v>Access to Justice Country Ranking: Part I</v>
+        <v>Convention on the Rights of the Child</v>
       </c>
       <c r="F110" s="0" t="str">
         <f aca="false">VLOOKUP($A110,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-174</v>
+        <v>I-172</v>
       </c>
       <c r="G110" s="0" t="str">
         <f aca="false">VLOOKUP($F110,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Legal status of CRC</v>
+        <v>Convention on the Rights of the Child (CRC)</v>
       </c>
       <c r="H110" s="0" t="str">
         <f aca="false">VLOOKUP($F110,Indicators!$A$1:$G$250,2,0)</f>
@@ -30125,35 +30109,35 @@
       </c>
       <c r="J110" s="0" t="str">
         <f aca="false">VLOOKUP($F110,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>928</v>
+        <v>900</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C111" s="0" t="str">
         <f aca="false">VLOOKUP($A111,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-198</v>
+        <v>S-192</v>
       </c>
       <c r="D111" s="0" t="str">
         <f aca="false">VLOOKUP($A111,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>UN Treaties</v>
       </c>
       <c r="E111" s="0" t="str">
         <f aca="false">VLOOKUP($A111,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.a.2: Proportion of total government spending on essential services (education, health and social protection)</v>
+        <v>Optional Protocol to the Convention on the Rights of the Child on a communications procedure</v>
       </c>
       <c r="F111" s="0" t="str">
         <f aca="false">VLOOKUP($A111,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-184</v>
+        <v>I-173</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">VLOOKUP($F111,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Education spending</v>
+        <v>CRC Optional Protocol on Communications Procedure</v>
       </c>
       <c r="H111" s="0" t="str">
         <f aca="false">VLOOKUP($F111,Indicators!$A$1:$G$250,2,0)</f>
@@ -30165,35 +30149,35 @@
       </c>
       <c r="J111" s="0" t="str">
         <f aca="false">VLOOKUP($F111,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework international</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>933</v>
+        <v>905</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C112" s="0" t="str">
         <f aca="false">VLOOKUP($A112,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-199</v>
+        <v>S-193</v>
       </c>
       <c r="D112" s="0" t="str">
         <f aca="false">VLOOKUP($A112,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>CRIN</v>
       </c>
       <c r="E112" s="0" t="str">
         <f aca="false">VLOOKUP($A112,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Current health expenditure per capita, PPP (current international $): </v>
+        <v>Access to Justice Country Ranking: Part I</v>
       </c>
       <c r="F112" s="0" t="str">
         <f aca="false">VLOOKUP($A112,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-185</v>
+        <v>I-174</v>
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">VLOOKUP($F112,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Health expenditure</v>
+        <v>Legal status of CRC</v>
       </c>
       <c r="H112" s="0" t="str">
         <f aca="false">VLOOKUP($F112,Indicators!$A$1:$G$250,2,0)</f>
@@ -30205,19 +30189,19 @@
       </c>
       <c r="J112" s="0" t="str">
         <f aca="false">VLOOKUP($F112,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C113" s="0" t="str">
         <f aca="false">VLOOKUP($A113,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-204</v>
+        <v>S-198</v>
       </c>
       <c r="D113" s="0" t="str">
         <f aca="false">VLOOKUP($A113,Sources!$A$1:$G$250,5,0)</f>
@@ -30225,39 +30209,39 @@
       </c>
       <c r="E113" s="0" t="str">
         <f aca="false">VLOOKUP($A113,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 1.1.1, ILO Stat: Employed population below international poverty line, by sex and age (%) SI_POV_EMP1</v>
+        <v>SDG Indicator 1.a.2: Proportion of total government spending on essential services (education, health and social protection)</v>
       </c>
       <c r="F113" s="0" t="str">
         <f aca="false">VLOOKUP($A113,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-44</v>
+        <v>I-184</v>
       </c>
       <c r="G113" s="0" t="str">
         <f aca="false">VLOOKUP($F113,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Working poverty rate</v>
+        <v>Education spending</v>
       </c>
       <c r="H113" s="0" t="str">
         <f aca="false">VLOOKUP($F113,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I113" s="0" t="str">
         <f aca="false">VLOOKUP($F113,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J113" s="0" t="str">
         <f aca="false">VLOOKUP($F113,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C114" s="0" t="str">
         <f aca="false">VLOOKUP($A114,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-207</v>
+        <v>S-199</v>
       </c>
       <c r="D114" s="0" t="str">
         <f aca="false">VLOOKUP($A114,Sources!$A$1:$G$250,5,0)</f>
@@ -30265,63 +30249,63 @@
       </c>
       <c r="E114" s="0" t="str">
         <f aca="false">VLOOKUP($A114,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Age limits - Alcohol service/sales: Use both columns – off premises </v>
+        <v>Global Health Observatory, Current health expenditure per capita, PPP (current international $): </v>
       </c>
       <c r="F114" s="0" t="str">
         <f aca="false">VLOOKUP($A114,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-192</v>
+        <v>I-185</v>
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">VLOOKUP($F114,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Age limits off-premise alcohol sale</v>
+        <v>Health expenditure</v>
       </c>
       <c r="H114" s="0" t="str">
         <f aca="false">VLOOKUP($F114,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I114" s="0" t="str">
         <f aca="false">VLOOKUP($F114,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J114" s="0" t="str">
         <f aca="false">VLOOKUP($F114,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C115" s="0" t="str">
         <f aca="false">VLOOKUP($A115,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-208</v>
+        <v>S-204</v>
       </c>
       <c r="D115" s="0" t="str">
         <f aca="false">VLOOKUP($A115,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNESCO</v>
+        <v>UN SDG</v>
       </c>
       <c r="E115" s="0" t="str">
         <f aca="false">VLOOKUP($A115,Sources!$A$1:$G$250,6,0)</f>
-        <v>Percentage of out-of-school adolescents of primary school age. </v>
+        <v>SDG Indicator 1.1.1, ILO Stat: Employed population below international poverty line, by sex and age (%) SI_POV_EMP1</v>
       </c>
       <c r="F115" s="0" t="str">
         <f aca="false">VLOOKUP($A115,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-193</v>
+        <v>I-44</v>
       </c>
       <c r="G115" s="0" t="str">
         <f aca="false">VLOOKUP($F115,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Out-of-school adolescents (primary school)</v>
+        <v>Working poverty rate</v>
       </c>
       <c r="H115" s="0" t="str">
         <f aca="false">VLOOKUP($F115,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Workplace</v>
       </c>
       <c r="I115" s="0" t="str">
         <f aca="false">VLOOKUP($F115,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J115" s="0" t="str">
         <f aca="false">VLOOKUP($F115,Indicators!$A$1:$G$250,4,0)</f>
@@ -30330,14 +30314,14 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C116" s="0" t="str">
         <f aca="false">VLOOKUP($A116,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-209</v>
+        <v>S-207</v>
       </c>
       <c r="D116" s="0" t="str">
         <f aca="false">VLOOKUP($A116,Sources!$A$1:$G$250,5,0)</f>
@@ -30345,15 +30329,15 @@
       </c>
       <c r="E116" s="0" t="str">
         <f aca="false">VLOOKUP($A116,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Advertising restrictions on national radio</v>
+        <v>Global Health Observatory, Age limits - Alcohol service/sales: Use both columns – off premises </v>
       </c>
       <c r="F116" s="0" t="str">
         <f aca="false">VLOOKUP($A116,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-194</v>
+        <v>I-192</v>
       </c>
       <c r="G116" s="0" t="str">
         <f aca="false">VLOOKUP($F116,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Ban on alcohol advertising on national radio</v>
+        <v>Age limits off-premise alcohol sale</v>
       </c>
       <c r="H116" s="0" t="str">
         <f aca="false">VLOOKUP($F116,Indicators!$A$1:$G$250,2,0)</f>
@@ -30370,110 +30354,110 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C117" s="0" t="str">
         <f aca="false">VLOOKUP($A117,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-210</v>
+        <v>S-208</v>
       </c>
       <c r="D117" s="0" t="str">
         <f aca="false">VLOOKUP($A117,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
+        <v>UNESCO</v>
       </c>
       <c r="E117" s="0" t="str">
         <f aca="false">VLOOKUP($A117,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Advertising restrictions on print media</v>
+        <v>Percentage of out-of-school adolescents of primary school age. </v>
       </c>
       <c r="F117" s="0" t="str">
         <f aca="false">VLOOKUP($A117,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-195</v>
+        <v>I-193</v>
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">VLOOKUP($F117,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Ban on alcohol advertising on print media</v>
+        <v>Out-of-school adolescents (primary school)</v>
       </c>
       <c r="H117" s="0" t="str">
         <f aca="false">VLOOKUP($F117,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I117" s="0" t="str">
         <f aca="false">VLOOKUP($F117,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J117" s="0" t="str">
         <f aca="false">VLOOKUP($F117,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>990</v>
+        <v>965</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C118" s="0" t="str">
         <f aca="false">VLOOKUP($A118,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-214</v>
+        <v>S-209</v>
       </c>
       <c r="D118" s="0" t="str">
         <f aca="false">VLOOKUP($A118,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>WHO</v>
       </c>
       <c r="E118" s="0" t="str">
         <f aca="false">VLOOKUP($A118,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG database - 16.9.1: Proportion of children under 5 years of age whose births have been registered with a civil authority (% of children under 5 years of age) SG_REG_BRTH</v>
+        <v>Global Health Observatory, Advertising restrictions on national radio</v>
       </c>
       <c r="F118" s="0" t="str">
         <f aca="false">VLOOKUP($A118,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-201</v>
+        <v>I-194</v>
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">VLOOKUP($F118,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Birth registration under 5 years of age</v>
+        <v>Ban on alcohol advertising on national radio</v>
       </c>
       <c r="H118" s="0" t="str">
         <f aca="false">VLOOKUP($F118,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I118" s="0" t="str">
         <f aca="false">VLOOKUP($F118,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J118" s="0" t="str">
         <f aca="false">VLOOKUP($F118,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C119" s="0" t="str">
         <f aca="false">VLOOKUP($A119,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-215</v>
+        <v>S-210</v>
       </c>
       <c r="D119" s="0" t="str">
         <f aca="false">VLOOKUP($A119,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNICEF</v>
+        <v>WHO</v>
       </c>
       <c r="E119" s="0" t="str">
         <f aca="false">VLOOKUP($A119,Sources!$A$1:$G$250,6,0)</f>
-        <v>Underweight children aged 0-5. UNICEF DATA https://data.unicef.org/topic/nutrition/malnutrition/ </v>
+        <v>Global Health Observatory, Advertising restrictions on print media</v>
       </c>
       <c r="F119" s="0" t="str">
         <f aca="false">VLOOKUP($A119,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-202</v>
+        <v>I-195</v>
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">VLOOKUP($F119,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child malnutrition under 6 months</v>
+        <v>Ban on alcohol advertising on print media</v>
       </c>
       <c r="H119" s="0" t="str">
         <f aca="false">VLOOKUP($F119,Indicators!$A$1:$G$250,2,0)</f>
@@ -30485,19 +30469,19 @@
       </c>
       <c r="J119" s="0" t="str">
         <f aca="false">VLOOKUP($F119,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C120" s="0" t="str">
         <f aca="false">VLOOKUP($A120,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-217</v>
+        <v>S-214</v>
       </c>
       <c r="D120" s="0" t="str">
         <f aca="false">VLOOKUP($A120,Sources!$A$1:$G$250,5,0)</f>
@@ -30505,55 +30489,55 @@
       </c>
       <c r="E120" s="0" t="str">
         <f aca="false">VLOOKUP($A120,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG Indicator 8.7.1. 12.4.2, 12.5.1,  Series:  Electronic waste recycling, per capita (Kg) EN_EWT_RCYPCAP</v>
+        <v>SDG database - 16.9.1: Proportion of children under 5 years of age whose births have been registered with a civil authority (% of children under 5 years of age) SG_REG_BRTH</v>
       </c>
       <c r="F120" s="0" t="str">
         <f aca="false">VLOOKUP($A120,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-205</v>
+        <v>I-201</v>
       </c>
       <c r="G120" s="0" t="str">
         <f aca="false">VLOOKUP($F120,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Electronic waste recycling</v>
+        <v>Birth registration under 5 years of age</v>
       </c>
       <c r="H120" s="0" t="str">
         <f aca="false">VLOOKUP($F120,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I120" s="0" t="str">
         <f aca="false">VLOOKUP($F120,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Product Safety</v>
+        <v>Child labour</v>
       </c>
       <c r="J120" s="0" t="str">
         <f aca="false">VLOOKUP($F120,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C121" s="0" t="str">
         <f aca="false">VLOOKUP($A121,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-218</v>
+        <v>S-215</v>
       </c>
       <c r="D121" s="0" t="str">
         <f aca="false">VLOOKUP($A121,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>UNICEF</v>
       </c>
       <c r="E121" s="0" t="str">
         <f aca="false">VLOOKUP($A121,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG database 12.1.1 Countries with sustainable consumption and production (SCP) national action plans or SCP mainstreamed as a priority or target into national policies (1 = YES; 0 = NO) SG_SCP_CNTRY</v>
+        <v>Underweight children aged 0-5. UNICEF DATA https://data.unicef.org/topic/nutrition/malnutrition/ </v>
       </c>
       <c r="F121" s="0" t="str">
         <f aca="false">VLOOKUP($A121,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-206</v>
+        <v>I-202</v>
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">VLOOKUP($F121,Indicators!$A$1:$G$250,5,0)</f>
-        <v>National action plan on sustainable consumption and production</v>
+        <v>Child malnutrition under 6 months</v>
       </c>
       <c r="H121" s="0" t="str">
         <f aca="false">VLOOKUP($F121,Indicators!$A$1:$G$250,2,0)</f>
@@ -30561,39 +30545,39 @@
       </c>
       <c r="I121" s="0" t="str">
         <f aca="false">VLOOKUP($F121,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Product Safety</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J121" s="0" t="str">
         <f aca="false">VLOOKUP($F121,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C122" s="0" t="str">
         <f aca="false">VLOOKUP($A122,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-219</v>
+        <v>S-217</v>
       </c>
       <c r="D122" s="0" t="str">
         <f aca="false">VLOOKUP($A122,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Bank</v>
+        <v>UN SDG</v>
       </c>
       <c r="E122" s="0" t="str">
         <f aca="false">VLOOKUP($A122,Sources!$A$1:$G$250,6,0)</f>
-        <v>World governance indicators: Regulatory Quality (Ability of the government to formulate and implement sound policies and regulations thatpermit and promote private sector development)</v>
+        <v>SDG Indicator 8.7.1. 12.4.2, 12.5.1,  Series:  Electronic waste recycling, per capita (Kg) EN_EWT_RCYPCAP</v>
       </c>
       <c r="F122" s="0" t="str">
         <f aca="false">VLOOKUP($A122,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-207</v>
+        <v>I-205</v>
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">VLOOKUP($F122,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Regulatory quality</v>
+        <v>Electronic waste recycling</v>
       </c>
       <c r="H122" s="0" t="str">
         <f aca="false">VLOOKUP($F122,Indicators!$A$1:$G$250,2,0)</f>
@@ -30605,35 +30589,35 @@
       </c>
       <c r="J122" s="0" t="str">
         <f aca="false">VLOOKUP($F122,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C123" s="0" t="str">
         <f aca="false">VLOOKUP($A123,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-220</v>
+        <v>S-218</v>
       </c>
       <c r="D123" s="0" t="str">
         <f aca="false">VLOOKUP($A123,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Bank</v>
+        <v>UN SDG</v>
       </c>
       <c r="E123" s="0" t="str">
         <f aca="false">VLOOKUP($A123,Sources!$A$1:$G$250,6,0)</f>
-        <v>World governance indicators: Rule of law (quality of contract enforcement, property rights, the police, and the courts, and likelihood of crime and violence)</v>
+        <v>SDG database 12.1.1 Countries with sustainable consumption and production (SCP) national action plans or SCP mainstreamed as a priority or target into national policies (1 = YES; 0 = NO) SG_SCP_CNTRY</v>
       </c>
       <c r="F123" s="0" t="str">
         <f aca="false">VLOOKUP($A123,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-208</v>
+        <v>I-206</v>
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">VLOOKUP($F123,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Rule of law</v>
+        <v>National action plan on sustainable consumption and production</v>
       </c>
       <c r="H123" s="0" t="str">
         <f aca="false">VLOOKUP($F123,Indicators!$A$1:$G$250,2,0)</f>
@@ -30645,35 +30629,35 @@
       </c>
       <c r="J123" s="0" t="str">
         <f aca="false">VLOOKUP($F123,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C124" s="0" t="str">
         <f aca="false">VLOOKUP($A124,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-221</v>
+        <v>S-219</v>
       </c>
       <c r="D124" s="0" t="str">
         <f aca="false">VLOOKUP($A124,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNICEF</v>
+        <v>World Bank</v>
       </c>
       <c r="E124" s="0" t="str">
         <f aca="false">VLOOKUP($A124,Sources!$A$1:$G$250,6,0)</f>
-        <v>CDDEM Countdown Demographic Dataflow, Causes of under 5 deaths [D18]</v>
+        <v>World governance indicators: Regulatory Quality (Ability of the government to formulate and implement sound policies and regulations thatpermit and promote private sector development)</v>
       </c>
       <c r="F124" s="0" t="str">
         <f aca="false">VLOOKUP($A124,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-94</v>
+        <v>I-207</v>
       </c>
       <c r="G124" s="0" t="str">
         <f aca="false">VLOOKUP($F124,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Death rates from injuries</v>
+        <v>Regulatory quality</v>
       </c>
       <c r="H124" s="0" t="str">
         <f aca="false">VLOOKUP($F124,Indicators!$A$1:$G$250,2,0)</f>
@@ -30685,99 +30669,99 @@
       </c>
       <c r="J124" s="0" t="str">
         <f aca="false">VLOOKUP($F124,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C125" s="0" t="str">
         <f aca="false">VLOOKUP($A125,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-222</v>
+        <v>S-220</v>
       </c>
       <c r="D125" s="0" t="str">
         <f aca="false">VLOOKUP($A125,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
+        <v>World Bank</v>
       </c>
       <c r="E125" s="0" t="str">
         <f aca="false">VLOOKUP($A125,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG database 2.1.2  Prevalence of moderate or severe food insecurity in the adult population (%) AG_PRD_FIESMSI</v>
+        <v>World governance indicators: Rule of law (quality of contract enforcement, property rights, the police, and the courts, and likelihood of crime and violence)</v>
       </c>
       <c r="F125" s="0" t="str">
         <f aca="false">VLOOKUP($A125,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-209</v>
+        <v>I-208</v>
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">VLOOKUP($F125,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Food insecurity</v>
+        <v>Rule of law</v>
       </c>
       <c r="H125" s="0" t="str">
         <f aca="false">VLOOKUP($F125,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I125" s="0" t="str">
         <f aca="false">VLOOKUP($F125,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Land rights</v>
+        <v>Product Safety</v>
       </c>
       <c r="J125" s="0" t="str">
         <f aca="false">VLOOKUP($F125,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C126" s="0" t="str">
         <f aca="false">VLOOKUP($A126,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-223</v>
+        <v>S-221</v>
       </c>
       <c r="D126" s="0" t="str">
         <f aca="false">VLOOKUP($A126,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Bank</v>
+        <v>UNICEF</v>
       </c>
       <c r="E126" s="0" t="str">
         <f aca="false">VLOOKUP($A126,Sources!$A$1:$G$250,6,0)</f>
-        <v>World governance indicators: Voice and accountability </v>
+        <v>CDDEM Countdown Demographic Dataflow, Causes of under 5 deaths [D18]</v>
       </c>
       <c r="F126" s="0" t="str">
         <f aca="false">VLOOKUP($A126,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-210</v>
+        <v>I-94</v>
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">VLOOKUP($F126,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Voice and Accountability</v>
+        <v>Death rates from injuries</v>
       </c>
       <c r="H126" s="0" t="str">
         <f aca="false">VLOOKUP($F126,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I126" s="0" t="str">
         <f aca="false">VLOOKUP($F126,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Land rights</v>
+        <v>Product Safety</v>
       </c>
       <c r="J126" s="0" t="str">
         <f aca="false">VLOOKUP($F126,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C127" s="0" t="str">
         <f aca="false">VLOOKUP($A127,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-224</v>
+        <v>S-222</v>
       </c>
       <c r="D127" s="0" t="str">
         <f aca="false">VLOOKUP($A127,Sources!$A$1:$G$250,5,0)</f>
@@ -30785,15 +30769,15 @@
       </c>
       <c r="E127" s="0" t="str">
         <f aca="false">VLOOKUP($A127,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG database 12.4.1  Parties meeting their commitments and obligations in transmitting information as required by Basel Convention on hazardous waste, and other chemicals SG_HAZ_CMRBASEL</v>
+        <v>SDG database 2.1.2  Prevalence of moderate or severe food insecurity in the adult population (%) AG_PRD_FIESMSI</v>
       </c>
       <c r="F127" s="0" t="str">
         <f aca="false">VLOOKUP($A127,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-211</v>
+        <v>I-209</v>
       </c>
       <c r="G127" s="0" t="str">
         <f aca="false">VLOOKUP($F127,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Reporting on hazardous waste commitments (Basel convention)</v>
+        <v>Food insecurity</v>
       </c>
       <c r="H127" s="0" t="str">
         <f aca="false">VLOOKUP($F127,Indicators!$A$1:$G$250,2,0)</f>
@@ -30801,40 +30785,39 @@
       </c>
       <c r="I127" s="0" t="str">
         <f aca="false">VLOOKUP($F127,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Resource use and damage to the environment</v>
+        <v>Land rights</v>
       </c>
       <c r="J127" s="0" t="str">
         <f aca="false">VLOOKUP($F127,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Outcome</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C128" s="0" t="str">
         <f aca="false">VLOOKUP($A128,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-225</v>
+        <v>S-223</v>
       </c>
       <c r="D128" s="0" t="str">
         <f aca="false">VLOOKUP($A128,Sources!$A$1:$G$250,5,0)</f>
-        <v>UN SDG</v>
-      </c>
-      <c r="E128" s="3" t="str">
+        <v>World Bank</v>
+      </c>
+      <c r="E128" s="0" t="str">
         <f aca="false">VLOOKUP($A128,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG database 12.4.1 Reporting on hazardous waste commitments. 
-Parties meeting their commitments and obligations in transmitting information as required by Stockholm Convention on hazardous waste, and other chemicals SG_HAZ_CMRSTHOLM</v>
+        <v>World governance indicators: Voice and accountability </v>
       </c>
       <c r="F128" s="0" t="str">
         <f aca="false">VLOOKUP($A128,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-212</v>
+        <v>I-210</v>
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">VLOOKUP($F128,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Reporting on hazardous waste commitments (Stockholm convention)</v>
+        <v>Voice and Accountability</v>
       </c>
       <c r="H128" s="0" t="str">
         <f aca="false">VLOOKUP($F128,Indicators!$A$1:$G$250,2,0)</f>
@@ -30842,7 +30825,7 @@
       </c>
       <c r="I128" s="0" t="str">
         <f aca="false">VLOOKUP($F128,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Resource use and damage to the environment</v>
+        <v>Land rights</v>
       </c>
       <c r="J128" s="0" t="str">
         <f aca="false">VLOOKUP($F128,Indicators!$A$1:$G$250,4,0)</f>
@@ -30851,30 +30834,30 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C129" s="0" t="str">
         <f aca="false">VLOOKUP($A129,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-226</v>
+        <v>S-224</v>
       </c>
       <c r="D129" s="0" t="str">
         <f aca="false">VLOOKUP($A129,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Bank</v>
+        <v>UN SDG</v>
       </c>
       <c r="E129" s="0" t="str">
         <f aca="false">VLOOKUP($A129,Sources!$A$1:$G$250,6,0)</f>
-        <v>World governance indicators: Political stability and absence of violence (Perceptions of the likelihood of political instability and/or politicallymotivated violence, including terrorism)</v>
+        <v>SDG database 12.4.1  Parties meeting their commitments and obligations in transmitting information as required by Basel Convention on hazardous waste, and other chemicals SG_HAZ_CMRBASEL</v>
       </c>
       <c r="F129" s="0" t="str">
         <f aca="false">VLOOKUP($A129,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-213</v>
+        <v>I-211</v>
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">VLOOKUP($F129,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Political Stability and Absence of Violence</v>
+        <v>Reporting on hazardous waste commitments (Basel convention)</v>
       </c>
       <c r="H129" s="0" t="str">
         <f aca="false">VLOOKUP($F129,Indicators!$A$1:$G$250,2,0)</f>
@@ -30882,23 +30865,23 @@
       </c>
       <c r="I129" s="0" t="str">
         <f aca="false">VLOOKUP($F129,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Resource use and damage to the environment</v>
       </c>
       <c r="J129" s="0" t="str">
         <f aca="false">VLOOKUP($F129,Indicators!$A$1:$G$250,4,0)</f>
         <v>Enforcement</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C130" s="0" t="str">
         <f aca="false">VLOOKUP($A130,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-227</v>
+        <v>S-225</v>
       </c>
       <c r="D130" s="0" t="str">
         <f aca="false">VLOOKUP($A130,Sources!$A$1:$G$250,5,0)</f>
@@ -30906,15 +30889,16 @@
       </c>
       <c r="E130" s="0" t="str">
         <f aca="false">VLOOKUP($A130,Sources!$A$1:$G$250,6,0)</f>
-        <v>SDG database 13.1.2 Score of adoption and implementation of national DRR strategies in line with the Sendai Framework SG_DSR_LGRGSR</v>
+        <v>SDG database 12.4.1 Reporting on hazardous waste commitments. 
+Parties meeting their commitments and obligations in transmitting information as required by Stockholm Convention on hazardous waste, and other chemicals SG_HAZ_CMRSTHOLM</v>
       </c>
       <c r="F130" s="0" t="str">
         <f aca="false">VLOOKUP($A130,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-214</v>
+        <v>I-212</v>
       </c>
       <c r="G130" s="0" t="str">
         <f aca="false">VLOOKUP($F130,Indicators!$A$1:$G$250,5,0)</f>
-        <v>National strategy aligned with Sendai Framework</v>
+        <v>Reporting on hazardous waste commitments (Stockholm convention)</v>
       </c>
       <c r="H130" s="0" t="str">
         <f aca="false">VLOOKUP($F130,Indicators!$A$1:$G$250,2,0)</f>
@@ -30922,7 +30906,7 @@
       </c>
       <c r="I130" s="0" t="str">
         <f aca="false">VLOOKUP($F130,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Natural disasters</v>
+        <v>Resource use and damage to the environment</v>
       </c>
       <c r="J130" s="0" t="str">
         <f aca="false">VLOOKUP($F130,Indicators!$A$1:$G$250,4,0)</f>
@@ -30931,70 +30915,70 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C131" s="0" t="str">
         <f aca="false">VLOOKUP($A131,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-228</v>
+        <v>S-226</v>
       </c>
       <c r="D131" s="0" t="str">
         <f aca="false">VLOOKUP($A131,Sources!$A$1:$G$250,5,0)</f>
-        <v>ICMEC</v>
+        <v>World Bank</v>
       </c>
       <c r="E131" s="0" t="str">
         <f aca="false">VLOOKUP($A131,Sources!$A$1:$G$250,6,0)</f>
-        <v>Child Pornography: Model Legislation and Global Review (9th edition): </v>
+        <v>World governance indicators: Political stability and absence of violence (Perceptions of the likelihood of political instability and/or politicallymotivated violence, including terrorism)</v>
       </c>
       <c r="F131" s="0" t="str">
         <f aca="false">VLOOKUP($A131,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-215</v>
+        <v>I-213</v>
       </c>
       <c r="G131" s="0" t="str">
         <f aca="false">VLOOKUP($F131,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Criminalisation of possession of CSAM</v>
+        <v>Political Stability and Absence of Violence</v>
       </c>
       <c r="H131" s="0" t="str">
         <f aca="false">VLOOKUP($F131,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I131" s="0" t="str">
         <f aca="false">VLOOKUP($F131,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J131" s="0" t="str">
         <f aca="false">VLOOKUP($F131,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C132" s="0" t="str">
         <f aca="false">VLOOKUP($A132,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-230</v>
+        <v>S-227</v>
       </c>
       <c r="D132" s="0" t="str">
         <f aca="false">VLOOKUP($A132,Sources!$A$1:$G$250,5,0)</f>
-        <v>Internal Displacement Monitoring Centre</v>
+        <v>UN SDG</v>
       </c>
       <c r="E132" s="0" t="str">
         <f aca="false">VLOOKUP($A132,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Internal Displacement Database. Disasters stock Displacements</v>
+        <v>SDG database 13.1.2 Score of adoption and implementation of national DRR strategies in line with the Sendai Framework SG_DSR_LGRGSR</v>
       </c>
       <c r="F132" s="0" t="str">
         <f aca="false">VLOOKUP($A132,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-217</v>
+        <v>I-214</v>
       </c>
       <c r="G132" s="0" t="str">
         <f aca="false">VLOOKUP($F132,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Number of people internally displaced by natural disasters</v>
+        <v>National strategy aligned with Sendai Framework</v>
       </c>
       <c r="H132" s="0" t="str">
         <f aca="false">VLOOKUP($F132,Indicators!$A$1:$G$250,2,0)</f>
@@ -31006,99 +30990,99 @@
       </c>
       <c r="J132" s="0" t="str">
         <f aca="false">VLOOKUP($F132,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1076</v>
+        <v>1049</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C133" s="0" t="str">
         <f aca="false">VLOOKUP($A133,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-234</v>
+        <v>S-228</v>
       </c>
       <c r="D133" s="0" t="str">
         <f aca="false">VLOOKUP($A133,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNICEF research</v>
+        <v>ICMEC</v>
       </c>
       <c r="E133" s="0" t="str">
         <f aca="false">VLOOKUP($A133,Sources!$A$1:$G$250,6,0)</f>
-        <v>National Action Plans on Business and Human Rights (sources: Danish Institute for Business and Human Rights and UN OHCHR)</v>
+        <v>Child Pornography: Model Legislation and Global Review (9th edition): </v>
       </c>
       <c r="F133" s="0" t="str">
         <f aca="false">VLOOKUP($A133,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-66</v>
+        <v>I-215</v>
       </c>
       <c r="G133" s="0" t="str">
         <f aca="false">VLOOKUP($F133,Indicators!$A$1:$G$250,5,0)</f>
-        <v>National Action Plan on Business and Human Rights</v>
+        <v>Criminalisation of possession of CSAM</v>
       </c>
       <c r="H133" s="0" t="str">
         <f aca="false">VLOOKUP($F133,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I133" s="0" t="str">
         <f aca="false">VLOOKUP($F133,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J133" s="0" t="str">
         <f aca="false">VLOOKUP($F133,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1089</v>
+        <v>1056</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C134" s="0" t="str">
         <f aca="false">VLOOKUP($A134,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-236</v>
+        <v>S-230</v>
       </c>
       <c r="D134" s="0" t="str">
         <f aca="false">VLOOKUP($A134,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNICEF research</v>
+        <v>Internal Displacement Monitoring Centre</v>
       </c>
       <c r="E134" s="0" t="str">
         <f aca="false">VLOOKUP($A134,Sources!$A$1:$G$250,6,0)</f>
-        <v>National standards body (sources: ISO and IEC)</v>
+        <v>Global Internal Displacement Database. Disasters stock Displacements</v>
       </c>
       <c r="F134" s="0" t="str">
         <f aca="false">VLOOKUP($A134,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-93</v>
+        <v>I-217</v>
       </c>
       <c r="G134" s="0" t="str">
         <f aca="false">VLOOKUP($F134,Indicators!$A$1:$G$250,5,0)</f>
-        <v>National standards body</v>
+        <v>Number of people internally displaced by natural disasters</v>
       </c>
       <c r="H134" s="0" t="str">
         <f aca="false">VLOOKUP($F134,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I134" s="0" t="str">
         <f aca="false">VLOOKUP($F134,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Product Safety</v>
+        <v>Natural disasters</v>
       </c>
       <c r="J134" s="0" t="str">
         <f aca="false">VLOOKUP($F134,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>1095</v>
+        <v>1076</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C135" s="0" t="str">
         <f aca="false">VLOOKUP($A135,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-237</v>
+        <v>S-234</v>
       </c>
       <c r="D135" s="0" t="str">
         <f aca="false">VLOOKUP($A135,Sources!$A$1:$G$250,5,0)</f>
@@ -31106,39 +31090,39 @@
       </c>
       <c r="E135" s="0" t="str">
         <f aca="false">VLOOKUP($A135,Sources!$A$1:$G$250,6,0)</f>
-        <v>Regulation of PMSCOs (sources: OHCHR and University of Denver Private Security Monitor)</v>
+        <v>National Action Plans on Business and Human Rights (sources: Danish Institute for Business and Human Rights and UN OHCHR)</v>
       </c>
       <c r="F135" s="0" t="str">
         <f aca="false">VLOOKUP($A135,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-158</v>
+        <v>I-66</v>
       </c>
       <c r="G135" s="0" t="str">
         <f aca="false">VLOOKUP($F135,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Regulation of private military and security companies</v>
+        <v>National Action Plan on Business and Human Rights</v>
       </c>
       <c r="H135" s="0" t="str">
         <f aca="false">VLOOKUP($F135,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Workplace</v>
       </c>
       <c r="I135" s="0" t="str">
         <f aca="false">VLOOKUP($F135,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J135" s="0" t="str">
         <f aca="false">VLOOKUP($F135,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C136" s="0" t="str">
         <f aca="false">VLOOKUP($A136,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-238</v>
+        <v>S-236</v>
       </c>
       <c r="D136" s="0" t="str">
         <f aca="false">VLOOKUP($A136,Sources!$A$1:$G$250,5,0)</f>
@@ -31146,15 +31130,15 @@
       </c>
       <c r="E136" s="0" t="str">
         <f aca="false">VLOOKUP($A136,Sources!$A$1:$G$250,6,0)</f>
-        <v>Consumer protection monitoring body (sources: FTC and ICPEN)</v>
+        <v>National standards body (sources: ISO and IEC)</v>
       </c>
       <c r="F136" s="0" t="str">
         <f aca="false">VLOOKUP($A136,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-203</v>
+        <v>I-93</v>
       </c>
       <c r="G136" s="0" t="str">
         <f aca="false">VLOOKUP($F136,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Consumer protection enforcement authority</v>
+        <v>National standards body</v>
       </c>
       <c r="H136" s="0" t="str">
         <f aca="false">VLOOKUP($F136,Indicators!$A$1:$G$250,2,0)</f>
@@ -31166,115 +31150,115 @@
       </c>
       <c r="J136" s="0" t="str">
         <f aca="false">VLOOKUP($F136,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C137" s="0" t="str">
         <f aca="false">VLOOKUP($A137,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-239</v>
+        <v>S-237</v>
       </c>
       <c r="D137" s="0" t="str">
         <f aca="false">VLOOKUP($A137,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Bank</v>
+        <v>UNICEF research</v>
       </c>
       <c r="E137" s="0" t="str">
         <f aca="false">VLOOKUP($A137,Sources!$A$1:$G$250,6,0)</f>
-        <v>Trained teachers in preprimary education (% of total teachers)</v>
+        <v>Regulation of PMSCOs (sources: OHCHR and University of Denver Private Security Monitor)</v>
       </c>
       <c r="F137" s="0" t="str">
         <f aca="false">VLOOKUP($A137,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-220</v>
+        <v>I-158</v>
       </c>
       <c r="G137" s="0" t="str">
         <f aca="false">VLOOKUP($F137,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Quality of pre-primary teaching</v>
+        <v>Regulation of private military and security companies</v>
       </c>
       <c r="H137" s="0" t="str">
         <f aca="false">VLOOKUP($F137,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I137" s="0" t="str">
         <f aca="false">VLOOKUP($F137,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J137" s="0" t="str">
         <f aca="false">VLOOKUP($F137,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>48</v>
+        <v>1101</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C138" s="0" t="str">
         <f aca="false">VLOOKUP($A138,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-8</v>
+        <v>S-238</v>
       </c>
       <c r="D138" s="0" t="str">
         <f aca="false">VLOOKUP($A138,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Policy Analysis Centre</v>
+        <v>UNICEF research</v>
       </c>
       <c r="E138" s="0" t="str">
         <f aca="false">VLOOKUP($A138,Sources!$A$1:$G$250,6,0)</f>
-        <v>What is the minimum age for admission to employment? (Without taking legal loopholes into account) </v>
+        <v>Consumer protection monitoring body (sources: FTC and ICPEN)</v>
       </c>
       <c r="F138" s="0" t="str">
         <f aca="false">VLOOKUP($A138,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-8</v>
+        <v>I-203</v>
       </c>
       <c r="G138" s="0" t="str">
         <f aca="false">VLOOKUP($F138,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Minimum age for employment</v>
+        <v>Consumer protection enforcement authority</v>
       </c>
       <c r="H138" s="0" t="str">
         <f aca="false">VLOOKUP($F138,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I138" s="0" t="str">
         <f aca="false">VLOOKUP($F138,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Product Safety</v>
       </c>
       <c r="J138" s="0" t="str">
         <f aca="false">VLOOKUP($F138,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>56</v>
+        <v>1107</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C139" s="0" t="str">
         <f aca="false">VLOOKUP($A139,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-9</v>
+        <v>S-239</v>
       </c>
       <c r="D139" s="0" t="str">
         <f aca="false">VLOOKUP($A139,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Policy Analysis Centre</v>
+        <v>World Bank</v>
       </c>
       <c r="E139" s="0" t="str">
         <f aca="false">VLOOKUP($A139,Sources!$A$1:$G$250,6,0)</f>
-        <v>What is the minimum age for light work? </v>
+        <v>Trained teachers in preprimary education (% of total teachers)</v>
       </c>
       <c r="F139" s="0" t="str">
         <f aca="false">VLOOKUP($A139,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-9</v>
+        <v>I-220</v>
       </c>
       <c r="G139" s="0" t="str">
         <f aca="false">VLOOKUP($F139,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Minimum age for light work</v>
+        <v>Quality of pre-primary teaching</v>
       </c>
       <c r="H139" s="0" t="str">
         <f aca="false">VLOOKUP($F139,Indicators!$A$1:$G$250,2,0)</f>
@@ -31282,23 +31266,23 @@
       </c>
       <c r="I139" s="0" t="str">
         <f aca="false">VLOOKUP($F139,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J139" s="0" t="str">
         <f aca="false">VLOOKUP($F139,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C140" s="0" t="str">
         <f aca="false">VLOOKUP($A140,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-10</v>
+        <v>S-8</v>
       </c>
       <c r="D140" s="0" t="str">
         <f aca="false">VLOOKUP($A140,Sources!$A$1:$G$250,5,0)</f>
@@ -31306,15 +31290,15 @@
       </c>
       <c r="E140" s="0" t="str">
         <f aca="false">VLOOKUP($A140,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is education compulsory? (Beginning secondary education) </v>
+        <v>What is the minimum age for admission to employment? (Without taking legal loopholes into account) </v>
       </c>
       <c r="F140" s="0" t="str">
         <f aca="false">VLOOKUP($A140,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-10</v>
+        <v>I-8</v>
       </c>
       <c r="G140" s="0" t="str">
         <f aca="false">VLOOKUP($F140,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Compulsory schooling</v>
+        <v>Minimum age for employment</v>
       </c>
       <c r="H140" s="0" t="str">
         <f aca="false">VLOOKUP($F140,Indicators!$A$1:$G$250,2,0)</f>
@@ -31331,14 +31315,14 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C141" s="0" t="str">
         <f aca="false">VLOOKUP($A141,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-13</v>
+        <v>S-9</v>
       </c>
       <c r="D141" s="0" t="str">
         <f aca="false">VLOOKUP($A141,Sources!$A$1:$G$250,5,0)</f>
@@ -31346,15 +31330,15 @@
       </c>
       <c r="E141" s="0" t="str">
         <f aca="false">VLOOKUP($A141,Sources!$A$1:$G$250,6,0)</f>
-        <v>What is the minimum age for hazardous work? Use 'without legal loopholes' </v>
+        <v>What is the minimum age for light work? </v>
       </c>
       <c r="F141" s="0" t="str">
         <f aca="false">VLOOKUP($A141,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-13</v>
+        <v>I-9</v>
       </c>
       <c r="G141" s="0" t="str">
         <f aca="false">VLOOKUP($F141,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Minimum age for hazardous work</v>
+        <v>Minimum age for light work</v>
       </c>
       <c r="H141" s="0" t="str">
         <f aca="false">VLOOKUP($F141,Indicators!$A$1:$G$250,2,0)</f>
@@ -31371,14 +31355,14 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C142" s="0" t="str">
         <f aca="false">VLOOKUP($A142,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-36</v>
+        <v>S-10</v>
       </c>
       <c r="D142" s="0" t="str">
         <f aca="false">VLOOKUP($A142,Sources!$A$1:$G$250,5,0)</f>
@@ -31386,15 +31370,15 @@
       </c>
       <c r="E142" s="0" t="str">
         <f aca="false">VLOOKUP($A142,Sources!$A$1:$G$250,6,0)</f>
-        <v>How is minimum wage established? </v>
+        <v>Is education compulsory? (Beginning secondary education) </v>
       </c>
       <c r="F142" s="0" t="str">
         <f aca="false">VLOOKUP($A142,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-32</v>
+        <v>I-10</v>
       </c>
       <c r="G142" s="0" t="str">
         <f aca="false">VLOOKUP($F142,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Minimum wage</v>
+        <v>Compulsory schooling</v>
       </c>
       <c r="H142" s="0" t="str">
         <f aca="false">VLOOKUP($F142,Indicators!$A$1:$G$250,2,0)</f>
@@ -31402,7 +31386,7 @@
       </c>
       <c r="I142" s="0" t="str">
         <f aca="false">VLOOKUP($F142,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Child labour</v>
       </c>
       <c r="J142" s="0" t="str">
         <f aca="false">VLOOKUP($F142,Indicators!$A$1:$G$250,4,0)</f>
@@ -31411,14 +31395,14 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C143" s="0" t="str">
         <f aca="false">VLOOKUP($A143,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-40</v>
+        <v>S-13</v>
       </c>
       <c r="D143" s="0" t="str">
         <f aca="false">VLOOKUP($A143,Sources!$A$1:$G$250,5,0)</f>
@@ -31426,15 +31410,15 @@
       </c>
       <c r="E143" s="0" t="str">
         <f aca="false">VLOOKUP($A143,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is paid annual leave available to workers? </v>
+        <v>What is the minimum age for hazardous work? Use 'without legal loopholes' </v>
       </c>
       <c r="F143" s="0" t="str">
         <f aca="false">VLOOKUP($A143,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-36</v>
+        <v>I-13</v>
       </c>
       <c r="G143" s="0" t="str">
         <f aca="false">VLOOKUP($F143,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Paid annual leave</v>
+        <v>Minimum age for hazardous work</v>
       </c>
       <c r="H143" s="0" t="str">
         <f aca="false">VLOOKUP($F143,Indicators!$A$1:$G$250,2,0)</f>
@@ -31442,7 +31426,7 @@
       </c>
       <c r="I143" s="0" t="str">
         <f aca="false">VLOOKUP($F143,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Child labour</v>
       </c>
       <c r="J143" s="0" t="str">
         <f aca="false">VLOOKUP($F143,Indicators!$A$1:$G$250,4,0)</f>
@@ -31451,14 +31435,14 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C144" s="0" t="str">
         <f aca="false">VLOOKUP($A144,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-41</v>
+        <v>S-36</v>
       </c>
       <c r="D144" s="0" t="str">
         <f aca="false">VLOOKUP($A144,Sources!$A$1:$G$250,5,0)</f>
@@ -31466,15 +31450,15 @@
       </c>
       <c r="E144" s="0" t="str">
         <f aca="false">VLOOKUP($A144,Sources!$A$1:$G$250,6,0)</f>
-        <v>For how long are workers guaranteed paid sick leave?</v>
+        <v>How is minimum wage established? </v>
       </c>
       <c r="F144" s="0" t="str">
         <f aca="false">VLOOKUP($A144,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-37</v>
+        <v>I-32</v>
       </c>
       <c r="G144" s="0" t="str">
         <f aca="false">VLOOKUP($F144,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Sick leave</v>
+        <v>Minimum wage</v>
       </c>
       <c r="H144" s="0" t="str">
         <f aca="false">VLOOKUP($F144,Indicators!$A$1:$G$250,2,0)</f>
@@ -31491,14 +31475,14 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C145" s="0" t="str">
         <f aca="false">VLOOKUP($A145,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-42</v>
+        <v>S-40</v>
       </c>
       <c r="D145" s="0" t="str">
         <f aca="false">VLOOKUP($A145,Sources!$A$1:$G$250,5,0)</f>
@@ -31506,15 +31490,15 @@
       </c>
       <c r="E145" s="0" t="str">
         <f aca="false">VLOOKUP($A145,Sources!$A$1:$G$250,6,0)</f>
-        <v>Are women protected from discrimination at work? (In promotion and/or demotions) </v>
+        <v>Is paid annual leave available to workers? </v>
       </c>
       <c r="F145" s="0" t="str">
         <f aca="false">VLOOKUP($A145,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-38</v>
+        <v>I-36</v>
       </c>
       <c r="G145" s="0" t="str">
         <f aca="false">VLOOKUP($F145,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Gender discrimination</v>
+        <v>Paid annual leave</v>
       </c>
       <c r="H145" s="0" t="str">
         <f aca="false">VLOOKUP($F145,Indicators!$A$1:$G$250,2,0)</f>
@@ -31531,14 +31515,14 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C146" s="0" t="str">
         <f aca="false">VLOOKUP($A146,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-43</v>
+        <v>S-41</v>
       </c>
       <c r="D146" s="0" t="str">
         <f aca="false">VLOOKUP($A146,Sources!$A$1:$G$250,5,0)</f>
@@ -31546,15 +31530,15 @@
       </c>
       <c r="E146" s="0" t="str">
         <f aca="false">VLOOKUP($A146,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is equal pay guaranteed for men and women? </v>
+        <v>For how long are workers guaranteed paid sick leave?</v>
       </c>
       <c r="F146" s="0" t="str">
         <f aca="false">VLOOKUP($A146,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-39</v>
+        <v>I-37</v>
       </c>
       <c r="G146" s="0" t="str">
         <f aca="false">VLOOKUP($F146,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Equal pay</v>
+        <v>Sick leave</v>
       </c>
       <c r="H146" s="0" t="str">
         <f aca="false">VLOOKUP($F146,Indicators!$A$1:$G$250,2,0)</f>
@@ -31571,14 +31555,14 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C147" s="0" t="str">
         <f aca="false">VLOOKUP($A147,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-44</v>
+        <v>S-42</v>
       </c>
       <c r="D147" s="0" t="str">
         <f aca="false">VLOOKUP($A147,Sources!$A$1:$G$250,5,0)</f>
@@ -31586,15 +31570,15 @@
       </c>
       <c r="E147" s="0" t="str">
         <f aca="false">VLOOKUP($A147,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is sexual harassment explicitly prohibited in the workplace? </v>
+        <v>Are women protected from discrimination at work? (In promotion and/or demotions) </v>
       </c>
       <c r="F147" s="0" t="str">
         <f aca="false">VLOOKUP($A147,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-40</v>
+        <v>I-38</v>
       </c>
       <c r="G147" s="0" t="str">
         <f aca="false">VLOOKUP($F147,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Sexual harassment</v>
+        <v>Gender discrimination</v>
       </c>
       <c r="H147" s="0" t="str">
         <f aca="false">VLOOKUP($F147,Indicators!$A$1:$G$250,2,0)</f>
@@ -31611,14 +31595,14 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C148" s="0" t="str">
         <f aca="false">VLOOKUP($A148,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-45</v>
+        <v>S-43</v>
       </c>
       <c r="D148" s="0" t="str">
         <f aca="false">VLOOKUP($A148,Sources!$A$1:$G$250,5,0)</f>
@@ -31626,15 +31610,15 @@
       </c>
       <c r="E148" s="0" t="str">
         <f aca="false">VLOOKUP($A148,Sources!$A$1:$G$250,6,0)</f>
-        <v>Do families receive benefits for childcare or school costs? </v>
+        <v>Is equal pay guaranteed for men and women? </v>
       </c>
       <c r="F148" s="0" t="str">
         <f aca="false">VLOOKUP($A148,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-41</v>
+        <v>I-39</v>
       </c>
       <c r="G148" s="0" t="str">
         <f aca="false">VLOOKUP($F148,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Support for childcare</v>
+        <v>Equal pay</v>
       </c>
       <c r="H148" s="0" t="str">
         <f aca="false">VLOOKUP($F148,Indicators!$A$1:$G$250,2,0)</f>
@@ -31642,7 +31626,7 @@
       </c>
       <c r="I148" s="0" t="str">
         <f aca="false">VLOOKUP($F148,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J148" s="0" t="str">
         <f aca="false">VLOOKUP($F148,Indicators!$A$1:$G$250,4,0)</f>
@@ -31651,14 +31635,14 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C149" s="0" t="str">
         <f aca="false">VLOOKUP($A149,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-49</v>
+        <v>S-44</v>
       </c>
       <c r="D149" s="0" t="str">
         <f aca="false">VLOOKUP($A149,Sources!$A$1:$G$250,5,0)</f>
@@ -31666,15 +31650,15 @@
       </c>
       <c r="E149" s="0" t="str">
         <f aca="false">VLOOKUP($A149,Sources!$A$1:$G$250,6,0)</f>
-        <v>At what level are minimum wages set per day? </v>
+        <v>Is sexual harassment explicitly prohibited in the workplace? </v>
       </c>
       <c r="F149" s="0" t="str">
         <f aca="false">VLOOKUP($A149,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-45</v>
+        <v>I-40</v>
       </c>
       <c r="G149" s="0" t="str">
         <f aca="false">VLOOKUP($F149,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Minimum wages</v>
+        <v>Sexual harassment</v>
       </c>
       <c r="H149" s="0" t="str">
         <f aca="false">VLOOKUP($F149,Indicators!$A$1:$G$250,2,0)</f>
@@ -31686,35 +31670,35 @@
       </c>
       <c r="J149" s="0" t="str">
         <f aca="false">VLOOKUP($F149,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>293</v>
+        <v>226</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C150" s="0" t="str">
         <f aca="false">VLOOKUP($A150,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-60</v>
+        <v>S-46</v>
       </c>
       <c r="D150" s="0" t="str">
         <f aca="false">VLOOKUP($A150,Sources!$A$1:$G$250,5,0)</f>
-        <v>Walk Free Foundation</v>
+        <v>Center for Global Workers’ Rights</v>
       </c>
       <c r="E150" s="0" t="str">
         <f aca="false">VLOOKUP($A150,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Slavery Index. Prevalence of Modern Slavery. Prevalence score only.</v>
+        <v>(2017). Labour Rights Indicators. “In Law’ Retrieved from </v>
       </c>
       <c r="F150" s="0" t="str">
         <f aca="false">VLOOKUP($A150,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-18</v>
+        <v>I-42</v>
       </c>
       <c r="G150" s="0" t="str">
         <f aca="false">VLOOKUP($F150,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Prevalence of modern slavery</v>
+        <v>Freedom of association</v>
       </c>
       <c r="H150" s="0" t="str">
         <f aca="false">VLOOKUP($F150,Indicators!$A$1:$G$250,2,0)</f>
@@ -31722,23 +31706,23 @@
       </c>
       <c r="I150" s="0" t="str">
         <f aca="false">VLOOKUP($F150,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J150" s="0" t="str">
         <f aca="false">VLOOKUP($F150,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C151" s="0" t="str">
         <f aca="false">VLOOKUP($A151,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-63</v>
+        <v>S-49</v>
       </c>
       <c r="D151" s="0" t="str">
         <f aca="false">VLOOKUP($A151,Sources!$A$1:$G$250,5,0)</f>
@@ -31746,15 +31730,15 @@
       </c>
       <c r="E151" s="0" t="str">
         <f aca="false">VLOOKUP($A151,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is job protection guaranteed for parents throughout paid parental leave? (Mothers) </v>
+        <v>At what level are minimum wages set per day? </v>
       </c>
       <c r="F151" s="0" t="str">
         <f aca="false">VLOOKUP($A151,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-54</v>
+        <v>I-45</v>
       </c>
       <c r="G151" s="0" t="str">
         <f aca="false">VLOOKUP($F151,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Job protection for maternity leave</v>
+        <v>Minimum wages</v>
       </c>
       <c r="H151" s="0" t="str">
         <f aca="false">VLOOKUP($F151,Indicators!$A$1:$G$250,2,0)</f>
@@ -31762,39 +31746,39 @@
       </c>
       <c r="I151" s="0" t="str">
         <f aca="false">VLOOKUP($F151,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J151" s="0" t="str">
         <f aca="false">VLOOKUP($F151,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C152" s="0" t="str">
         <f aca="false">VLOOKUP($A152,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-64</v>
+        <v>S-60</v>
       </c>
       <c r="D152" s="0" t="str">
         <f aca="false">VLOOKUP($A152,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Policy Analysis Centre</v>
+        <v>Walk Free Foundation</v>
       </c>
       <c r="E152" s="0" t="str">
         <f aca="false">VLOOKUP($A152,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is job protection guaranteed for parents throughout paid parental leave? (Fathers) </v>
+        <v>Global Slavery Index. Prevalence of Modern Slavery. Prevalence score only.</v>
       </c>
       <c r="F152" s="0" t="str">
         <f aca="false">VLOOKUP($A152,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-55</v>
+        <v>I-18</v>
       </c>
       <c r="G152" s="0" t="str">
         <f aca="false">VLOOKUP($F152,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Job protection for paternity leave</v>
+        <v>Prevalence of modern slavery</v>
       </c>
       <c r="H152" s="0" t="str">
         <f aca="false">VLOOKUP($F152,Indicators!$A$1:$G$250,2,0)</f>
@@ -31802,23 +31786,23 @@
       </c>
       <c r="I152" s="0" t="str">
         <f aca="false">VLOOKUP($F152,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Child labour</v>
       </c>
       <c r="J152" s="0" t="str">
         <f aca="false">VLOOKUP($F152,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C153" s="0" t="str">
         <f aca="false">VLOOKUP($A153,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-65</v>
+        <v>S-63</v>
       </c>
       <c r="D153" s="0" t="str">
         <f aca="false">VLOOKUP($A153,Sources!$A$1:$G$250,5,0)</f>
@@ -31826,15 +31810,15 @@
       </c>
       <c r="E153" s="0" t="str">
         <f aca="false">VLOOKUP($A153,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is paid leave available to mothers and fathers of infants (mothers)? </v>
+        <v>Is job protection guaranteed for parents throughout paid parental leave? (Mothers) </v>
       </c>
       <c r="F153" s="0" t="str">
         <f aca="false">VLOOKUP($A153,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-56</v>
+        <v>I-54</v>
       </c>
       <c r="G153" s="0" t="str">
         <f aca="false">VLOOKUP($F153,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Duration of maternity leave</v>
+        <v>Job protection for maternity leave</v>
       </c>
       <c r="H153" s="0" t="str">
         <f aca="false">VLOOKUP($F153,Indicators!$A$1:$G$250,2,0)</f>
@@ -31851,14 +31835,14 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C154" s="0" t="str">
         <f aca="false">VLOOKUP($A154,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-66</v>
+        <v>S-64</v>
       </c>
       <c r="D154" s="0" t="str">
         <f aca="false">VLOOKUP($A154,Sources!$A$1:$G$250,5,0)</f>
@@ -31866,15 +31850,15 @@
       </c>
       <c r="E154" s="0" t="str">
         <f aca="false">VLOOKUP($A154,Sources!$A$1:$G$250,6,0)</f>
-        <v>What is the minimum wage replacement rate of paid leave for mothers?</v>
+        <v>Is job protection guaranteed for parents throughout paid parental leave? (Fathers) </v>
       </c>
       <c r="F154" s="0" t="str">
         <f aca="false">VLOOKUP($A154,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-57</v>
+        <v>I-55</v>
       </c>
       <c r="G154" s="0" t="str">
         <f aca="false">VLOOKUP($F154,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Maternity benefits</v>
+        <v>Job protection for paternity leave</v>
       </c>
       <c r="H154" s="0" t="str">
         <f aca="false">VLOOKUP($F154,Indicators!$A$1:$G$250,2,0)</f>
@@ -31891,14 +31875,14 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C155" s="0" t="str">
         <f aca="false">VLOOKUP($A155,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-67</v>
+        <v>S-65</v>
       </c>
       <c r="D155" s="0" t="str">
         <f aca="false">VLOOKUP($A155,Sources!$A$1:$G$250,5,0)</f>
@@ -31906,15 +31890,15 @@
       </c>
       <c r="E155" s="0" t="str">
         <f aca="false">VLOOKUP($A155,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is paid leave available to mothers and fathers of infants (fathers)? </v>
+        <v>Is paid leave available to mothers and fathers of infants (mothers)? </v>
       </c>
       <c r="F155" s="0" t="str">
         <f aca="false">VLOOKUP($A155,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-58</v>
+        <v>I-56</v>
       </c>
       <c r="G155" s="0" t="str">
         <f aca="false">VLOOKUP($F155,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Duration of paternity leave</v>
+        <v>Duration of maternity leave</v>
       </c>
       <c r="H155" s="0" t="str">
         <f aca="false">VLOOKUP($F155,Indicators!$A$1:$G$250,2,0)</f>
@@ -31931,14 +31915,14 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C156" s="0" t="str">
         <f aca="false">VLOOKUP($A156,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-68</v>
+        <v>S-66</v>
       </c>
       <c r="D156" s="0" t="str">
         <f aca="false">VLOOKUP($A156,Sources!$A$1:$G$250,5,0)</f>
@@ -31946,15 +31930,15 @@
       </c>
       <c r="E156" s="0" t="str">
         <f aca="false">VLOOKUP($A156,Sources!$A$1:$G$250,6,0)</f>
-        <v>Are mothers of infants guaranteed breastfeeding breaks at work? </v>
+        <v>What is the minimum wage replacement rate of paid leave for mothers?</v>
       </c>
       <c r="F156" s="0" t="str">
         <f aca="false">VLOOKUP($A156,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-59</v>
+        <v>I-57</v>
       </c>
       <c r="G156" s="0" t="str">
         <f aca="false">VLOOKUP($F156,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Breastfeeding protections</v>
+        <v>Maternity benefits</v>
       </c>
       <c r="H156" s="0" t="str">
         <f aca="false">VLOOKUP($F156,Indicators!$A$1:$G$250,2,0)</f>
@@ -31971,38 +31955,38 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C157" s="0" t="str">
         <f aca="false">VLOOKUP($A157,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-87</v>
+        <v>S-67</v>
       </c>
       <c r="D157" s="0" t="str">
         <f aca="false">VLOOKUP($A157,Sources!$A$1:$G$250,5,0)</f>
-        <v>DLA Piper</v>
+        <v>World Policy Analysis Centre</v>
       </c>
       <c r="E157" s="0" t="str">
         <f aca="false">VLOOKUP($A157,Sources!$A$1:$G$250,6,0)</f>
-        <v>Advertising and Marketing to Children Global Report: </v>
+        <v>Is paid leave available to mothers and fathers of infants (fathers)? </v>
       </c>
       <c r="F157" s="0" t="str">
         <f aca="false">VLOOKUP($A157,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-76</v>
+        <v>I-58</v>
       </c>
       <c r="G157" s="0" t="str">
         <f aca="false">VLOOKUP($F157,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Regulation on marketing to children</v>
+        <v>Duration of paternity leave</v>
       </c>
       <c r="H157" s="0" t="str">
         <f aca="false">VLOOKUP($F157,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I157" s="0" t="str">
         <f aca="false">VLOOKUP($F157,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J157" s="0" t="str">
         <f aca="false">VLOOKUP($F157,Indicators!$A$1:$G$250,4,0)</f>
@@ -32011,38 +31995,38 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>413</v>
+        <v>336</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C158" s="0" t="str">
         <f aca="false">VLOOKUP($A158,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-89</v>
+        <v>S-68</v>
       </c>
       <c r="D158" s="0" t="str">
         <f aca="false">VLOOKUP($A158,Sources!$A$1:$G$250,5,0)</f>
-        <v>FCTC</v>
+        <v>World Policy Analysis Centre</v>
       </c>
       <c r="E158" s="0" t="str">
         <f aca="false">VLOOKUP($A158,Sources!$A$1:$G$250,6,0)</f>
-        <v>Framework Convention on Tobacco Control, Article 16: Supply Reduction Measures, C321a Sales of tobacco products to minors prohibited from age: </v>
+        <v>Are mothers of infants guaranteed breastfeeding breaks at work? </v>
       </c>
       <c r="F158" s="0" t="str">
         <f aca="false">VLOOKUP($A158,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-78</v>
+        <v>I-59</v>
       </c>
       <c r="G158" s="0" t="str">
         <f aca="false">VLOOKUP($F158,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Age limits for purchasing tobacco</v>
+        <v>Breastfeeding protections</v>
       </c>
       <c r="H158" s="0" t="str">
         <f aca="false">VLOOKUP($F158,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I158" s="0" t="str">
         <f aca="false">VLOOKUP($F158,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J158" s="0" t="str">
         <f aca="false">VLOOKUP($F158,Indicators!$A$1:$G$250,4,0)</f>
@@ -32051,30 +32035,30 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C159" s="0" t="str">
         <f aca="false">VLOOKUP($A159,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-117</v>
+        <v>S-87</v>
       </c>
       <c r="D159" s="0" t="str">
         <f aca="false">VLOOKUP($A159,Sources!$A$1:$G$250,5,0)</f>
-        <v>ICMEC</v>
+        <v>DLA Piper</v>
       </c>
       <c r="E159" s="0" t="str">
         <f aca="false">VLOOKUP($A159,Sources!$A$1:$G$250,6,0)</f>
-        <v>Child Pornography: Model Legislation and Global Review (9th edition): </v>
+        <v>Advertising and Marketing to Children Global Report: </v>
       </c>
       <c r="F159" s="0" t="str">
         <f aca="false">VLOOKUP($A159,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-98</v>
+        <v>I-76</v>
       </c>
       <c r="G159" s="0" t="str">
         <f aca="false">VLOOKUP($F159,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Legislation prohibiting CSAM</v>
+        <v>Regulation on marketing to children</v>
       </c>
       <c r="H159" s="0" t="str">
         <f aca="false">VLOOKUP($F159,Indicators!$A$1:$G$250,2,0)</f>
@@ -32082,7 +32066,7 @@
       </c>
       <c r="I159" s="0" t="str">
         <f aca="false">VLOOKUP($F159,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J159" s="0" t="str">
         <f aca="false">VLOOKUP($F159,Indicators!$A$1:$G$250,4,0)</f>
@@ -32091,30 +32075,30 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>522</v>
+        <v>413</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C160" s="0" t="str">
         <f aca="false">VLOOKUP($A160,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-118</v>
+        <v>S-89</v>
       </c>
       <c r="D160" s="0" t="str">
         <f aca="false">VLOOKUP($A160,Sources!$A$1:$G$250,5,0)</f>
-        <v>ICMEC</v>
+        <v>FCTC</v>
       </c>
       <c r="E160" s="0" t="str">
         <f aca="false">VLOOKUP($A160,Sources!$A$1:$G$250,6,0)</f>
-        <v>Child Pornography: Model Legislation and Global Review (9th edition): </v>
+        <v>Framework Convention on Tobacco Control, Article 16: Supply Reduction Measures, C321a Sales of tobacco products to minors prohibited from age: </v>
       </c>
       <c r="F160" s="0" t="str">
         <f aca="false">VLOOKUP($A160,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-99</v>
+        <v>I-78</v>
       </c>
       <c r="G160" s="0" t="str">
         <f aca="false">VLOOKUP($F160,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Legislation prohibiting technology facilitated CSAM offences</v>
+        <v>Age limits for purchasing tobacco</v>
       </c>
       <c r="H160" s="0" t="str">
         <f aca="false">VLOOKUP($F160,Indicators!$A$1:$G$250,2,0)</f>
@@ -32122,7 +32106,7 @@
       </c>
       <c r="I160" s="0" t="str">
         <f aca="false">VLOOKUP($F160,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J160" s="0" t="str">
         <f aca="false">VLOOKUP($F160,Indicators!$A$1:$G$250,4,0)</f>
@@ -32131,14 +32115,14 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C161" s="0" t="str">
         <f aca="false">VLOOKUP($A161,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-119</v>
+        <v>S-117</v>
       </c>
       <c r="D161" s="0" t="str">
         <f aca="false">VLOOKUP($A161,Sources!$A$1:$G$250,5,0)</f>
@@ -32150,11 +32134,11 @@
       </c>
       <c r="F161" s="0" t="str">
         <f aca="false">VLOOKUP($A161,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-100</v>
+        <v>I-98</v>
       </c>
       <c r="G161" s="0" t="str">
         <f aca="false">VLOOKUP($F161,Indicators!$A$1:$G$250,5,0)</f>
-        <v>ISP Reporting of CSAM</v>
+        <v>Legislation prohibiting CSAM</v>
       </c>
       <c r="H161" s="0" t="str">
         <f aca="false">VLOOKUP($F161,Indicators!$A$1:$G$250,2,0)</f>
@@ -32171,70 +32155,70 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C162" s="0" t="str">
         <f aca="false">VLOOKUP($A162,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-128</v>
+        <v>S-118</v>
       </c>
       <c r="D162" s="0" t="str">
         <f aca="false">VLOOKUP($A162,Sources!$A$1:$G$250,5,0)</f>
-        <v>KidsRights Index Child Rights: Environment Score</v>
-      </c>
-      <c r="E162" s="0" t="n">
+        <v>ICMEC</v>
+      </c>
+      <c r="E162" s="0" t="str">
         <f aca="false">VLOOKUP($A162,Sources!$A$1:$G$250,6,0)</f>
-        <v>0</v>
+        <v>Child Pornography: Model Legislation and Global Review (9th edition): </v>
       </c>
       <c r="F162" s="0" t="str">
         <f aca="false">VLOOKUP($A162,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-63</v>
+        <v>I-99</v>
       </c>
       <c r="G162" s="0" t="str">
         <f aca="false">VLOOKUP($F162,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Enabling environment for child rights fulfilment</v>
+        <v>Legislation prohibiting technology facilitated CSAM offences</v>
       </c>
       <c r="H162" s="0" t="str">
         <f aca="false">VLOOKUP($F162,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I162" s="0" t="str">
         <f aca="false">VLOOKUP($F162,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J162" s="0" t="str">
         <f aca="false">VLOOKUP($F162,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>575</v>
+        <v>525</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C163" s="0" t="str">
         <f aca="false">VLOOKUP($A163,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-128</v>
+        <v>S-119</v>
       </c>
       <c r="D163" s="0" t="str">
         <f aca="false">VLOOKUP($A163,Sources!$A$1:$G$250,5,0)</f>
-        <v>KidsRights Index Child Rights: Environment Score</v>
-      </c>
-      <c r="E163" s="0" t="n">
+        <v>ICMEC</v>
+      </c>
+      <c r="E163" s="0" t="str">
         <f aca="false">VLOOKUP($A163,Sources!$A$1:$G$250,6,0)</f>
-        <v>0</v>
+        <v>Child Pornography: Model Legislation and Global Review (9th edition): </v>
       </c>
       <c r="F163" s="0" t="str">
         <f aca="false">VLOOKUP($A163,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-109</v>
+        <v>I-100</v>
       </c>
       <c r="G163" s="0" t="str">
         <f aca="false">VLOOKUP($F163,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Enabling environment for child rights fulfilment</v>
+        <v>ISP Reporting of CSAM</v>
       </c>
       <c r="H163" s="0" t="str">
         <f aca="false">VLOOKUP($F163,Indicators!$A$1:$G$250,2,0)</f>
@@ -32246,12 +32230,12 @@
       </c>
       <c r="J163" s="0" t="str">
         <f aca="false">VLOOKUP($F163,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>1759</v>
@@ -32270,7 +32254,7 @@
       </c>
       <c r="F164" s="0" t="str">
         <f aca="false">VLOOKUP($A164,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-179</v>
+        <v>I-63</v>
       </c>
       <c r="G164" s="0" t="str">
         <f aca="false">VLOOKUP($F164,Indicators!$A$1:$G$250,5,0)</f>
@@ -32278,11 +32262,11 @@
       </c>
       <c r="H164" s="0" t="str">
         <f aca="false">VLOOKUP($F164,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Workplace</v>
       </c>
       <c r="I164" s="0" t="str">
         <f aca="false">VLOOKUP($F164,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J164" s="0" t="str">
         <f aca="false">VLOOKUP($F164,Indicators!$A$1:$G$250,4,0)</f>
@@ -32291,30 +32275,30 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C165" s="0" t="str">
         <f aca="false">VLOOKUP($A165,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-135</v>
+        <v>S-128</v>
       </c>
       <c r="D165" s="0" t="str">
         <f aca="false">VLOOKUP($A165,Sources!$A$1:$G$250,5,0)</f>
-        <v>WHO</v>
-      </c>
-      <c r="E165" s="0" t="str">
+        <v>KidsRights Index Child Rights: Environment Score</v>
+      </c>
+      <c r="E165" s="0" t="n">
         <f aca="false">VLOOKUP($A165,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Health Observatory, Existence of operational policy/strategy/action plan for tobacco: </v>
+        <v>0</v>
       </c>
       <c r="F165" s="0" t="str">
         <f aca="false">VLOOKUP($A165,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-115</v>
+        <v>I-109</v>
       </c>
       <c r="G165" s="0" t="str">
         <f aca="false">VLOOKUP($F165,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Operational policy on tobacco use</v>
+        <v>Enabling environment for child rights fulfilment</v>
       </c>
       <c r="H165" s="0" t="str">
         <f aca="false">VLOOKUP($F165,Indicators!$A$1:$G$250,2,0)</f>
@@ -32322,7 +32306,7 @@
       </c>
       <c r="I165" s="0" t="str">
         <f aca="false">VLOOKUP($F165,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J165" s="0" t="str">
         <f aca="false">VLOOKUP($F165,Indicators!$A$1:$G$250,4,0)</f>
@@ -32331,30 +32315,30 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>667</v>
+        <v>577</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C166" s="0" t="str">
         <f aca="false">VLOOKUP($A166,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-147</v>
+        <v>S-128</v>
       </c>
       <c r="D166" s="0" t="str">
         <f aca="false">VLOOKUP($A166,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNEP</v>
-      </c>
-      <c r="E166" s="0" t="str">
+        <v>KidsRights Index Child Rights: Environment Score</v>
+      </c>
+      <c r="E166" s="0" t="n">
         <f aca="false">VLOOKUP($A166,Sources!$A$1:$G$250,6,0)</f>
-        <v>Environmental Rule of Law: First Global Report (2019): </v>
+        <v>0</v>
       </c>
       <c r="F166" s="0" t="str">
         <f aca="false">VLOOKUP($A166,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-127</v>
+        <v>I-179</v>
       </c>
       <c r="G166" s="0" t="str">
         <f aca="false">VLOOKUP($F166,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Environmental protection</v>
+        <v>Enabling environment for child rights fulfilment</v>
       </c>
       <c r="H166" s="0" t="str">
         <f aca="false">VLOOKUP($F166,Indicators!$A$1:$G$250,2,0)</f>
@@ -32362,63 +32346,63 @@
       </c>
       <c r="I166" s="0" t="str">
         <f aca="false">VLOOKUP($F166,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Resource use and damage to the environment</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J166" s="0" t="str">
         <f aca="false">VLOOKUP($F166,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>680</v>
+        <v>611</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C167" s="0" t="str">
         <f aca="false">VLOOKUP($A167,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-148</v>
+        <v>S-135</v>
       </c>
       <c r="D167" s="0" t="str">
         <f aca="false">VLOOKUP($A167,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNEP</v>
+        <v>WHO</v>
       </c>
       <c r="E167" s="0" t="str">
         <f aca="false">VLOOKUP($A167,Sources!$A$1:$G$250,6,0)</f>
-        <v>Environmental Rule of Law: First Global Report (2019): </v>
+        <v>Global Health Observatory, Existence of operational policy/strategy/action plan for tobacco: </v>
       </c>
       <c r="F167" s="0" t="str">
         <f aca="false">VLOOKUP($A167,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-128</v>
+        <v>I-115</v>
       </c>
       <c r="G167" s="0" t="str">
         <f aca="false">VLOOKUP($F167,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Pollutant register</v>
+        <v>Operational policy on tobacco use</v>
       </c>
       <c r="H167" s="0" t="str">
         <f aca="false">VLOOKUP($F167,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I167" s="0" t="str">
         <f aca="false">VLOOKUP($F167,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Resource use and damage to the environment</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J167" s="0" t="str">
         <f aca="false">VLOOKUP($F167,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C168" s="0" t="str">
         <f aca="false">VLOOKUP($A168,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-149</v>
+        <v>S-147</v>
       </c>
       <c r="D168" s="0" t="str">
         <f aca="false">VLOOKUP($A168,Sources!$A$1:$G$250,5,0)</f>
@@ -32430,11 +32414,11 @@
       </c>
       <c r="F168" s="0" t="str">
         <f aca="false">VLOOKUP($A168,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-129</v>
+        <v>I-127</v>
       </c>
       <c r="G168" s="0" t="str">
         <f aca="false">VLOOKUP($F168,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Environmental impact assessment</v>
+        <v>Environmental protection</v>
       </c>
       <c r="H168" s="0" t="str">
         <f aca="false">VLOOKUP($F168,Indicators!$A$1:$G$250,2,0)</f>
@@ -32451,14 +32435,14 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C169" s="0" t="str">
         <f aca="false">VLOOKUP($A169,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-150</v>
+        <v>S-148</v>
       </c>
       <c r="D169" s="0" t="str">
         <f aca="false">VLOOKUP($A169,Sources!$A$1:$G$250,5,0)</f>
@@ -32470,11 +32454,11 @@
       </c>
       <c r="F169" s="0" t="str">
         <f aca="false">VLOOKUP($A169,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-130</v>
+        <v>I-128</v>
       </c>
       <c r="G169" s="0" t="str">
         <f aca="false">VLOOKUP($F169,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Access to information</v>
+        <v>Pollutant register</v>
       </c>
       <c r="H169" s="0" t="str">
         <f aca="false">VLOOKUP($F169,Indicators!$A$1:$G$250,2,0)</f>
@@ -32491,14 +32475,14 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C170" s="0" t="str">
         <f aca="false">VLOOKUP($A170,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-151</v>
+        <v>S-149</v>
       </c>
       <c r="D170" s="0" t="str">
         <f aca="false">VLOOKUP($A170,Sources!$A$1:$G$250,5,0)</f>
@@ -32510,11 +32494,11 @@
       </c>
       <c r="F170" s="0" t="str">
         <f aca="false">VLOOKUP($A170,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-131</v>
+        <v>I-129</v>
       </c>
       <c r="G170" s="0" t="str">
         <f aca="false">VLOOKUP($F170,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Participation</v>
+        <v>Environmental impact assessment</v>
       </c>
       <c r="H170" s="0" t="str">
         <f aca="false">VLOOKUP($F170,Indicators!$A$1:$G$250,2,0)</f>
@@ -32531,14 +32515,14 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C171" s="0" t="str">
         <f aca="false">VLOOKUP($A171,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-152</v>
+        <v>S-150</v>
       </c>
       <c r="D171" s="0" t="str">
         <f aca="false">VLOOKUP($A171,Sources!$A$1:$G$250,5,0)</f>
@@ -32550,11 +32534,11 @@
       </c>
       <c r="F171" s="0" t="str">
         <f aca="false">VLOOKUP($A171,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-132</v>
+        <v>I-130</v>
       </c>
       <c r="G171" s="0" t="str">
         <f aca="false">VLOOKUP($F171,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Right to enforcement and compensation</v>
+        <v>Access to information</v>
       </c>
       <c r="H171" s="0" t="str">
         <f aca="false">VLOOKUP($F171,Indicators!$A$1:$G$250,2,0)</f>
@@ -32571,30 +32555,30 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>736</v>
+        <v>693</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C172" s="0" t="str">
         <f aca="false">VLOOKUP($A172,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-159</v>
+        <v>S-151</v>
       </c>
       <c r="D172" s="0" t="str">
         <f aca="false">VLOOKUP($A172,Sources!$A$1:$G$250,5,0)</f>
-        <v>Climate Watch</v>
+        <v>UNEP</v>
       </c>
       <c r="E172" s="0" t="str">
         <f aca="false">VLOOKUP($A172,Sources!$A$1:$G$250,6,0)</f>
-        <v>ghg emissions per capita (CAIT)</v>
+        <v>Environmental Rule of Law: First Global Report (2019): </v>
       </c>
       <c r="F172" s="0" t="str">
         <f aca="false">VLOOKUP($A172,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-139</v>
+        <v>I-131</v>
       </c>
       <c r="G172" s="0" t="str">
         <f aca="false">VLOOKUP($F172,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Greenhouse gas emissions</v>
+        <v>Participation</v>
       </c>
       <c r="H172" s="0" t="str">
         <f aca="false">VLOOKUP($F172,Indicators!$A$1:$G$250,2,0)</f>
@@ -32606,19 +32590,19 @@
       </c>
       <c r="J172" s="0" t="str">
         <f aca="false">VLOOKUP($F172,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>768</v>
+        <v>697</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C173" s="0" t="str">
         <f aca="false">VLOOKUP($A173,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-165</v>
+        <v>S-152</v>
       </c>
       <c r="D173" s="0" t="str">
         <f aca="false">VLOOKUP($A173,Sources!$A$1:$G$250,5,0)</f>
@@ -32630,11 +32614,11 @@
       </c>
       <c r="F173" s="0" t="str">
         <f aca="false">VLOOKUP($A173,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-145</v>
+        <v>I-132</v>
       </c>
       <c r="G173" s="0" t="str">
         <f aca="false">VLOOKUP($F173,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Indigenous land tenure</v>
+        <v>Right to enforcement and compensation</v>
       </c>
       <c r="H173" s="0" t="str">
         <f aca="false">VLOOKUP($F173,Indicators!$A$1:$G$250,2,0)</f>
@@ -32642,7 +32626,7 @@
       </c>
       <c r="I173" s="0" t="str">
         <f aca="false">VLOOKUP($F173,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Land rights</v>
+        <v>Resource use and damage to the environment</v>
       </c>
       <c r="J173" s="0" t="str">
         <f aca="false">VLOOKUP($F173,Indicators!$A$1:$G$250,4,0)</f>
@@ -32651,30 +32635,30 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>777</v>
+        <v>736</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C174" s="0" t="str">
         <f aca="false">VLOOKUP($A174,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-167</v>
+        <v>S-159</v>
       </c>
       <c r="D174" s="0" t="str">
         <f aca="false">VLOOKUP($A174,Sources!$A$1:$G$250,5,0)</f>
-        <v>Landmark</v>
+        <v>Climate Watch</v>
       </c>
       <c r="E174" s="0" t="str">
         <f aca="false">VLOOKUP($A174,Sources!$A$1:$G$250,6,0)</f>
-        <v>Percent of indigenous AND community lands ACKNOWLEDGED BY GOVT (FORMALLY RECOGNIZED) in the country, actual number from source</v>
+        <v>ghg emissions per capita (CAIT)</v>
       </c>
       <c r="F174" s="0" t="str">
         <f aca="false">VLOOKUP($A174,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-148</v>
+        <v>I-139</v>
       </c>
       <c r="G174" s="0" t="str">
         <f aca="false">VLOOKUP($F174,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Proportion of indigenous and community lands formally recognised</v>
+        <v>Greenhouse gas emissions</v>
       </c>
       <c r="H174" s="0" t="str">
         <f aca="false">VLOOKUP($F174,Indicators!$A$1:$G$250,2,0)</f>
@@ -32682,7 +32666,7 @@
       </c>
       <c r="I174" s="0" t="str">
         <f aca="false">VLOOKUP($F174,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Land rights</v>
+        <v>Resource use and damage to the environment</v>
       </c>
       <c r="J174" s="0" t="str">
         <f aca="false">VLOOKUP($F174,Indicators!$A$1:$G$250,4,0)</f>
@@ -32691,30 +32675,30 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>910</v>
+        <v>768</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C175" s="0" t="str">
         <f aca="false">VLOOKUP($A175,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-194</v>
+        <v>S-165</v>
       </c>
       <c r="D175" s="0" t="str">
         <f aca="false">VLOOKUP($A175,Sources!$A$1:$G$250,5,0)</f>
-        <v>Kids Rights Index</v>
+        <v>UNEP</v>
       </c>
       <c r="E175" s="0" t="str">
         <f aca="false">VLOOKUP($A175,Sources!$A$1:$G$250,6,0)</f>
-        <v>KidsRights Index 2019 Child Rights: Education Score</v>
+        <v>Environmental Rule of Law: First Global Report (2019): </v>
       </c>
       <c r="F175" s="0" t="str">
         <f aca="false">VLOOKUP($A175,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-175</v>
+        <v>I-145</v>
       </c>
       <c r="G175" s="0" t="str">
         <f aca="false">VLOOKUP($F175,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Right to education fulfilment</v>
+        <v>Indigenous land tenure</v>
       </c>
       <c r="H175" s="0" t="str">
         <f aca="false">VLOOKUP($F175,Indicators!$A$1:$G$250,2,0)</f>
@@ -32722,39 +32706,39 @@
       </c>
       <c r="I175" s="0" t="str">
         <f aca="false">VLOOKUP($F175,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Land rights</v>
       </c>
       <c r="J175" s="0" t="str">
         <f aca="false">VLOOKUP($F175,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>916</v>
+        <v>777</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C176" s="0" t="str">
         <f aca="false">VLOOKUP($A176,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-195</v>
+        <v>S-167</v>
       </c>
       <c r="D176" s="0" t="str">
         <f aca="false">VLOOKUP($A176,Sources!$A$1:$G$250,5,0)</f>
-        <v>Kids Rights Index</v>
+        <v>Landmark</v>
       </c>
       <c r="E176" s="0" t="str">
         <f aca="false">VLOOKUP($A176,Sources!$A$1:$G$250,6,0)</f>
-        <v>KidsRights Index 2019 Child Rights: Health Score</v>
+        <v>Percent of indigenous AND community lands ACKNOWLEDGED BY GOVT (FORMALLY RECOGNIZED) in the country, actual number from source</v>
       </c>
       <c r="F176" s="0" t="str">
         <f aca="false">VLOOKUP($A176,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-176</v>
+        <v>I-148</v>
       </c>
       <c r="G176" s="0" t="str">
         <f aca="false">VLOOKUP($F176,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Right to health fulfilment</v>
+        <v>Proportion of indigenous and community lands formally recognised</v>
       </c>
       <c r="H176" s="0" t="str">
         <f aca="false">VLOOKUP($F176,Indicators!$A$1:$G$250,2,0)</f>
@@ -32762,7 +32746,7 @@
       </c>
       <c r="I176" s="0" t="str">
         <f aca="false">VLOOKUP($F176,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Fulfillment of children’s rights</v>
+        <v>Land rights</v>
       </c>
       <c r="J176" s="0" t="str">
         <f aca="false">VLOOKUP($F176,Indicators!$A$1:$G$250,4,0)</f>
@@ -32771,14 +32755,14 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="B177" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C177" s="0" t="str">
         <f aca="false">VLOOKUP($A177,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-196</v>
+        <v>S-194</v>
       </c>
       <c r="D177" s="0" t="str">
         <f aca="false">VLOOKUP($A177,Sources!$A$1:$G$250,5,0)</f>
@@ -32786,15 +32770,15 @@
       </c>
       <c r="E177" s="0" t="str">
         <f aca="false">VLOOKUP($A177,Sources!$A$1:$G$250,6,0)</f>
-        <v>KidsRights Index 2019 Child Rights: Protection Score</v>
+        <v>KidsRights Index 2019 Child Rights: Education Score</v>
       </c>
       <c r="F177" s="0" t="str">
         <f aca="false">VLOOKUP($A177,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-177</v>
+        <v>I-175</v>
       </c>
       <c r="G177" s="0" t="str">
         <f aca="false">VLOOKUP($F177,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Right to protection fulfilment</v>
+        <v>Right to education fulfilment</v>
       </c>
       <c r="H177" s="0" t="str">
         <f aca="false">VLOOKUP($F177,Indicators!$A$1:$G$250,2,0)</f>
@@ -32811,14 +32795,14 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C178" s="0" t="str">
         <f aca="false">VLOOKUP($A178,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-197</v>
+        <v>S-195</v>
       </c>
       <c r="D178" s="0" t="str">
         <f aca="false">VLOOKUP($A178,Sources!$A$1:$G$250,5,0)</f>
@@ -32826,15 +32810,15 @@
       </c>
       <c r="E178" s="0" t="str">
         <f aca="false">VLOOKUP($A178,Sources!$A$1:$G$250,6,0)</f>
-        <v>KidsRights Index 2019 Child Rights: Life Score</v>
+        <v>KidsRights Index 2019 Child Rights: Health Score</v>
       </c>
       <c r="F178" s="0" t="str">
         <f aca="false">VLOOKUP($A178,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-178</v>
+        <v>I-176</v>
       </c>
       <c r="G178" s="0" t="str">
         <f aca="false">VLOOKUP($F178,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Right to life fulfilment</v>
+        <v>Right to health fulfilment</v>
       </c>
       <c r="H178" s="0" t="str">
         <f aca="false">VLOOKUP($F178,Indicators!$A$1:$G$250,2,0)</f>
@@ -32851,118 +32835,118 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>1060</v>
+        <v>920</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C179" s="0" t="str">
         <f aca="false">VLOOKUP($A179,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-231</v>
+        <v>S-196</v>
       </c>
       <c r="D179" s="0" t="str">
         <f aca="false">VLOOKUP($A179,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Policy Analysis Centre</v>
+        <v>Kids Rights Index</v>
       </c>
       <c r="E179" s="0" t="str">
         <f aca="false">VLOOKUP($A179,Sources!$A$1:$G$250,6,0)</f>
-        <v>Are workers guaranteed a weekly day of rest?</v>
+        <v>KidsRights Index 2019 Child Rights: Protection Score</v>
       </c>
       <c r="F179" s="0" t="str">
         <f aca="false">VLOOKUP($A179,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-218</v>
+        <v>I-177</v>
       </c>
       <c r="G179" s="0" t="str">
         <f aca="false">VLOOKUP($F179,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Weekly rest</v>
+        <v>Right to protection fulfilment</v>
       </c>
       <c r="H179" s="0" t="str">
         <f aca="false">VLOOKUP($F179,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I179" s="0" t="str">
         <f aca="false">VLOOKUP($F179,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J179" s="0" t="str">
         <f aca="false">VLOOKUP($F179,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>1066</v>
+        <v>924</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C180" s="0" t="str">
         <f aca="false">VLOOKUP($A180,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-232</v>
+        <v>S-197</v>
       </c>
       <c r="D180" s="0" t="str">
         <f aca="false">VLOOKUP($A180,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Policy Analysis Centre</v>
+        <v>Kids Rights Index</v>
       </c>
       <c r="E180" s="0" t="str">
         <f aca="false">VLOOKUP($A180,Sources!$A$1:$G$250,6,0)</f>
-        <v>Is there a wage premium for night work?</v>
+        <v>KidsRights Index 2019 Child Rights: Life Score</v>
       </c>
       <c r="F180" s="0" t="str">
         <f aca="false">VLOOKUP($A180,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-219</v>
+        <v>I-178</v>
       </c>
       <c r="G180" s="0" t="str">
         <f aca="false">VLOOKUP($F180,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Wage premium for nightwork</v>
+        <v>Right to life fulfilment</v>
       </c>
       <c r="H180" s="0" t="str">
         <f aca="false">VLOOKUP($F180,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I180" s="0" t="str">
         <f aca="false">VLOOKUP($F180,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Fulfillment of children’s rights</v>
       </c>
       <c r="J180" s="0" t="str">
         <f aca="false">VLOOKUP($F180,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C181" s="0" t="str">
         <f aca="false">VLOOKUP($A181,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-233</v>
+        <v>S-231</v>
       </c>
       <c r="D181" s="0" t="str">
         <f aca="false">VLOOKUP($A181,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNEP</v>
+        <v>World Policy Analysis Centre</v>
       </c>
       <c r="E181" s="0" t="str">
         <f aca="false">VLOOKUP($A181,Sources!$A$1:$G$250,6,0)</f>
-        <v>Environmental Rule of Law: First Global Report (2019): Communit and land tenure</v>
+        <v>Are workers guaranteed a weekly day of rest?</v>
       </c>
       <c r="F181" s="0" t="str">
         <f aca="false">VLOOKUP($A181,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-146</v>
+        <v>I-218</v>
       </c>
       <c r="G181" s="0" t="str">
         <f aca="false">VLOOKUP($F181,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Community land tenure</v>
+        <v>Weekly rest</v>
       </c>
       <c r="H181" s="0" t="str">
         <f aca="false">VLOOKUP($F181,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Workplace</v>
       </c>
       <c r="I181" s="0" t="str">
         <f aca="false">VLOOKUP($F181,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Land rights</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J181" s="0" t="str">
         <f aca="false">VLOOKUP($F181,Indicators!$A$1:$G$250,4,0)</f>
@@ -32971,38 +32955,38 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C182" s="0" t="str">
         <f aca="false">VLOOKUP($A182,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-235</v>
+        <v>S-232</v>
       </c>
       <c r="D182" s="0" t="str">
         <f aca="false">VLOOKUP($A182,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNICEF research</v>
+        <v>World Policy Analysis Centre</v>
       </c>
       <c r="E182" s="0" t="str">
         <f aca="false">VLOOKUP($A182,Sources!$A$1:$G$250,6,0)</f>
-        <v>Marketing and advertising self regulation (sources: DLA Piper and ICAS)</v>
+        <v>Is there a wage premium for night work?</v>
       </c>
       <c r="F182" s="0" t="str">
         <f aca="false">VLOOKUP($A182,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-75</v>
+        <v>I-219</v>
       </c>
       <c r="G182" s="0" t="str">
         <f aca="false">VLOOKUP($F182,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Marketing and advertising self-regulation</v>
+        <v>Wage premium for nightwork</v>
       </c>
       <c r="H182" s="0" t="str">
         <f aca="false">VLOOKUP($F182,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I182" s="0" t="str">
         <f aca="false">VLOOKUP($F182,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Marketing and Advertising</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J182" s="0" t="str">
         <f aca="false">VLOOKUP($F182,Indicators!$A$1:$G$250,4,0)</f>
@@ -33011,38 +32995,38 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>77</v>
+        <v>1072</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C183" s="0" t="str">
         <f aca="false">VLOOKUP($A183,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-12</v>
+        <v>S-233</v>
       </c>
       <c r="D183" s="0" t="str">
         <f aca="false">VLOOKUP($A183,Sources!$A$1:$G$250,5,0)</f>
-        <v>UNODC</v>
+        <v>UNEP</v>
       </c>
       <c r="E183" s="0" t="str">
         <f aca="false">VLOOKUP($A183,Sources!$A$1:$G$250,6,0)</f>
-        <v>2018 Global Report on Trafficking in Persons. See Country Profiles at bottom of the web page. See Excel created by research.</v>
+        <v>Environmental Rule of Law: First Global Report (2019): Communit and land tenure</v>
       </c>
       <c r="F183" s="0" t="str">
         <f aca="false">VLOOKUP($A183,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-12</v>
+        <v>I-146</v>
       </c>
       <c r="G183" s="0" t="str">
         <f aca="false">VLOOKUP($F183,Indicators!$A$1:$G$250,5,0)</f>
-        <v>All forms of trafficking in persons</v>
+        <v>Community land tenure</v>
       </c>
       <c r="H183" s="0" t="str">
         <f aca="false">VLOOKUP($F183,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I183" s="0" t="str">
         <f aca="false">VLOOKUP($F183,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Land rights</v>
       </c>
       <c r="J183" s="0" t="str">
         <f aca="false">VLOOKUP($F183,Indicators!$A$1:$G$250,4,0)</f>
@@ -33051,70 +33035,70 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>239</v>
+        <v>1083</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C184" s="0" t="str">
         <f aca="false">VLOOKUP($A184,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-50</v>
+        <v>S-235</v>
       </c>
       <c r="D184" s="0" t="str">
         <f aca="false">VLOOKUP($A184,Sources!$A$1:$G$250,5,0)</f>
-        <v>ILO</v>
+        <v>UNICEF research</v>
       </c>
       <c r="E184" s="0" t="str">
         <f aca="false">VLOOKUP($A184,Sources!$A$1:$G$250,6,0)</f>
-        <v>Gender wge gap by occupation (%) - annual </v>
+        <v>Marketing and advertising self regulation (sources: DLA Piper and ICAS)</v>
       </c>
       <c r="F184" s="0" t="str">
         <f aca="false">VLOOKUP($A184,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-46</v>
+        <v>I-75</v>
       </c>
       <c r="G184" s="0" t="str">
         <f aca="false">VLOOKUP($F184,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Gender pay gap</v>
+        <v>Marketing and advertising self-regulation</v>
       </c>
       <c r="H184" s="0" t="str">
         <f aca="false">VLOOKUP($F184,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I184" s="0" t="str">
         <f aca="false">VLOOKUP($F184,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Marketing and Advertising</v>
       </c>
       <c r="J184" s="0" t="str">
         <f aca="false">VLOOKUP($F184,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C185" s="0" t="str">
         <f aca="false">VLOOKUP($A185,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-51</v>
+        <v>S-12</v>
       </c>
       <c r="D185" s="0" t="str">
         <f aca="false">VLOOKUP($A185,Sources!$A$1:$G$250,5,0)</f>
-        <v>ILO</v>
+        <v>UNODC</v>
       </c>
       <c r="E185" s="0" t="str">
         <f aca="false">VLOOKUP($A185,Sources!$A$1:$G$250,6,0)</f>
-        <v>Mean weekly hours actually worked per employed person: </v>
+        <v>2018 Global Report on Trafficking in Persons. See Country Profiles at bottom of the web page. See Excel created by research.</v>
       </c>
       <c r="F185" s="0" t="str">
         <f aca="false">VLOOKUP($A185,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-47</v>
+        <v>I-12</v>
       </c>
       <c r="G185" s="0" t="str">
         <f aca="false">VLOOKUP($F185,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Average working hours</v>
+        <v>All forms of trafficking in persons</v>
       </c>
       <c r="H185" s="0" t="str">
         <f aca="false">VLOOKUP($F185,Indicators!$A$1:$G$250,2,0)</f>
@@ -33122,23 +33106,23 @@
       </c>
       <c r="I185" s="0" t="str">
         <f aca="false">VLOOKUP($F185,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Child labour</v>
       </c>
       <c r="J185" s="0" t="str">
         <f aca="false">VLOOKUP($F185,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C186" s="0" t="str">
         <f aca="false">VLOOKUP($A186,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-53</v>
+        <v>S-50</v>
       </c>
       <c r="D186" s="0" t="str">
         <f aca="false">VLOOKUP($A186,Sources!$A$1:$G$250,5,0)</f>
@@ -33146,15 +33130,15 @@
       </c>
       <c r="E186" s="0" t="str">
         <f aca="false">VLOOKUP($A186,Sources!$A$1:$G$250,6,0)</f>
-        <v>Female share of employment in senior and middle management (%)</v>
+        <v>Gender wge gap by occupation (%) - annual </v>
       </c>
       <c r="F186" s="0" t="str">
         <f aca="false">VLOOKUP($A186,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-49</v>
+        <v>I-46</v>
       </c>
       <c r="G186" s="0" t="str">
         <f aca="false">VLOOKUP($F186,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Women in management</v>
+        <v>Gender pay gap</v>
       </c>
       <c r="H186" s="0" t="str">
         <f aca="false">VLOOKUP($F186,Indicators!$A$1:$G$250,2,0)</f>
@@ -33171,14 +33155,14 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>951</v>
+        <v>246</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C187" s="0" t="str">
         <f aca="false">VLOOKUP($A187,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-205</v>
+        <v>S-51</v>
       </c>
       <c r="D187" s="0" t="str">
         <f aca="false">VLOOKUP($A187,Sources!$A$1:$G$250,5,0)</f>
@@ -33186,15 +33170,15 @@
       </c>
       <c r="E187" s="0" t="str">
         <f aca="false">VLOOKUP($A187,Sources!$A$1:$G$250,6,0)</f>
-        <v>Trade Union density rate % Annual</v>
+        <v>Mean weekly hours actually worked per employed person: </v>
       </c>
       <c r="F187" s="0" t="str">
         <f aca="false">VLOOKUP($A187,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-51</v>
+        <v>I-47</v>
       </c>
       <c r="G187" s="0" t="str">
         <f aca="false">VLOOKUP($F187,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Freedom of association</v>
+        <v>Average working hours</v>
       </c>
       <c r="H187" s="0" t="str">
         <f aca="false">VLOOKUP($F187,Indicators!$A$1:$G$250,2,0)</f>
@@ -33211,14 +33195,14 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>975</v>
+        <v>258</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C188" s="0" t="str">
         <f aca="false">VLOOKUP($A188,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-211</v>
+        <v>S-53</v>
       </c>
       <c r="D188" s="0" t="str">
         <f aca="false">VLOOKUP($A188,Sources!$A$1:$G$250,5,0)</f>
@@ -33226,15 +33210,15 @@
       </c>
       <c r="E188" s="0" t="str">
         <f aca="false">VLOOKUP($A188,Sources!$A$1:$G$250,6,0)</f>
-        <v>ILO Stats Collective bargaining coverage in a country</v>
+        <v>Female share of employment in senior and middle management (%)</v>
       </c>
       <c r="F188" s="0" t="str">
         <f aca="false">VLOOKUP($A188,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-196</v>
+        <v>I-49</v>
       </c>
       <c r="G188" s="0" t="str">
         <f aca="false">VLOOKUP($F188,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Collective bargaining coverage</v>
+        <v>Women in management</v>
       </c>
       <c r="H188" s="0" t="str">
         <f aca="false">VLOOKUP($F188,Indicators!$A$1:$G$250,2,0)</f>
@@ -33246,83 +33230,83 @@
       </c>
       <c r="J188" s="0" t="str">
         <f aca="false">VLOOKUP($F188,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>528</v>
+        <v>951</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C189" s="0" t="str">
         <f aca="false">VLOOKUP($A189,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-120</v>
+        <v>S-205</v>
       </c>
       <c r="D189" s="0" t="str">
         <f aca="false">VLOOKUP($A189,Sources!$A$1:$G$250,5,0)</f>
-        <v>Economist Intelligence Unit</v>
+        <v>ILO</v>
       </c>
       <c r="E189" s="0" t="str">
         <f aca="false">VLOOKUP($A189,Sources!$A$1:$G$250,6,0)</f>
-        <v>Out of the Shadows Index. Legal Framework Score</v>
+        <v>Trade Union density rate % Annual</v>
       </c>
       <c r="F189" s="0" t="str">
         <f aca="false">VLOOKUP($A189,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-101</v>
+        <v>I-51</v>
       </c>
       <c r="G189" s="0" t="str">
         <f aca="false">VLOOKUP($F189,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child sexual abuse and exploitation. Legal framework</v>
+        <v>Freedom of association</v>
       </c>
       <c r="H189" s="0" t="str">
         <f aca="false">VLOOKUP($F189,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I189" s="0" t="str">
         <f aca="false">VLOOKUP($F189,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J189" s="0" t="str">
         <f aca="false">VLOOKUP($F189,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>550</v>
+        <v>975</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C190" s="0" t="str">
         <f aca="false">VLOOKUP($A190,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-124</v>
+        <v>S-211</v>
       </c>
       <c r="D190" s="0" t="str">
         <f aca="false">VLOOKUP($A190,Sources!$A$1:$G$250,5,0)</f>
-        <v>Economist Intelligence Unit</v>
+        <v>ILO</v>
       </c>
       <c r="E190" s="0" t="str">
         <f aca="false">VLOOKUP($A190,Sources!$A$1:$G$250,6,0)</f>
-        <v>Out of the Shadows Index, Environment Score</v>
+        <v>ILO Stats Collective bargaining coverage in a country</v>
       </c>
       <c r="F190" s="0" t="str">
         <f aca="false">VLOOKUP($A190,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-105</v>
+        <v>I-196</v>
       </c>
       <c r="G190" s="0" t="str">
         <f aca="false">VLOOKUP($F190,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child sexual abuse and exploitation. Environment.</v>
+        <v>Collective bargaining coverage</v>
       </c>
       <c r="H190" s="0" t="str">
         <f aca="false">VLOOKUP($F190,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I190" s="0" t="str">
         <f aca="false">VLOOKUP($F190,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Decent working conditions</v>
       </c>
       <c r="J190" s="0" t="str">
         <f aca="false">VLOOKUP($F190,Indicators!$A$1:$G$250,4,0)</f>
@@ -33331,38 +33315,38 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>701</v>
+        <v>528</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C191" s="0" t="str">
         <f aca="false">VLOOKUP($A191,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-153</v>
+        <v>S-120</v>
       </c>
       <c r="D191" s="0" t="str">
         <f aca="false">VLOOKUP($A191,Sources!$A$1:$G$250,5,0)</f>
-        <v>Climate Watch</v>
+        <v>Economist Intelligence Unit</v>
       </c>
       <c r="E191" s="0" t="str">
         <f aca="false">VLOOKUP($A191,Sources!$A$1:$G$250,6,0)</f>
-        <v>CAIT Climate Data Explorer, Paris Contributions, INDC: </v>
+        <v>Out of the Shadows Index. Legal Framework Score</v>
       </c>
       <c r="F191" s="0" t="str">
         <f aca="false">VLOOKUP($A191,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-133</v>
+        <v>I-101</v>
       </c>
       <c r="G191" s="0" t="str">
         <f aca="false">VLOOKUP($F191,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Climate change contributions</v>
+        <v>Child sexual abuse and exploitation. Legal framework</v>
       </c>
       <c r="H191" s="0" t="str">
         <f aca="false">VLOOKUP($F191,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I191" s="0" t="str">
         <f aca="false">VLOOKUP($F191,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Resource use and damage to the environment</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J191" s="0" t="str">
         <f aca="false">VLOOKUP($F191,Indicators!$A$1:$G$250,4,0)</f>
@@ -33371,38 +33355,38 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>714</v>
+        <v>550</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C192" s="0" t="str">
         <f aca="false">VLOOKUP($A192,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-155</v>
+        <v>S-124</v>
       </c>
       <c r="D192" s="0" t="str">
         <f aca="false">VLOOKUP($A192,Sources!$A$1:$G$250,5,0)</f>
-        <v>National Resource Governance Institute,</v>
+        <v>Economist Intelligence Unit</v>
       </c>
       <c r="E192" s="0" t="str">
         <f aca="false">VLOOKUP($A192,Sources!$A$1:$G$250,6,0)</f>
-        <v>Resource Governance Index: Mining</v>
+        <v>Out of the Shadows Index, Environment Score</v>
       </c>
       <c r="F192" s="0" t="str">
         <f aca="false">VLOOKUP($A192,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-135</v>
+        <v>I-105</v>
       </c>
       <c r="G192" s="0" t="str">
         <f aca="false">VLOOKUP($F192,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Resource governance extractives mining</v>
+        <v>Child sexual abuse and exploitation. Environment.</v>
       </c>
       <c r="H192" s="0" t="str">
         <f aca="false">VLOOKUP($F192,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I192" s="0" t="str">
         <f aca="false">VLOOKUP($F192,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Resource use and damage to the environment</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J192" s="0" t="str">
         <f aca="false">VLOOKUP($F192,Indicators!$A$1:$G$250,4,0)</f>
@@ -33411,30 +33395,30 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C193" s="0" t="str">
         <f aca="false">VLOOKUP($A193,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-156</v>
+        <v>S-153</v>
       </c>
       <c r="D193" s="0" t="str">
         <f aca="false">VLOOKUP($A193,Sources!$A$1:$G$250,5,0)</f>
-        <v>National Resource Governance Institute,</v>
+        <v>Climate Watch</v>
       </c>
       <c r="E193" s="0" t="str">
         <f aca="false">VLOOKUP($A193,Sources!$A$1:$G$250,6,0)</f>
-        <v>Resource Governance Index: Oil and gas</v>
+        <v>CAIT Climate Data Explorer, Paris Contributions, INDC: </v>
       </c>
       <c r="F193" s="0" t="str">
         <f aca="false">VLOOKUP($A193,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-136</v>
+        <v>I-133</v>
       </c>
       <c r="G193" s="0" t="str">
         <f aca="false">VLOOKUP($F193,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Resource governance extractives oil and gas</v>
+        <v>Climate change contributions</v>
       </c>
       <c r="H193" s="0" t="str">
         <f aca="false">VLOOKUP($F193,Indicators!$A$1:$G$250,2,0)</f>
@@ -33446,83 +33430,83 @@
       </c>
       <c r="J193" s="0" t="str">
         <f aca="false">VLOOKUP($F193,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>542</v>
+        <v>714</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C194" s="0" t="str">
         <f aca="false">VLOOKUP($A194,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-123</v>
+        <v>S-155</v>
       </c>
       <c r="D194" s="0" t="str">
         <f aca="false">VLOOKUP($A194,Sources!$A$1:$G$250,5,0)</f>
-        <v>NCMEC</v>
+        <v>National Resource Governance Institute,</v>
       </c>
       <c r="E194" s="0" t="str">
         <f aca="false">VLOOKUP($A194,Sources!$A$1:$G$250,6,0)</f>
-        <v>NCMEC 2019 World Map </v>
+        <v>Resource Governance Index: Mining</v>
       </c>
       <c r="F194" s="0" t="str">
         <f aca="false">VLOOKUP($A194,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-104</v>
+        <v>I-135</v>
       </c>
       <c r="G194" s="0" t="str">
         <f aca="false">VLOOKUP($F194,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Reports of suspected missing or exploited children</v>
+        <v>Resource governance extractives mining</v>
       </c>
       <c r="H194" s="0" t="str">
         <f aca="false">VLOOKUP($F194,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I194" s="0" t="str">
         <f aca="false">VLOOKUP($F194,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Resource use and damage to the environment</v>
       </c>
       <c r="J194" s="0" t="str">
         <f aca="false">VLOOKUP($F194,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>628</v>
+        <v>721</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C195" s="0" t="str">
         <f aca="false">VLOOKUP($A195,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-139</v>
+        <v>S-156</v>
       </c>
       <c r="D195" s="0" t="str">
         <f aca="false">VLOOKUP($A195,Sources!$A$1:$G$250,5,0)</f>
-        <v>ITU</v>
+        <v>National Resource Governance Institute,</v>
       </c>
       <c r="E195" s="0" t="str">
         <f aca="false">VLOOKUP($A195,Sources!$A$1:$G$250,6,0)</f>
-        <v>Country Profiles: Use the traffic light indicators at the top of each country profile to determine whether country has national strategy or policy</v>
+        <v>Resource Governance Index: Oil and gas</v>
       </c>
       <c r="F195" s="0" t="str">
         <f aca="false">VLOOKUP($A195,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-119</v>
+        <v>I-136</v>
       </c>
       <c r="G195" s="0" t="str">
         <f aca="false">VLOOKUP($F195,Indicators!$A$1:$G$250,5,0)</f>
-        <v>National strategy on child online protection</v>
+        <v>Resource governance extractives oil and gas</v>
       </c>
       <c r="H195" s="0" t="str">
         <f aca="false">VLOOKUP($F195,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I195" s="0" t="str">
         <f aca="false">VLOOKUP($F195,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Resource use and damage to the environment</v>
       </c>
       <c r="J195" s="0" t="str">
         <f aca="false">VLOOKUP($F195,Indicators!$A$1:$G$250,4,0)</f>
@@ -33531,118 +33515,118 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1112</v>
+        <v>542</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>1758</v>
-      </c>
-      <c r="C196" s="0" t="n">
+        <v>1759</v>
+      </c>
+      <c r="C196" s="0" t="str">
         <f aca="false">VLOOKUP($A196,Sources!$A$1:$G$250,2,0)</f>
-        <v>0</v>
+        <v>S-123</v>
       </c>
       <c r="D196" s="0" t="str">
         <f aca="false">VLOOKUP($A196,Sources!$A$1:$G$250,5,0)</f>
-        <v>World Vision</v>
+        <v>NCMEC</v>
       </c>
       <c r="E196" s="0" t="str">
         <f aca="false">VLOOKUP($A196,Sources!$A$1:$G$250,6,0)</f>
-        <v>Child Soldiers</v>
+        <v>NCMEC 2019 World Map </v>
       </c>
       <c r="F196" s="0" t="str">
         <f aca="false">VLOOKUP($A196,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-156</v>
+        <v>I-104</v>
       </c>
       <c r="G196" s="0" t="str">
         <f aca="false">VLOOKUP($F196,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Unlawful recruitment of children prohibited</v>
+        <v>Reports of suspected missing or exploited children</v>
       </c>
       <c r="H196" s="0" t="str">
         <f aca="false">VLOOKUP($F196,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I196" s="0" t="str">
         <f aca="false">VLOOKUP($F196,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J196" s="0" t="str">
         <f aca="false">VLOOKUP($F196,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>843</v>
+        <v>628</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>1759</v>
       </c>
       <c r="C197" s="0" t="str">
         <f aca="false">VLOOKUP($A197,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-180</v>
+        <v>S-139</v>
       </c>
       <c r="D197" s="0" t="str">
         <f aca="false">VLOOKUP($A197,Sources!$A$1:$G$250,5,0)</f>
-        <v>Internal Displacement Monitoring Centre</v>
+        <v>ITU</v>
       </c>
       <c r="E197" s="0" t="str">
         <f aca="false">VLOOKUP($A197,Sources!$A$1:$G$250,6,0)</f>
-        <v>Global Internal Displacement Database: Conflict stock displacements</v>
+        <v>Country Profiles: Use the traffic light indicators at the top of each country profile to determine whether country has national strategy or policy</v>
       </c>
       <c r="F197" s="0" t="str">
         <f aca="false">VLOOKUP($A197,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-161</v>
+        <v>I-119</v>
       </c>
       <c r="G197" s="0" t="str">
         <f aca="false">VLOOKUP($F197,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Number of people internally displaced by conflict and violence</v>
+        <v>National strategy on child online protection</v>
       </c>
       <c r="H197" s="0" t="str">
         <f aca="false">VLOOKUP($F197,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I197" s="0" t="str">
         <f aca="false">VLOOKUP($F197,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J197" s="0" t="str">
         <f aca="false">VLOOKUP($F197,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>68</v>
+        <v>1112</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C198" s="0" t="str">
+        <v>1758</v>
+      </c>
+      <c r="C198" s="0" t="n">
         <f aca="false">VLOOKUP($A198,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-11</v>
+        <v>0</v>
       </c>
       <c r="D198" s="0" t="str">
         <f aca="false">VLOOKUP($A198,Sources!$A$1:$G$250,5,0)</f>
-        <v>Economist Intelligence Unit</v>
+        <v>World Vision</v>
       </c>
       <c r="E198" s="0" t="str">
         <f aca="false">VLOOKUP($A198,Sources!$A$1:$G$250,6,0)</f>
-        <v>Out of the Shadows Index. Legal Framework score</v>
+        <v>Child Soldiers</v>
       </c>
       <c r="F198" s="0" t="str">
         <f aca="false">VLOOKUP($A198,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-11</v>
+        <v>I-156</v>
       </c>
       <c r="G198" s="0" t="str">
         <f aca="false">VLOOKUP($F198,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child sexual abuse and exploitation. Legal framework</v>
+        <v>Unlawful recruitment of children prohibited</v>
       </c>
       <c r="H198" s="0" t="str">
         <f aca="false">VLOOKUP($F198,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I198" s="0" t="str">
         <f aca="false">VLOOKUP($F198,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Child labour</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J198" s="0" t="str">
         <f aca="false">VLOOKUP($F198,Indicators!$A$1:$G$250,4,0)</f>
@@ -33651,70 +33635,70 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>607</v>
+        <v>843</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="C199" s="0" t="str">
         <f aca="false">VLOOKUP($A199,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-134</v>
+        <v>S-180</v>
       </c>
       <c r="D199" s="0" t="str">
         <f aca="false">VLOOKUP($A199,Sources!$A$1:$G$250,5,0)</f>
-        <v>Economist Intelligence Unit</v>
+        <v>Internal Displacement Monitoring Centre</v>
       </c>
       <c r="E199" s="0" t="str">
         <f aca="false">VLOOKUP($A199,Sources!$A$1:$G$250,6,0)</f>
-        <v>Out of the Shadows Index. Government commitment and capacity score</v>
+        <v>Global Internal Displacement Database: Conflict stock displacements</v>
       </c>
       <c r="F199" s="0" t="str">
         <f aca="false">VLOOKUP($A199,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-114</v>
+        <v>I-161</v>
       </c>
       <c r="G199" s="0" t="str">
         <f aca="false">VLOOKUP($F199,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child sexual abuse and exploitation. Government commitment and capacity</v>
+        <v>Number of people internally displaced by conflict and violence</v>
       </c>
       <c r="H199" s="0" t="str">
         <f aca="false">VLOOKUP($F199,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Community and Environment</v>
       </c>
       <c r="I199" s="0" t="str">
         <f aca="false">VLOOKUP($F199,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Security arrangements</v>
       </c>
       <c r="J199" s="0" t="str">
         <f aca="false">VLOOKUP($F199,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="C200" s="0" t="str">
         <f aca="false">VLOOKUP($A200,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-21</v>
+        <v>S-11</v>
       </c>
       <c r="D200" s="0" t="str">
         <f aca="false">VLOOKUP($A200,Sources!$A$1:$G$250,5,0)</f>
-        <v>UCW Project</v>
+        <v>Economist Intelligence Unit</v>
       </c>
       <c r="E200" s="0" t="str">
         <f aca="false">VLOOKUP($A200,Sources!$A$1:$G$250,6,0)</f>
-        <v>UCW Project. Understanding Children’s Work. Info by Country. Hazardous work (15-17 year old) </v>
+        <v>Out of the Shadows Index. Legal Framework score</v>
       </c>
       <c r="F200" s="0" t="str">
         <f aca="false">VLOOKUP($A200,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-21</v>
+        <v>I-11</v>
       </c>
       <c r="G200" s="0" t="str">
         <f aca="false">VLOOKUP($F200,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Prevalence of hazardous work by adolescents</v>
+        <v>Child sexual abuse and exploitation. Legal framework</v>
       </c>
       <c r="H200" s="0" t="str">
         <f aca="false">VLOOKUP($F200,Indicators!$A$1:$G$250,2,0)</f>
@@ -33726,99 +33710,99 @@
       </c>
       <c r="J200" s="0" t="str">
         <f aca="false">VLOOKUP($F200,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Legal framework national</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>756</v>
+        <v>607</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="C201" s="0" t="str">
         <f aca="false">VLOOKUP($A201,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-163</v>
+        <v>S-134</v>
       </c>
       <c r="D201" s="0" t="str">
         <f aca="false">VLOOKUP($A201,Sources!$A$1:$G$250,5,0)</f>
-        <v>ILO NORMLEX</v>
+        <v>Economist Intelligence Unit</v>
       </c>
       <c r="E201" s="0" t="str">
         <f aca="false">VLOOKUP($A201,Sources!$A$1:$G$250,6,0)</f>
-        <v>Ratifications of C107 - Indigenous and Tribal Populations Convention, 1957 (No. 107)</v>
+        <v>Out of the Shadows Index. Government commitment and capacity score</v>
       </c>
       <c r="F201" s="0" t="str">
         <f aca="false">VLOOKUP($A201,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-143</v>
+        <v>I-114</v>
       </c>
       <c r="G201" s="0" t="str">
         <f aca="false">VLOOKUP($F201,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Convention on the Rights of Indigenous Peoples</v>
+        <v>Child sexual abuse and exploitation. Government commitment and capacity</v>
       </c>
       <c r="H201" s="0" t="str">
         <f aca="false">VLOOKUP($F201,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Marketplace</v>
       </c>
       <c r="I201" s="0" t="str">
         <f aca="false">VLOOKUP($F201,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Land rights</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J201" s="0" t="str">
         <f aca="false">VLOOKUP($F201,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework international</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>819</v>
+        <v>91</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="C202" s="0" t="str">
         <f aca="false">VLOOKUP($A202,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-175</v>
+        <v>S-21</v>
       </c>
       <c r="D202" s="0" t="str">
         <f aca="false">VLOOKUP($A202,Sources!$A$1:$G$250,5,0)</f>
-        <v>Child Soldiers Index</v>
+        <v>UCW Project</v>
       </c>
       <c r="E202" s="0" t="str">
         <f aca="false">VLOOKUP($A202,Sources!$A$1:$G$250,6,0)</f>
-        <v>Child Soldiers Index:</v>
+        <v>UCW Project. Understanding Children’s Work. Info by Country. Hazardous work (15-17 year old) </v>
       </c>
       <c r="F202" s="0" t="str">
         <f aca="false">VLOOKUP($A202,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-156</v>
+        <v>I-21</v>
       </c>
       <c r="G202" s="0" t="str">
         <f aca="false">VLOOKUP($F202,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Unlawful recruitment of children prohibited</v>
+        <v>Prevalence of hazardous work by adolescents</v>
       </c>
       <c r="H202" s="0" t="str">
         <f aca="false">VLOOKUP($F202,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Community and Environment</v>
+        <v>Workplace</v>
       </c>
       <c r="I202" s="0" t="str">
         <f aca="false">VLOOKUP($F202,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Security arrangements</v>
+        <v>Child labour</v>
       </c>
       <c r="J202" s="0" t="str">
         <f aca="false">VLOOKUP($F202,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="C203" s="0" t="str">
         <f aca="false">VLOOKUP($A203,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-176</v>
+        <v>S-175</v>
       </c>
       <c r="D203" s="0" t="str">
         <f aca="false">VLOOKUP($A203,Sources!$A$1:$G$250,5,0)</f>
@@ -33830,11 +33814,11 @@
       </c>
       <c r="F203" s="0" t="str">
         <f aca="false">VLOOKUP($A203,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-157</v>
+        <v>I-156</v>
       </c>
       <c r="G203" s="0" t="str">
         <f aca="false">VLOOKUP($F203,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Use of children in hostilities prohibited</v>
+        <v>Unlawful recruitment of children prohibited</v>
       </c>
       <c r="H203" s="0" t="str">
         <f aca="false">VLOOKUP($F203,Indicators!$A$1:$G$250,2,0)</f>
@@ -33851,14 +33835,14 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="C204" s="0" t="str">
         <f aca="false">VLOOKUP($A204,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-179</v>
+        <v>S-176</v>
       </c>
       <c r="D204" s="0" t="str">
         <f aca="false">VLOOKUP($A204,Sources!$A$1:$G$250,5,0)</f>
@@ -33866,15 +33850,15 @@
       </c>
       <c r="E204" s="0" t="str">
         <f aca="false">VLOOKUP($A204,Sources!$A$1:$G$250,6,0)</f>
-        <v>Reports of Children Used in Hostilities': </v>
+        <v>Child Soldiers Index:</v>
       </c>
       <c r="F204" s="0" t="str">
         <f aca="false">VLOOKUP($A204,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-160</v>
+        <v>I-157</v>
       </c>
       <c r="G204" s="0" t="str">
         <f aca="false">VLOOKUP($F204,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Recruitment and use of children in hostilities</v>
+        <v>Use of children in hostilities prohibited</v>
       </c>
       <c r="H204" s="0" t="str">
         <f aca="false">VLOOKUP($F204,Indicators!$A$1:$G$250,2,0)</f>
@@ -33886,128 +33870,128 @@
       </c>
       <c r="J204" s="0" t="str">
         <f aca="false">VLOOKUP($F204,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>Legal framework national</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>985</v>
+        <v>836</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="C205" s="0" t="str">
         <f aca="false">VLOOKUP($A205,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-213</v>
+        <v>S-179</v>
       </c>
       <c r="D205" s="0" t="str">
         <f aca="false">VLOOKUP($A205,Sources!$A$1:$G$250,5,0)</f>
+        <v>Child Soldiers Index</v>
+      </c>
+      <c r="E205" s="0" t="str">
+        <f aca="false">VLOOKUP($A205,Sources!$A$1:$G$250,6,0)</f>
+        <v>Reports of Children Used in Hostilities': </v>
+      </c>
+      <c r="F205" s="0" t="str">
+        <f aca="false">VLOOKUP($A205,Sources!$A$1:$G$250,3,0)</f>
+        <v>I-160</v>
+      </c>
+      <c r="G205" s="0" t="str">
+        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,5,0)</f>
+        <v>Recruitment and use of children in hostilities</v>
+      </c>
+      <c r="H205" s="0" t="str">
+        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,2,0)</f>
+        <v>Community and Environment</v>
+      </c>
+      <c r="I205" s="0" t="str">
+        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,3,0)</f>
+        <v>Security arrangements</v>
+      </c>
+      <c r="J205" s="0" t="str">
+        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,4,0)</f>
+        <v>Outcome</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>985</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C206" s="0" t="str">
+        <f aca="false">VLOOKUP($A206,Sources!$A$1:$G$250,2,0)</f>
+        <v>S-213</v>
+      </c>
+      <c r="D206" s="0" t="str">
+        <f aca="false">VLOOKUP($A206,Sources!$A$1:$G$250,5,0)</f>
         <v>ILO</v>
       </c>
-      <c r="E205" s="3" t="str">
-        <f aca="false">VLOOKUP($A205,Sources!$A$1:$G$250,6,0)</f>
+      <c r="E206" s="0" t="str">
+        <f aca="false">VLOOKUP($A206,Sources!$A$1:$G$250,6,0)</f>
         <v>Maternity and Paternity at Work, 2014: P.144 Appendix 4, column 3  ILO, Maternity and Paternity at Work, 2014:  
 NOTE: this is the same source used for the indicators above on women 'entitled' to leave and cash benefits. A PDF Go to P. 144 Appendix 3, column 3</v>
       </c>
-      <c r="F205" s="0" t="str">
-        <f aca="false">VLOOKUP($A205,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-200</v>
-      </c>
-      <c r="G205" s="0" t="str">
-        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Maternity leave cash benefits</v>
-      </c>
-      <c r="H205" s="0" t="str">
-        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
-      </c>
-      <c r="I205" s="0" t="str">
-        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Maternity and paternity protection</v>
-      </c>
-      <c r="J205" s="0" t="str">
-        <f aca="false">VLOOKUP($F205,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Enforcement</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B206" s="0" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C206" s="0" t="str">
-        <f aca="false">VLOOKUP($A206,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-229</v>
-      </c>
-      <c r="D206" s="0" t="str">
-        <f aca="false">VLOOKUP($A206,Sources!$A$1:$G$250,5,0)</f>
-        <v>Economist Intelligence Unit</v>
-      </c>
-      <c r="E206" s="0" t="str">
-        <f aca="false">VLOOKUP($A206,Sources!$A$1:$G$250,6,0)</f>
-        <v>Out of the Shadows Index. Engagement Score</v>
-      </c>
       <c r="F206" s="0" t="str">
         <f aca="false">VLOOKUP($A206,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-216</v>
+        <v>I-200</v>
       </c>
       <c r="G206" s="0" t="str">
         <f aca="false">VLOOKUP($F206,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Child sexual abuse and exploitation. Engagement.</v>
+        <v>Maternity leave cash benefits</v>
       </c>
       <c r="H206" s="0" t="str">
         <f aca="false">VLOOKUP($F206,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Marketplace</v>
+        <v>Workplace</v>
       </c>
       <c r="I206" s="0" t="str">
         <f aca="false">VLOOKUP($F206,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Online Abuse and exploitation</v>
+        <v>Maternity and paternity protection</v>
       </c>
       <c r="J206" s="0" t="str">
         <f aca="false">VLOOKUP($F206,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Outcome</v>
+        <v>Enforcement</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>226</v>
+        <v>1052</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>1760</v>
       </c>
       <c r="C207" s="0" t="str">
         <f aca="false">VLOOKUP($A207,Sources!$A$1:$G$250,2,0)</f>
-        <v>S-46</v>
+        <v>S-229</v>
       </c>
       <c r="D207" s="0" t="str">
         <f aca="false">VLOOKUP($A207,Sources!$A$1:$G$250,5,0)</f>
-        <v>Center for Global Workers’ Rights</v>
+        <v>Economist Intelligence Unit</v>
       </c>
       <c r="E207" s="0" t="str">
         <f aca="false">VLOOKUP($A207,Sources!$A$1:$G$250,6,0)</f>
-        <v>(2017). Labour Rights Indicators. “In Law’ Retrieved from </v>
+        <v>Out of the Shadows Index. Engagement Score</v>
       </c>
       <c r="F207" s="0" t="str">
         <f aca="false">VLOOKUP($A207,Sources!$A$1:$G$250,3,0)</f>
-        <v>I-42</v>
+        <v>I-216</v>
       </c>
       <c r="G207" s="0" t="str">
         <f aca="false">VLOOKUP($F207,Indicators!$A$1:$G$250,5,0)</f>
-        <v>Freedom of association</v>
+        <v>Child sexual abuse and exploitation. Engagement.</v>
       </c>
       <c r="H207" s="0" t="str">
         <f aca="false">VLOOKUP($F207,Indicators!$A$1:$G$250,2,0)</f>
-        <v>Workplace</v>
+        <v>Marketplace</v>
       </c>
       <c r="I207" s="0" t="str">
         <f aca="false">VLOOKUP($F207,Indicators!$A$1:$G$250,3,0)</f>
-        <v>Decent working conditions</v>
+        <v>Online Abuse and exploitation</v>
       </c>
       <c r="J207" s="0" t="str">
         <f aca="false">VLOOKUP($F207,Indicators!$A$1:$G$250,4,0)</f>
-        <v>Legal framework national</v>
+        <v>Outcome</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
